--- a/results_20MHZ_LTE.xlsx
+++ b/results_20MHZ_LTE.xlsx
@@ -173,6 +173,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'PWR_Q_1'!$A$2:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PWR_Q_1'!$B$2:$B$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PWR_Q_1'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -191,16 +223,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_1'!$B$2:$B$8</f>
+              <f>'PWR_Q_1'!$C$2:$C$8</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'PWR_Q_1'!C1</f>
+              <f>'PWR_Q_1'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -209,39 +241,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'PWR_Q_1'!$A$2:$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PWR_Q_1'!$C$2:$C$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'PWR_Q_1'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -360,7 +361,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
+            <symbol val="triangle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -388,6 +390,39 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="10"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_16_P'!$A$2:$B$22</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_16_P'!$D$2:$D$22</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_16_P'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -406,20 +441,20 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$D$2:$D$22</f>
+              <f>'ACLR_16_P'!$E$2:$E$22</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="2"/>
-          <order val="2"/>
+          <idx val="3"/>
+          <order val="3"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_P'!E1</f>
+              <f>'ACLR_16_P'!F1</f>
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -438,21 +473,21 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$E$2:$E$22</f>
+              <f>'ACLR_16_P'!$F$2:$F$22</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="3"/>
-          <order val="3"/>
+          <idx val="4"/>
+          <order val="4"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_P'!F1</f>
+              <f>'ACLR_16_P'!G1</f>
             </strRef>
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -470,38 +505,6 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$F$2:$F$22</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'ACLR_16_P'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$22</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
               <f>'ACLR_16_P'!$G$2:$G$22</f>
             </numRef>
           </val>
@@ -516,7 +519,7 @@
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -639,7 +642,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
+            <symbol val="triangle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -667,6 +671,39 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="10"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_16_F'!$A$2:$B$22</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_16_F'!$D$2:$D$22</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_16_F'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -685,20 +722,20 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$D$2:$D$22</f>
+              <f>'ACLR_16_F'!$E$2:$E$22</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="2"/>
-          <order val="2"/>
+          <idx val="3"/>
+          <order val="3"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_F'!E1</f>
+              <f>'ACLR_16_F'!F1</f>
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -717,21 +754,21 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$E$2:$E$22</f>
+              <f>'ACLR_16_F'!$F$2:$F$22</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="3"/>
-          <order val="3"/>
+          <idx val="4"/>
+          <order val="4"/>
           <tx>
             <strRef>
-              <f>'ACLR_16_F'!F1</f>
+              <f>'ACLR_16_F'!G1</f>
             </strRef>
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -749,38 +786,6 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$F$2:$F$22</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'ACLR_16_F'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$22</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
               <f>'ACLR_16_F'!$G$2:$G$22</f>
             </numRef>
           </val>
@@ -795,7 +800,7 @@
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -918,7 +923,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
+            <symbol val="triangle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -946,6 +952,39 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="10"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_64_P'!$A$2:$B$22</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_64_P'!$D$2:$D$22</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_64_P'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -964,20 +1003,20 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$D$2:$D$22</f>
+              <f>'ACLR_64_P'!$E$2:$E$22</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="2"/>
-          <order val="2"/>
+          <idx val="3"/>
+          <order val="3"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_P'!E1</f>
+              <f>'ACLR_64_P'!F1</f>
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -996,21 +1035,21 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$E$2:$E$22</f>
+              <f>'ACLR_64_P'!$F$2:$F$22</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="3"/>
-          <order val="3"/>
+          <idx val="4"/>
+          <order val="4"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_P'!F1</f>
+              <f>'ACLR_64_P'!G1</f>
             </strRef>
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -1028,38 +1067,6 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$F$2:$F$22</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'ACLR_64_P'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$22</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
               <f>'ACLR_64_P'!$G$2:$G$22</f>
             </numRef>
           </val>
@@ -1074,7 +1081,7 @@
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -1197,7 +1204,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
+            <symbol val="triangle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -1225,6 +1233,39 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="10"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_64_F'!$A$2:$B$22</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_64_F'!$D$2:$D$22</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_64_F'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1243,20 +1284,20 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$D$2:$D$22</f>
+              <f>'ACLR_64_F'!$E$2:$E$22</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="2"/>
-          <order val="2"/>
+          <idx val="3"/>
+          <order val="3"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_F'!E1</f>
+              <f>'ACLR_64_F'!F1</f>
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1275,21 +1316,21 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$E$2:$E$22</f>
+              <f>'ACLR_64_F'!$F$2:$F$22</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="3"/>
-          <order val="3"/>
+          <idx val="4"/>
+          <order val="4"/>
           <tx>
             <strRef>
-              <f>'ACLR_64_F'!F1</f>
+              <f>'ACLR_64_F'!G1</f>
             </strRef>
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -1307,38 +1348,6 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$F$2:$F$22</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'ACLR_64_F'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$22</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
               <f>'ACLR_64_F'!$G$2:$G$22</f>
             </numRef>
           </val>
@@ -1353,7 +1362,7 @@
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -1472,6 +1481,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_Q_P'!$A$2:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_Q_P'!$B$2:$B$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'EVM_Q_P'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1490,16 +1531,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_P'!$B$2:$B$8</f>
+              <f>'EVM_Q_P'!$C$2:$C$8</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'EVM_Q_P'!C1</f>
+              <f>'EVM_Q_P'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1508,39 +1549,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'EVM_Q_P'!$A$2:$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EVM_Q_P'!$C$2:$C$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'EVM_Q_P'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -1655,6 +1665,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_Q_F'!$A$2:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_Q_F'!$B$2:$B$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'EVM_Q_F'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1673,16 +1715,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_F'!$B$2:$B$8</f>
+              <f>'EVM_Q_F'!$C$2:$C$8</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'EVM_Q_F'!C1</f>
+              <f>'EVM_Q_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1691,39 +1733,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'EVM_Q_F'!$A$2:$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EVM_Q_F'!$C$2:$C$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'EVM_Q_F'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -1838,6 +1849,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_16_P'!$A$2:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_16_P'!$B$2:$B$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'EVM_16_P'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1856,16 +1899,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_P'!$B$2:$B$8</f>
+              <f>'EVM_16_P'!$C$2:$C$8</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'EVM_16_P'!C1</f>
+              <f>'EVM_16_P'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -1874,39 +1917,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'EVM_16_P'!$A$2:$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EVM_16_P'!$C$2:$C$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'EVM_16_P'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -2021,6 +2033,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_16_F'!$A$2:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_16_F'!$B$2:$B$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'EVM_16_F'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2039,16 +2083,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_F'!$B$2:$B$8</f>
+              <f>'EVM_16_F'!$C$2:$C$8</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'EVM_16_F'!C1</f>
+              <f>'EVM_16_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2057,39 +2101,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'EVM_16_F'!$A$2:$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EVM_16_F'!$C$2:$C$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'EVM_16_F'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -2204,6 +2217,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_64_P'!$A$2:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_64_P'!$B$2:$B$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'EVM_64_P'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2222,16 +2267,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_P'!$B$2:$B$8</f>
+              <f>'EVM_64_P'!$C$2:$C$8</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'EVM_64_P'!C1</f>
+              <f>'EVM_64_P'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2240,39 +2285,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'EVM_64_P'!$A$2:$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EVM_64_P'!$C$2:$C$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'EVM_64_P'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -2387,6 +2401,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'EVM_64_F'!$A$2:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'EVM_64_F'!$B$2:$B$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'EVM_64_F'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2405,16 +2451,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_F'!$B$2:$B$8</f>
+              <f>'EVM_64_F'!$C$2:$C$8</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'EVM_64_F'!C1</f>
+              <f>'EVM_64_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2423,39 +2469,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'EVM_64_F'!$A$2:$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'EVM_64_F'!$C$2:$C$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'EVM_64_F'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -2570,6 +2585,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'PWR_Q_P'!$A$2:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PWR_Q_P'!$B$2:$B$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PWR_Q_P'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2588,16 +2635,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_P'!$B$2:$B$8</f>
+              <f>'PWR_Q_P'!$C$2:$C$8</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'PWR_Q_P'!C1</f>
+              <f>'PWR_Q_P'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2606,39 +2653,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'PWR_Q_P'!$A$2:$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PWR_Q_P'!$C$2:$C$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'PWR_Q_P'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -2753,6 +2769,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'PWR_Q_F'!$A$2:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PWR_Q_F'!$B$2:$B$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PWR_Q_F'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2771,16 +2819,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_F'!$B$2:$B$8</f>
+              <f>'PWR_Q_F'!$C$2:$C$8</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'PWR_Q_F'!C1</f>
+              <f>'PWR_Q_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2789,39 +2837,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'PWR_Q_F'!$A$2:$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PWR_Q_F'!$C$2:$C$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'PWR_Q_F'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -2936,6 +2953,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'PWR_16_P'!$A$2:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PWR_16_P'!$B$2:$B$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PWR_16_P'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2954,16 +3003,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_P'!$B$2:$B$8</f>
+              <f>'PWR_16_P'!$C$2:$C$8</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'PWR_16_P'!C1</f>
+              <f>'PWR_16_P'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -2972,39 +3021,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'PWR_16_P'!$A$2:$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PWR_16_P'!$C$2:$C$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'PWR_16_P'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -3119,6 +3137,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'PWR_16_F'!$A$2:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PWR_16_F'!$B$2:$B$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PWR_16_F'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -3137,16 +3187,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_F'!$B$2:$B$8</f>
+              <f>'PWR_16_F'!$C$2:$C$8</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'PWR_16_F'!C1</f>
+              <f>'PWR_16_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -3155,39 +3205,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'PWR_16_F'!$A$2:$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PWR_16_F'!$C$2:$C$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'PWR_16_F'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -3302,6 +3321,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'PWR_64_P'!$A$2:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PWR_64_P'!$B$2:$B$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PWR_64_P'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -3320,16 +3371,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_P'!$B$2:$B$8</f>
+              <f>'PWR_64_P'!$C$2:$C$8</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'PWR_64_P'!C1</f>
+              <f>'PWR_64_P'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -3338,39 +3389,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'PWR_64_P'!$A$2:$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PWR_64_P'!$C$2:$C$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'PWR_64_P'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -3485,6 +3505,38 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'PWR_64_F'!$A$2:$A$8</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'PWR_64_F'!$B$2:$B$8</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'PWR_64_F'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -3503,16 +3555,16 @@
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_F'!$B$2:$B$8</f>
+              <f>'PWR_64_F'!$C$2:$C$8</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="1"/>
-          <order val="1"/>
+          <idx val="2"/>
+          <order val="2"/>
           <tx>
             <strRef>
-              <f>'PWR_64_F'!C1</f>
+              <f>'PWR_64_F'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -3521,39 +3573,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'PWR_64_F'!$A$2:$A$8</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PWR_64_F'!$C$2:$C$8</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'PWR_64_F'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
+            <symbol val="circle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -3672,7 +3693,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
+            <symbol val="triangle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -3700,6 +3722,39 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="10"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_Q_P'!$A$2:$B$22</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_Q_P'!$D$2:$D$22</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_Q_P'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -3718,20 +3773,20 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$D$2:$D$22</f>
+              <f>'ACLR_Q_P'!$E$2:$E$22</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="2"/>
-          <order val="2"/>
+          <idx val="3"/>
+          <order val="3"/>
           <tx>
             <strRef>
-              <f>'ACLR_Q_P'!E1</f>
+              <f>'ACLR_Q_P'!F1</f>
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -3750,21 +3805,21 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$E$2:$E$22</f>
+              <f>'ACLR_Q_P'!$F$2:$F$22</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="3"/>
-          <order val="3"/>
+          <idx val="4"/>
+          <order val="4"/>
           <tx>
             <strRef>
-              <f>'ACLR_Q_P'!F1</f>
+              <f>'ACLR_Q_P'!G1</f>
             </strRef>
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -3782,38 +3837,6 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$F$2:$F$22</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'ACLR_Q_P'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$22</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
               <f>'ACLR_Q_P'!$G$2:$G$22</f>
             </numRef>
           </val>
@@ -3828,7 +3851,7 @@
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -3951,7 +3974,8 @@
             </a:ln>
           </spPr>
           <marker>
-            <symbol val="none"/>
+            <symbol val="triangle"/>
+            <size val="10"/>
             <spPr>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -3979,6 +4003,39 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="10"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'ACLR_Q_F'!$A$2:$B$22</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ACLR_Q_F'!$D$2:$D$22</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'ACLR_Q_F'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -3997,20 +4054,20 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$D$2:$D$22</f>
+              <f>'ACLR_Q_F'!$E$2:$E$22</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="2"/>
-          <order val="2"/>
+          <idx val="3"/>
+          <order val="3"/>
           <tx>
             <strRef>
-              <f>'ACLR_Q_F'!E1</f>
+              <f>'ACLR_Q_F'!F1</f>
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln w="50000">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -4029,21 +4086,21 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$E$2:$E$22</f>
+              <f>'ACLR_Q_F'!$F$2:$F$22</f>
             </numRef>
           </val>
         </ser>
         <ser>
-          <idx val="3"/>
-          <order val="3"/>
+          <idx val="4"/>
+          <order val="4"/>
           <tx>
             <strRef>
-              <f>'ACLR_Q_F'!F1</f>
+              <f>'ACLR_Q_F'!G1</f>
             </strRef>
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -4061,38 +4118,6 @@
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$F$2:$F$22</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'ACLR_Q_F'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$22</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
               <f>'ACLR_Q_F'!$G$2:$G$22</f>
             </numRef>
           </val>
@@ -4107,7 +4132,7 @@
           </tx>
           <spPr>
             <a:ln>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </spPr>
           <marker>
@@ -4204,7 +4229,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4339,7 +4364,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4366,7 +4391,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4393,7 +4418,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4420,7 +4445,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4447,7 +4472,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4474,7 +4499,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4501,7 +4526,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4528,7 +4553,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4555,7 +4580,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4582,7 +4607,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4609,7 +4634,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -4636,7 +4661,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="14400000" cy="7200000"/>
+    <ext cx="11520000" cy="7200000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5032,13 +5057,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>24.63</v>
+        <v>24.79</v>
       </c>
       <c r="C2" t="n">
-        <v>24.58</v>
+        <v>24.84</v>
       </c>
       <c r="D2" t="n">
-        <v>24.76</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="3">
@@ -5046,13 +5071,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="C3" t="n">
         <v>24.76</v>
       </c>
-      <c r="C3" t="n">
-        <v>24.66</v>
-      </c>
       <c r="D3" t="n">
-        <v>24.69</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="4">
@@ -5060,13 +5085,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.13</v>
+        <v>24.9</v>
       </c>
       <c r="C4" t="n">
-        <v>24.91</v>
+        <v>24.97</v>
       </c>
       <c r="D4" t="n">
-        <v>24.91</v>
+        <v>24.94</v>
       </c>
     </row>
     <row r="5">
@@ -5074,13 +5099,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.64</v>
+        <v>24.58</v>
       </c>
       <c r="C5" t="n">
-        <v>24.6</v>
+        <v>24.65</v>
       </c>
       <c r="D5" t="n">
-        <v>24.65</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="6">
@@ -5088,13 +5113,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>24.86</v>
+        <v>24.66</v>
       </c>
       <c r="C6" t="n">
-        <v>24.98</v>
+        <v>24.83</v>
       </c>
       <c r="D6" t="n">
-        <v>24.93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -5102,13 +5127,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>24.74</v>
+        <v>24.71</v>
       </c>
       <c r="C7" t="n">
-        <v>24.76</v>
+        <v>24.82</v>
       </c>
       <c r="D7" t="n">
-        <v>24.59</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="8">
@@ -5116,10 +5141,10 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>24.85</v>
+        <v>24.84</v>
       </c>
       <c r="C8" t="n">
-        <v>24.79</v>
+        <v>24.89</v>
       </c>
       <c r="D8" t="n">
         <v>24.93</v>
@@ -5197,22 +5222,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-44.73</v>
+        <v>-44.98</v>
       </c>
       <c r="D2" t="n">
-        <v>-50.94</v>
+        <v>-51.19</v>
       </c>
       <c r="E2" t="n">
-        <v>-44.28</v>
+        <v>-44.71</v>
       </c>
       <c r="F2" t="n">
-        <v>-54.84</v>
+        <v>-55.05</v>
       </c>
       <c r="G2" t="n">
-        <v>-55.51</v>
+        <v>-55.56</v>
       </c>
       <c r="H2" t="n">
-        <v>-57.28</v>
+        <v>-57.56</v>
       </c>
     </row>
     <row r="3">
@@ -5225,22 +5250,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-45.8</v>
+        <v>-46</v>
       </c>
       <c r="D3" t="n">
-        <v>-51.17</v>
+        <v>-50.98</v>
       </c>
       <c r="E3" t="n">
-        <v>-45.16</v>
+        <v>-45.71</v>
       </c>
       <c r="F3" t="n">
-        <v>-54.84</v>
+        <v>-54.71</v>
       </c>
       <c r="G3" t="n">
-        <v>-56.57</v>
+        <v>-56.14</v>
       </c>
       <c r="H3" t="n">
-        <v>-57.7</v>
+        <v>-57.16</v>
       </c>
     </row>
     <row r="4">
@@ -5253,22 +5278,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-46.95</v>
+        <v>-47.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-51.57</v>
+        <v>-51.66</v>
       </c>
       <c r="E4" t="n">
-        <v>-47.57</v>
+        <v>-48.87</v>
       </c>
       <c r="F4" t="n">
-        <v>-55.4</v>
+        <v>-55.53</v>
       </c>
       <c r="G4" t="n">
-        <v>-55.68</v>
+        <v>-56.13</v>
       </c>
       <c r="H4" t="n">
-        <v>-57.86</v>
+        <v>-57.98</v>
       </c>
     </row>
     <row r="5">
@@ -5281,22 +5306,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-46.39</v>
+        <v>-45.45</v>
       </c>
       <c r="D5" t="n">
-        <v>-51.03</v>
+        <v>-50.94</v>
       </c>
       <c r="E5" t="n">
-        <v>-46.16</v>
+        <v>-45.03</v>
       </c>
       <c r="F5" t="n">
-        <v>-54.7</v>
+        <v>-54.74</v>
       </c>
       <c r="G5" t="n">
-        <v>-56.46</v>
+        <v>-56.71</v>
       </c>
       <c r="H5" t="n">
-        <v>-57.36</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="6">
@@ -5309,22 +5334,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-46.94</v>
+        <v>-45.93</v>
       </c>
       <c r="D6" t="n">
-        <v>-52.14</v>
+        <v>-52.2</v>
       </c>
       <c r="E6" t="n">
-        <v>-46.55</v>
+        <v>-45.48</v>
       </c>
       <c r="F6" t="n">
-        <v>-55.89</v>
+        <v>-55.96</v>
       </c>
       <c r="G6" t="n">
-        <v>-56.32</v>
+        <v>-56.11</v>
       </c>
       <c r="H6" t="n">
-        <v>-58.82</v>
+        <v>-58.79</v>
       </c>
     </row>
     <row r="7">
@@ -5337,22 +5362,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-46.38</v>
+        <v>-45.39</v>
       </c>
       <c r="D7" t="n">
-        <v>-51.87</v>
+        <v>-52.26</v>
       </c>
       <c r="E7" t="n">
-        <v>-47.36</v>
+        <v>-45.89</v>
       </c>
       <c r="F7" t="n">
-        <v>-55.06</v>
+        <v>-55.4</v>
       </c>
       <c r="G7" t="n">
-        <v>-54.03</v>
+        <v>-53.85</v>
       </c>
       <c r="H7" t="n">
-        <v>-58.27</v>
+        <v>-58.35</v>
       </c>
     </row>
     <row r="8">
@@ -5365,22 +5390,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-44.56</v>
+        <v>-44.92</v>
       </c>
       <c r="D8" t="n">
-        <v>-51.98</v>
+        <v>-52.02</v>
       </c>
       <c r="E8" t="n">
-        <v>-43.39</v>
+        <v>-43.71</v>
       </c>
       <c r="F8" t="n">
-        <v>-55.05</v>
+        <v>-55.06</v>
       </c>
       <c r="G8" t="n">
-        <v>-57.64</v>
+        <v>-57.91</v>
       </c>
       <c r="H8" t="n">
-        <v>-57.85</v>
+        <v>-58.04</v>
       </c>
     </row>
     <row r="9">
@@ -5393,22 +5418,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-45.77</v>
+        <v>-45.96</v>
       </c>
       <c r="D9" t="n">
-        <v>-52.76</v>
+        <v>-52.5</v>
       </c>
       <c r="E9" t="n">
-        <v>-45.3</v>
+        <v>-45.73</v>
       </c>
       <c r="F9" t="n">
-        <v>-55.74</v>
+        <v>-55.5</v>
       </c>
       <c r="G9" t="n">
-        <v>-56.02</v>
+        <v>-55.86</v>
       </c>
       <c r="H9" t="n">
-        <v>-58.65</v>
+        <v>-58.31</v>
       </c>
     </row>
     <row r="10">
@@ -5421,22 +5446,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-46.49</v>
+        <v>-46.39</v>
       </c>
       <c r="D10" t="n">
-        <v>-53.83</v>
+        <v>-54</v>
       </c>
       <c r="E10" t="n">
-        <v>-46.53</v>
+        <v>-46.26</v>
       </c>
       <c r="F10" t="n">
-        <v>-56.46</v>
+        <v>-56.63</v>
       </c>
       <c r="G10" t="n">
-        <v>-55.5</v>
+        <v>-55.53</v>
       </c>
       <c r="H10" t="n">
-        <v>-60.46</v>
+        <v>-60.53</v>
       </c>
     </row>
     <row r="11">
@@ -5449,22 +5474,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-46.65</v>
+        <v>-47.15</v>
       </c>
       <c r="D11" t="n">
-        <v>-52.55</v>
+        <v>-52.26</v>
       </c>
       <c r="E11" t="n">
-        <v>-46.03</v>
+        <v>-46.42</v>
       </c>
       <c r="F11" t="n">
-        <v>-55.4</v>
+        <v>-55.21</v>
       </c>
       <c r="G11" t="n">
-        <v>-57.61</v>
+        <v>-57.7</v>
       </c>
       <c r="H11" t="n">
-        <v>-58.59</v>
+        <v>-58.23</v>
       </c>
     </row>
     <row r="12">
@@ -5477,22 +5502,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-45.66</v>
+        <v>-45.55</v>
       </c>
       <c r="D12" t="n">
-        <v>-52.41</v>
+        <v>-52.63</v>
       </c>
       <c r="E12" t="n">
-        <v>-44.48</v>
+        <v>-44.61</v>
       </c>
       <c r="F12" t="n">
-        <v>-55.44</v>
+        <v>-55.6</v>
       </c>
       <c r="G12" t="n">
-        <v>-56.09</v>
+        <v>-56.05</v>
       </c>
       <c r="H12" t="n">
-        <v>-58.56</v>
+        <v>-58.58</v>
       </c>
     </row>
     <row r="13">
@@ -5505,22 +5530,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-46.26</v>
+        <v>-46.87</v>
       </c>
       <c r="D13" t="n">
-        <v>-52.05</v>
+        <v>-52.33</v>
       </c>
       <c r="E13" t="n">
-        <v>-46.01</v>
+        <v>-46.66</v>
       </c>
       <c r="F13" t="n">
-        <v>-55.01</v>
+        <v>-55.15</v>
       </c>
       <c r="G13" t="n">
-        <v>-56.14</v>
+        <v>-56.2</v>
       </c>
       <c r="H13" t="n">
-        <v>-58.28</v>
+        <v>-58.36</v>
       </c>
     </row>
     <row r="14">
@@ -5533,22 +5558,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-44.64</v>
+        <v>-45.52</v>
       </c>
       <c r="D14" t="n">
-        <v>-54.67</v>
+        <v>-55.04</v>
       </c>
       <c r="E14" t="n">
-        <v>-44.11</v>
+        <v>-44.89</v>
       </c>
       <c r="F14" t="n">
-        <v>-56.8</v>
+        <v>-57.47</v>
       </c>
       <c r="G14" t="n">
-        <v>-55.61</v>
+        <v>-55.76</v>
       </c>
       <c r="H14" t="n">
-        <v>-60.83</v>
+        <v>-61.04</v>
       </c>
     </row>
     <row r="15">
@@ -5561,22 +5586,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-41.43</v>
+        <v>-41.28</v>
       </c>
       <c r="D15" t="n">
-        <v>-53.92</v>
+        <v>-53.95</v>
       </c>
       <c r="E15" t="n">
-        <v>-39.39</v>
+        <v>-39.42</v>
       </c>
       <c r="F15" t="n">
-        <v>-56.42</v>
+        <v>-56.37</v>
       </c>
       <c r="G15" t="n">
-        <v>-56.94</v>
+        <v>-56.95</v>
       </c>
       <c r="H15" t="n">
-        <v>-59.63</v>
+        <v>-59.68</v>
       </c>
     </row>
     <row r="16">
@@ -5589,22 +5614,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-42.01</v>
+        <v>-41.25</v>
       </c>
       <c r="D16" t="n">
-        <v>-57.11</v>
+        <v>-56.81</v>
       </c>
       <c r="E16" t="n">
-        <v>-40.69</v>
+        <v>-40.1</v>
       </c>
       <c r="F16" t="n">
-        <v>-58.53</v>
+        <v>-58.24</v>
       </c>
       <c r="G16" t="n">
-        <v>-55.34</v>
+        <v>-54.35</v>
       </c>
       <c r="H16" t="n">
-        <v>-62.69</v>
+        <v>-62.58</v>
       </c>
     </row>
     <row r="17">
@@ -5617,22 +5642,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-45.9</v>
+        <v>-46.66</v>
       </c>
       <c r="D17" t="n">
-        <v>-50.77</v>
+        <v>-50.92</v>
       </c>
       <c r="E17" t="n">
-        <v>-45.39</v>
+        <v>-46.47</v>
       </c>
       <c r="F17" t="n">
-        <v>-54.51</v>
+        <v>-54.5</v>
       </c>
       <c r="G17" t="n">
-        <v>-56.48</v>
+        <v>-56.45</v>
       </c>
       <c r="H17" t="n">
-        <v>-57.11</v>
+        <v>-57.42</v>
       </c>
     </row>
     <row r="18">
@@ -5645,22 +5670,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-46.26</v>
+        <v>-46.11</v>
       </c>
       <c r="D18" t="n">
-        <v>-52.15</v>
+        <v>-52.2</v>
       </c>
       <c r="E18" t="n">
-        <v>-46.05</v>
+        <v>-45.68</v>
       </c>
       <c r="F18" t="n">
-        <v>-55.93</v>
+        <v>-56.17</v>
       </c>
       <c r="G18" t="n">
-        <v>-55.98</v>
+        <v>-55.9</v>
       </c>
       <c r="H18" t="n">
-        <v>-58.52</v>
+        <v>-58.78</v>
       </c>
     </row>
     <row r="19">
@@ -5673,22 +5698,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-44.72</v>
+        <v>-44.91</v>
       </c>
       <c r="D19" t="n">
-        <v>-53.25</v>
+        <v>-53.31</v>
       </c>
       <c r="E19" t="n">
-        <v>-44.47</v>
+        <v>-44.88</v>
       </c>
       <c r="F19" t="n">
-        <v>-56.69</v>
+        <v>-56.41</v>
       </c>
       <c r="G19" t="n">
-        <v>-54.72</v>
+        <v>-54.33</v>
       </c>
       <c r="H19" t="n">
-        <v>-59.64</v>
+        <v>-60.06</v>
       </c>
     </row>
     <row r="20">
@@ -5701,22 +5726,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-47.14</v>
+        <v>-46.25</v>
       </c>
       <c r="D20" t="n">
-        <v>-52.54</v>
+        <v>-52.59</v>
       </c>
       <c r="E20" t="n">
-        <v>-46.4</v>
+        <v>-45.33</v>
       </c>
       <c r="F20" t="n">
-        <v>-55.16</v>
+        <v>-55.34</v>
       </c>
       <c r="G20" t="n">
-        <v>-57.76</v>
+        <v>-57.55</v>
       </c>
       <c r="H20" t="n">
-        <v>-58.93</v>
+        <v>-59.04</v>
       </c>
     </row>
     <row r="21">
@@ -5729,22 +5754,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-46.6</v>
+        <v>-45.96</v>
       </c>
       <c r="D21" t="n">
-        <v>-52.57</v>
+        <v>-52.19</v>
       </c>
       <c r="E21" t="n">
-        <v>-46.39</v>
+        <v>-46.08</v>
       </c>
       <c r="F21" t="n">
-        <v>-55.27</v>
+        <v>-55.17</v>
       </c>
       <c r="G21" t="n">
-        <v>-56.23</v>
+        <v>-55.54</v>
       </c>
       <c r="H21" t="n">
-        <v>-58.65</v>
+        <v>-58.25</v>
       </c>
     </row>
     <row r="22">
@@ -5757,22 +5782,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-44.16</v>
+        <v>-44.35</v>
       </c>
       <c r="D22" t="n">
-        <v>-52.91</v>
+        <v>-52.82</v>
       </c>
       <c r="E22" t="n">
-        <v>-42.96</v>
+        <v>-42.98</v>
       </c>
       <c r="F22" t="n">
-        <v>-56.26</v>
+        <v>-56.08</v>
       </c>
       <c r="G22" t="n">
-        <v>-56.3</v>
+        <v>-56.25</v>
       </c>
       <c r="H22" t="n">
-        <v>-58.92</v>
+        <v>-58.89</v>
       </c>
     </row>
   </sheetData>
@@ -5847,22 +5872,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-44.16</v>
+        <v>-43.88</v>
       </c>
       <c r="D2" t="n">
-        <v>-40.8</v>
+        <v>-41.28</v>
       </c>
       <c r="E2" t="n">
-        <v>-47.79</v>
+        <v>-47.81</v>
       </c>
       <c r="F2" t="n">
-        <v>-45.16</v>
+        <v>-45.98</v>
       </c>
       <c r="G2" t="n">
-        <v>-50.18</v>
+        <v>-49.63</v>
       </c>
       <c r="H2" t="n">
-        <v>-46.44</v>
+        <v>-47.1</v>
       </c>
     </row>
     <row r="3">
@@ -5875,22 +5900,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-43.75</v>
+        <v>-44.05</v>
       </c>
       <c r="D3" t="n">
-        <v>-42.8</v>
+        <v>-43.14</v>
       </c>
       <c r="E3" t="n">
-        <v>-47.63</v>
+        <v>-48.5</v>
       </c>
       <c r="F3" t="n">
-        <v>-46.8</v>
+        <v>-47.09</v>
       </c>
       <c r="G3" t="n">
-        <v>-50.12</v>
+        <v>-50.24</v>
       </c>
       <c r="H3" t="n">
-        <v>-49.2</v>
+        <v>-49.66</v>
       </c>
     </row>
     <row r="4">
@@ -5903,22 +5928,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-43.31</v>
+        <v>-43.43</v>
       </c>
       <c r="D4" t="n">
-        <v>-44.4</v>
+        <v>-44.96</v>
       </c>
       <c r="E4" t="n">
-        <v>-47.1</v>
+        <v>-47.41</v>
       </c>
       <c r="F4" t="n">
-        <v>-48.2</v>
+        <v>-48.87</v>
       </c>
       <c r="G4" t="n">
-        <v>-49.41</v>
+        <v>-49.42</v>
       </c>
       <c r="H4" t="n">
-        <v>-50.6</v>
+        <v>-51.35</v>
       </c>
     </row>
     <row r="5">
@@ -5931,22 +5956,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-44.36</v>
+        <v>-44.65</v>
       </c>
       <c r="D5" t="n">
-        <v>-43.35</v>
+        <v>-44.06</v>
       </c>
       <c r="E5" t="n">
-        <v>-47.96</v>
+        <v>-48.29</v>
       </c>
       <c r="F5" t="n">
-        <v>-47.79</v>
+        <v>-48.93</v>
       </c>
       <c r="G5" t="n">
-        <v>-50.16</v>
+        <v>-50.46</v>
       </c>
       <c r="H5" t="n">
-        <v>-50.07</v>
+        <v>-50.7</v>
       </c>
     </row>
     <row r="6">
@@ -5959,22 +5984,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-42.25</v>
+        <v>-42.4</v>
       </c>
       <c r="D6" t="n">
-        <v>-44.12</v>
+        <v>-43.93</v>
       </c>
       <c r="E6" t="n">
-        <v>-46.35</v>
+        <v>-46.56</v>
       </c>
       <c r="F6" t="n">
-        <v>-47.75</v>
+        <v>-47.69</v>
       </c>
       <c r="G6" t="n">
-        <v>-47.85</v>
+        <v>-47.96</v>
       </c>
       <c r="H6" t="n">
-        <v>-50.99</v>
+        <v>-50.7</v>
       </c>
     </row>
     <row r="7">
@@ -5987,22 +6012,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-40.23</v>
+        <v>-40.15</v>
       </c>
       <c r="D7" t="n">
-        <v>-44.12</v>
+        <v>-43.74</v>
       </c>
       <c r="E7" t="n">
-        <v>-43.38</v>
+        <v>-43.3</v>
       </c>
       <c r="F7" t="n">
-        <v>-46.71</v>
+        <v>-46.32</v>
       </c>
       <c r="G7" t="n">
-        <v>-45.85</v>
+        <v>-45.98</v>
       </c>
       <c r="H7" t="n">
-        <v>-50.45</v>
+        <v>-49.89</v>
       </c>
     </row>
     <row r="8">
@@ -6015,22 +6040,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-41.67</v>
+        <v>-41.65</v>
       </c>
       <c r="D8" t="n">
-        <v>-40.74</v>
+        <v>-40.7</v>
       </c>
       <c r="E8" t="n">
-        <v>-45.55</v>
+        <v>-45.49</v>
       </c>
       <c r="F8" t="n">
-        <v>-44.19</v>
+        <v>-44.14</v>
       </c>
       <c r="G8" t="n">
         <v>-47.09</v>
       </c>
       <c r="H8" t="n">
-        <v>-47.06</v>
+        <v>-47.15</v>
       </c>
     </row>
     <row r="9">
@@ -6043,22 +6068,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-43.83</v>
+        <v>-43.71</v>
       </c>
       <c r="D9" t="n">
-        <v>-43.12</v>
+        <v>-43.38</v>
       </c>
       <c r="E9" t="n">
-        <v>-47.94</v>
+        <v>-47.69</v>
       </c>
       <c r="F9" t="n">
-        <v>-47.59</v>
+        <v>-47.73</v>
       </c>
       <c r="G9" t="n">
-        <v>-50.14</v>
+        <v>-50.28</v>
       </c>
       <c r="H9" t="n">
-        <v>-49.34</v>
+        <v>-49.68</v>
       </c>
     </row>
     <row r="10">
@@ -6071,22 +6096,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-42.42</v>
+        <v>-42.83</v>
       </c>
       <c r="D10" t="n">
-        <v>-46.61</v>
+        <v>-46.44</v>
       </c>
       <c r="E10" t="n">
-        <v>-46.6</v>
+        <v>-46.96</v>
       </c>
       <c r="F10" t="n">
-        <v>-49.42</v>
+        <v>-49.33</v>
       </c>
       <c r="G10" t="n">
-        <v>-48.57</v>
+        <v>-49.09</v>
       </c>
       <c r="H10" t="n">
-        <v>-52.52</v>
+        <v>-52.53</v>
       </c>
     </row>
     <row r="11">
@@ -6099,22 +6124,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-40.11</v>
+        <v>-39.6</v>
       </c>
       <c r="D11" t="n">
-        <v>-43.71</v>
+        <v>-43.93</v>
       </c>
       <c r="E11" t="n">
-        <v>-45.24</v>
+        <v>-45.07</v>
       </c>
       <c r="F11" t="n">
-        <v>-47.08</v>
+        <v>-47.78</v>
       </c>
       <c r="G11" t="n">
-        <v>-45.33</v>
+        <v>-44.63</v>
       </c>
       <c r="H11" t="n">
-        <v>-50.48</v>
+        <v>-50.57</v>
       </c>
     </row>
     <row r="12">
@@ -6127,22 +6152,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-40.5</v>
+        <v>-40.59</v>
       </c>
       <c r="D12" t="n">
-        <v>-43.98</v>
+        <v>-43.61</v>
       </c>
       <c r="E12" t="n">
-        <v>-45.41</v>
+        <v>-45.78</v>
       </c>
       <c r="F12" t="n">
-        <v>-49.97</v>
+        <v>-49.96</v>
       </c>
       <c r="G12" t="n">
-        <v>-45.67</v>
+        <v>-45.76</v>
       </c>
       <c r="H12" t="n">
-        <v>-49.28</v>
+        <v>-48.91</v>
       </c>
     </row>
     <row r="13">
@@ -6155,19 +6180,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-41.86</v>
+        <v>-42.23</v>
       </c>
       <c r="D13" t="n">
-        <v>-41.71</v>
+        <v>-41.85</v>
       </c>
       <c r="E13" t="n">
-        <v>-46.59</v>
+        <v>-46.83</v>
       </c>
       <c r="F13" t="n">
-        <v>-47.91</v>
+        <v>-47.89</v>
       </c>
       <c r="G13" t="n">
-        <v>-47.57</v>
+        <v>-48.07</v>
       </c>
       <c r="H13" t="n">
         <v>-48.12</v>
@@ -6183,22 +6208,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-38.97</v>
+        <v>-39.01</v>
       </c>
       <c r="D14" t="n">
-        <v>-36.68</v>
+        <v>-37.17</v>
       </c>
       <c r="E14" t="n">
-        <v>-42.75</v>
+        <v>-42.99</v>
       </c>
       <c r="F14" t="n">
-        <v>-40.29</v>
+        <v>-41.02</v>
       </c>
       <c r="G14" t="n">
-        <v>-44.59</v>
+        <v>-44.55</v>
       </c>
       <c r="H14" t="n">
-        <v>-42.97</v>
+        <v>-43.44</v>
       </c>
     </row>
     <row r="15">
@@ -6211,22 +6236,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-39.87</v>
+        <v>-39.56</v>
       </c>
       <c r="D15" t="n">
-        <v>-35.74</v>
+        <v>-35.66</v>
       </c>
       <c r="E15" t="n">
-        <v>-42.41</v>
+        <v>-42.11</v>
       </c>
       <c r="F15" t="n">
-        <v>-38.7</v>
+        <v>-38.66</v>
       </c>
       <c r="G15" t="n">
-        <v>-45.76</v>
+        <v>-45.31</v>
       </c>
       <c r="H15" t="n">
-        <v>-42.29</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="16">
@@ -6239,22 +6264,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-36.96</v>
+        <v>-37.14</v>
       </c>
       <c r="D16" t="n">
-        <v>-39.95</v>
+        <v>-40.59</v>
       </c>
       <c r="E16" t="n">
-        <v>-39.22</v>
+        <v>-39.62</v>
       </c>
       <c r="F16" t="n">
-        <v>-42.17</v>
+        <v>-42.97</v>
       </c>
       <c r="G16" t="n">
-        <v>-43.27</v>
+        <v>-43.33</v>
       </c>
       <c r="H16" t="n">
-        <v>-47.95</v>
+        <v>-48.41</v>
       </c>
     </row>
     <row r="17">
@@ -6267,22 +6292,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-44.54</v>
+        <v>-44.72</v>
       </c>
       <c r="D17" t="n">
-        <v>-41.9</v>
+        <v>-42.06</v>
       </c>
       <c r="E17" t="n">
-        <v>-49.01</v>
+        <v>-49.3</v>
       </c>
       <c r="F17" t="n">
-        <v>-46.11</v>
+        <v>-46.16</v>
       </c>
       <c r="G17" t="n">
-        <v>-50.06</v>
+        <v>-50.33</v>
       </c>
       <c r="H17" t="n">
-        <v>-47.84</v>
+        <v>-47.97</v>
       </c>
     </row>
     <row r="18">
@@ -6295,22 +6320,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-41.39</v>
+        <v>-41.36</v>
       </c>
       <c r="D18" t="n">
-        <v>-43.24</v>
+        <v>-43.46</v>
       </c>
       <c r="E18" t="n">
-        <v>-45.65</v>
+        <v>-45.89</v>
       </c>
       <c r="F18" t="n">
-        <v>-46.72</v>
+        <v>-47.04</v>
       </c>
       <c r="G18" t="n">
-        <v>-46.92</v>
+        <v>-46.74</v>
       </c>
       <c r="H18" t="n">
-        <v>-49.49</v>
+        <v>-49.89</v>
       </c>
     </row>
     <row r="19">
@@ -6323,22 +6348,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-41.77</v>
+        <v>-40.84</v>
       </c>
       <c r="D19" t="n">
-        <v>-41.95</v>
+        <v>-42.06</v>
       </c>
       <c r="E19" t="n">
-        <v>-44.63</v>
+        <v>-43.78</v>
       </c>
       <c r="F19" t="n">
-        <v>-43.39</v>
+        <v>-43.61</v>
       </c>
       <c r="G19" t="n">
-        <v>-47.82</v>
+        <v>-46.99</v>
       </c>
       <c r="H19" t="n">
-        <v>-48.84</v>
+        <v>-48.59</v>
       </c>
     </row>
     <row r="20">
@@ -6351,22 +6376,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-40.03</v>
+        <v>-40.01</v>
       </c>
       <c r="D20" t="n">
-        <v>-44.56</v>
+        <v>-45.13</v>
       </c>
       <c r="E20" t="n">
-        <v>-45.02</v>
+        <v>-45</v>
       </c>
       <c r="F20" t="n">
-        <v>-48.06</v>
+        <v>-48.4</v>
       </c>
       <c r="G20" t="n">
-        <v>-45.23</v>
+        <v>-45.06</v>
       </c>
       <c r="H20" t="n">
-        <v>-51.57</v>
+        <v>-51.98</v>
       </c>
     </row>
     <row r="21">
@@ -6379,22 +6404,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-42.21</v>
+        <v>-42.1</v>
       </c>
       <c r="D21" t="n">
-        <v>-41.65</v>
+        <v>-41.67</v>
       </c>
       <c r="E21" t="n">
-        <v>-46.91</v>
+        <v>-46.63</v>
       </c>
       <c r="F21" t="n">
-        <v>-47.35</v>
+        <v>-47.42</v>
       </c>
       <c r="G21" t="n">
-        <v>-47.57</v>
+        <v>-47.37</v>
       </c>
       <c r="H21" t="n">
-        <v>-47.8</v>
+        <v>-47.67</v>
       </c>
     </row>
     <row r="22">
@@ -6407,22 +6432,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-38.83</v>
+        <v>-38.5</v>
       </c>
       <c r="D22" t="n">
-        <v>-41.15</v>
+        <v>-41.43</v>
       </c>
       <c r="E22" t="n">
-        <v>-43.29</v>
+        <v>-43.14</v>
       </c>
       <c r="F22" t="n">
-        <v>-45.34</v>
+        <v>-45.81</v>
       </c>
       <c r="G22" t="n">
-        <v>-44.45</v>
+        <v>-43.69</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.62</v>
+        <v>-46.8</v>
       </c>
     </row>
   </sheetData>
@@ -6497,22 +6522,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-45.82</v>
+        <v>-45.09</v>
       </c>
       <c r="D2" t="n">
-        <v>-50.46</v>
+        <v>-50.7</v>
       </c>
       <c r="E2" t="n">
-        <v>-46.09</v>
+        <v>-45</v>
       </c>
       <c r="F2" t="n">
-        <v>-54.4</v>
+        <v>-54.51</v>
       </c>
       <c r="G2" t="n">
-        <v>-55.26</v>
+        <v>-55.12</v>
       </c>
       <c r="H2" t="n">
-        <v>-56.59</v>
+        <v>-56.76</v>
       </c>
     </row>
     <row r="3">
@@ -6525,22 +6550,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-45.13</v>
+        <v>-45.52</v>
       </c>
       <c r="D3" t="n">
-        <v>-50.62</v>
+        <v>-50.46</v>
       </c>
       <c r="E3" t="n">
-        <v>-44.83</v>
+        <v>-45.08</v>
       </c>
       <c r="F3" t="n">
-        <v>-54.34</v>
+        <v>-54.48</v>
       </c>
       <c r="G3" t="n">
-        <v>-55.22</v>
+        <v>-55.62</v>
       </c>
       <c r="H3" t="n">
-        <v>-57.08</v>
+        <v>-56.76</v>
       </c>
     </row>
     <row r="4">
@@ -6553,22 +6578,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-46.55</v>
+        <v>-45.93</v>
       </c>
       <c r="D4" t="n">
-        <v>-51.11</v>
+        <v>-51.08</v>
       </c>
       <c r="E4" t="n">
-        <v>-46.82</v>
+        <v>-46.11</v>
       </c>
       <c r="F4" t="n">
-        <v>-55.09</v>
+        <v>-55.05</v>
       </c>
       <c r="G4" t="n">
-        <v>-55.36</v>
+        <v>-55.26</v>
       </c>
       <c r="H4" t="n">
-        <v>-57.08</v>
+        <v>-57.24</v>
       </c>
     </row>
     <row r="5">
@@ -6581,22 +6606,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-45.6</v>
+        <v>-46.38</v>
       </c>
       <c r="D5" t="n">
-        <v>-51.01</v>
+        <v>-50.59</v>
       </c>
       <c r="E5" t="n">
-        <v>-45.12</v>
+        <v>-46.5</v>
       </c>
       <c r="F5" t="n">
-        <v>-55.02</v>
+        <v>-54.63</v>
       </c>
       <c r="G5" t="n">
-        <v>-56.55</v>
+        <v>-56.28</v>
       </c>
       <c r="H5" t="n">
-        <v>-57.26</v>
+        <v>-56.8</v>
       </c>
     </row>
     <row r="6">
@@ -6609,22 +6634,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-45.57</v>
+        <v>-45.84</v>
       </c>
       <c r="D6" t="n">
-        <v>-51.51</v>
+        <v>-52.1</v>
       </c>
       <c r="E6" t="n">
-        <v>-45.64</v>
+        <v>-45.6</v>
       </c>
       <c r="F6" t="n">
-        <v>-55.36</v>
+        <v>-56.1</v>
       </c>
       <c r="G6" t="n">
-        <v>-55.34</v>
+        <v>-56.14</v>
       </c>
       <c r="H6" t="n">
-        <v>-57.94</v>
+        <v>-59.08</v>
       </c>
     </row>
     <row r="7">
@@ -6637,22 +6662,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-46.07</v>
+        <v>-45.57</v>
       </c>
       <c r="D7" t="n">
         <v>-52</v>
       </c>
       <c r="E7" t="n">
-        <v>-46.63</v>
+        <v>-45.34</v>
       </c>
       <c r="F7" t="n">
-        <v>-55.42</v>
+        <v>-55.5</v>
       </c>
       <c r="G7" t="n">
-        <v>-54.1</v>
+        <v>-54.35</v>
       </c>
       <c r="H7" t="n">
-        <v>-58.31</v>
+        <v>-58.45</v>
       </c>
     </row>
     <row r="8">
@@ -6665,22 +6690,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-45.12</v>
+        <v>-45.01</v>
       </c>
       <c r="D8" t="n">
-        <v>-51.8</v>
+        <v>-52.15</v>
       </c>
       <c r="E8" t="n">
-        <v>-44.14</v>
+        <v>-44.12</v>
       </c>
       <c r="F8" t="n">
-        <v>-54.58</v>
+        <v>-54.89</v>
       </c>
       <c r="G8" t="n">
-        <v>-57.59</v>
+        <v>-57.28</v>
       </c>
       <c r="H8" t="n">
-        <v>-57.95</v>
+        <v>-57.92</v>
       </c>
     </row>
     <row r="9">
@@ -6693,22 +6718,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-46.22</v>
+        <v>-46.89</v>
       </c>
       <c r="D9" t="n">
-        <v>-53.53</v>
+        <v>-53.62</v>
       </c>
       <c r="E9" t="n">
-        <v>-45.95</v>
+        <v>-47.05</v>
       </c>
       <c r="F9" t="n">
-        <v>-56.05</v>
+        <v>-56.29</v>
       </c>
       <c r="G9" t="n">
         <v>-56.24</v>
       </c>
       <c r="H9" t="n">
-        <v>-59.47</v>
+        <v>-59.39</v>
       </c>
     </row>
     <row r="10">
@@ -6721,22 +6746,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-45.44</v>
+        <v>-44.84</v>
       </c>
       <c r="D10" t="n">
-        <v>-54.08</v>
+        <v>-53.9</v>
       </c>
       <c r="E10" t="n">
-        <v>-45.28</v>
+        <v>-44.5</v>
       </c>
       <c r="F10" t="n">
-        <v>-56.45</v>
+        <v>-56.34</v>
       </c>
       <c r="G10" t="n">
-        <v>-55.31</v>
+        <v>-55.26</v>
       </c>
       <c r="H10" t="n">
-        <v>-60.54</v>
+        <v>-60.91</v>
       </c>
     </row>
     <row r="11">
@@ -6749,22 +6774,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-45.21</v>
+        <v>-45.68</v>
       </c>
       <c r="D11" t="n">
-        <v>-53.01</v>
+        <v>-52.51</v>
       </c>
       <c r="E11" t="n">
-        <v>-44.32</v>
+        <v>-44.8</v>
       </c>
       <c r="F11" t="n">
-        <v>-55.55</v>
+        <v>-55.16</v>
       </c>
       <c r="G11" t="n">
-        <v>-57.82</v>
+        <v>-57.49</v>
       </c>
       <c r="H11" t="n">
-        <v>-59.04</v>
+        <v>-58.76</v>
       </c>
     </row>
     <row r="12">
@@ -6777,22 +6802,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-46.61</v>
+        <v>-46.87</v>
       </c>
       <c r="D12" t="n">
-        <v>-52.67</v>
+        <v>-52.42</v>
       </c>
       <c r="E12" t="n">
-        <v>-45.92</v>
+        <v>-46.07</v>
       </c>
       <c r="F12" t="n">
         <v>-55.53</v>
       </c>
       <c r="G12" t="n">
-        <v>-56.52</v>
+        <v>-56.33</v>
       </c>
       <c r="H12" t="n">
-        <v>-58.61</v>
+        <v>-58.32</v>
       </c>
     </row>
     <row r="13">
@@ -6805,22 +6830,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-47.42</v>
+        <v>-46.59</v>
       </c>
       <c r="D13" t="n">
-        <v>-52.6</v>
+        <v>-52.35</v>
       </c>
       <c r="E13" t="n">
-        <v>-47.64</v>
+        <v>-46.44</v>
       </c>
       <c r="F13" t="n">
-        <v>-55.31</v>
+        <v>-55.34</v>
       </c>
       <c r="G13" t="n">
-        <v>-56.22</v>
+        <v>-56.05</v>
       </c>
       <c r="H13" t="n">
-        <v>-58.67</v>
+        <v>-58.11</v>
       </c>
     </row>
     <row r="14">
@@ -6833,22 +6858,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-42.89</v>
+        <v>-43.73</v>
       </c>
       <c r="D14" t="n">
-        <v>-54.92</v>
+        <v>-54.96</v>
       </c>
       <c r="E14" t="n">
-        <v>-42</v>
+        <v>-43.03</v>
       </c>
       <c r="F14" t="n">
-        <v>-56.79</v>
+        <v>-56.95</v>
       </c>
       <c r="G14" t="n">
-        <v>-54.42</v>
+        <v>-54.76</v>
       </c>
       <c r="H14" t="n">
-        <v>-61.23</v>
+        <v>-61.28</v>
       </c>
     </row>
     <row r="15">
@@ -6861,22 +6886,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-40.37</v>
+        <v>-40.74</v>
       </c>
       <c r="D15" t="n">
-        <v>-53.58</v>
+        <v>-53.88</v>
       </c>
       <c r="E15" t="n">
-        <v>-38.48</v>
+        <v>-38.96</v>
       </c>
       <c r="F15" t="n">
-        <v>-55.95</v>
+        <v>-56.05</v>
       </c>
       <c r="G15" t="n">
-        <v>-55.64</v>
+        <v>-55.84</v>
       </c>
       <c r="H15" t="n">
-        <v>-59.08</v>
+        <v>-59.73</v>
       </c>
     </row>
     <row r="16">
@@ -6889,22 +6914,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-40.88</v>
+        <v>-41.46</v>
       </c>
       <c r="D16" t="n">
-        <v>-56.74</v>
+        <v>-56.96</v>
       </c>
       <c r="E16" t="n">
-        <v>-39.93</v>
+        <v>-40.31</v>
       </c>
       <c r="F16" t="n">
-        <v>-57.49</v>
+        <v>-57.97</v>
       </c>
       <c r="G16" t="n">
-        <v>-53.25</v>
+        <v>-53.62</v>
       </c>
       <c r="H16" t="n">
-        <v>-61.66</v>
+        <v>-62.81</v>
       </c>
     </row>
     <row r="17">
@@ -6917,22 +6942,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-46.18</v>
+        <v>-46.52</v>
       </c>
       <c r="D17" t="n">
-        <v>-50.73</v>
+        <v>-50.69</v>
       </c>
       <c r="E17" t="n">
-        <v>-45.92</v>
+        <v>-46.51</v>
       </c>
       <c r="F17" t="n">
-        <v>-54.56</v>
+        <v>-54.52</v>
       </c>
       <c r="G17" t="n">
-        <v>-56.52</v>
+        <v>-56.51</v>
       </c>
       <c r="H17" t="n">
-        <v>-57.26</v>
+        <v>-57.05</v>
       </c>
     </row>
     <row r="18">
@@ -6945,22 +6970,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-45.19</v>
+        <v>-45.64</v>
       </c>
       <c r="D18" t="n">
-        <v>-52.08</v>
+        <v>-51.77</v>
       </c>
       <c r="E18" t="n">
-        <v>-45.08</v>
+        <v>-45.42</v>
       </c>
       <c r="F18" t="n">
-        <v>-56.22</v>
+        <v>-56.21</v>
       </c>
       <c r="G18" t="n">
-        <v>-55.78</v>
+        <v>-55.73</v>
       </c>
       <c r="H18" t="n">
-        <v>-58.47</v>
+        <v>-58.44</v>
       </c>
     </row>
     <row r="19">
@@ -6973,22 +6998,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-43.66</v>
+        <v>-42.94</v>
       </c>
       <c r="D19" t="n">
-        <v>-52.66</v>
+        <v>-52.62</v>
       </c>
       <c r="E19" t="n">
-        <v>-43.25</v>
+        <v>-42.49</v>
       </c>
       <c r="F19" t="n">
-        <v>-56.18</v>
+        <v>-56.19</v>
       </c>
       <c r="G19" t="n">
-        <v>-54.57</v>
+        <v>-54.81</v>
       </c>
       <c r="H19" t="n">
-        <v>-59.04</v>
+        <v>-59.08</v>
       </c>
     </row>
     <row r="20">
@@ -7001,22 +7026,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-45.39</v>
+        <v>-45.22</v>
       </c>
       <c r="D20" t="n">
-        <v>-53</v>
+        <v>-53.01</v>
       </c>
       <c r="E20" t="n">
-        <v>-44.62</v>
+        <v>-44.51</v>
       </c>
       <c r="F20" t="n">
-        <v>-55.57</v>
+        <v>-55.85</v>
       </c>
       <c r="G20" t="n">
-        <v>-57.79</v>
+        <v>-57.66</v>
       </c>
       <c r="H20" t="n">
-        <v>-58.96</v>
+        <v>-59.05</v>
       </c>
     </row>
     <row r="21">
@@ -7029,22 +7054,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-46.17</v>
+        <v>-46.71</v>
       </c>
       <c r="D21" t="n">
-        <v>-52.55</v>
+        <v>-52.39</v>
       </c>
       <c r="E21" t="n">
-        <v>-45.81</v>
+        <v>-46.31</v>
       </c>
       <c r="F21" t="n">
-        <v>-55.45</v>
+        <v>-55.09</v>
       </c>
       <c r="G21" t="n">
-        <v>-56.11</v>
+        <v>-57.02</v>
       </c>
       <c r="H21" t="n">
-        <v>-58.68</v>
+        <v>-58.33</v>
       </c>
     </row>
     <row r="22">
@@ -7057,22 +7082,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-43.29</v>
+        <v>-43.5</v>
       </c>
       <c r="D22" t="n">
-        <v>-52.65</v>
+        <v>-52.69</v>
       </c>
       <c r="E22" t="n">
-        <v>-42.01</v>
+        <v>-42.56</v>
       </c>
       <c r="F22" t="n">
-        <v>-55.98</v>
+        <v>-56.13</v>
       </c>
       <c r="G22" t="n">
-        <v>-55.72</v>
+        <v>-55.58</v>
       </c>
       <c r="H22" t="n">
-        <v>-58.91</v>
+        <v>-58.96</v>
       </c>
     </row>
   </sheetData>
@@ -7147,22 +7172,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-43.25</v>
+        <v>-43.41</v>
       </c>
       <c r="D2" t="n">
-        <v>-41.78</v>
+        <v>-41.66</v>
       </c>
       <c r="E2" t="n">
-        <v>-47.46</v>
+        <v>-47.57</v>
       </c>
       <c r="F2" t="n">
-        <v>-46.35</v>
+        <v>-46.16</v>
       </c>
       <c r="G2" t="n">
-        <v>-48.87</v>
+        <v>-48.94</v>
       </c>
       <c r="H2" t="n">
-        <v>-47.69</v>
+        <v>-47.55</v>
       </c>
     </row>
     <row r="3">
@@ -7175,22 +7200,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-43.52</v>
+        <v>-43.7</v>
       </c>
       <c r="D3" t="n">
-        <v>-43.55</v>
+        <v>-43.07</v>
       </c>
       <c r="E3" t="n">
-        <v>-47.51</v>
+        <v>-47.86</v>
       </c>
       <c r="F3" t="n">
-        <v>-47.23</v>
+        <v>-46.85</v>
       </c>
       <c r="G3" t="n">
-        <v>-49.58</v>
+        <v>-49.66</v>
       </c>
       <c r="H3" t="n">
-        <v>-50.33</v>
+        <v>-49.88</v>
       </c>
     </row>
     <row r="4">
@@ -7203,22 +7228,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-42.82</v>
+        <v>-42.88</v>
       </c>
       <c r="D4" t="n">
-        <v>-44</v>
+        <v>-44.1</v>
       </c>
       <c r="E4" t="n">
-        <v>-46.64</v>
+        <v>-46.71</v>
       </c>
       <c r="F4" t="n">
         <v>-48</v>
       </c>
       <c r="G4" t="n">
-        <v>-48.94</v>
+        <v>-48.98</v>
       </c>
       <c r="H4" t="n">
-        <v>-50.22</v>
+        <v>-50.45</v>
       </c>
     </row>
     <row r="5">
@@ -7231,22 +7256,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-43.75</v>
+        <v>-44.11</v>
       </c>
       <c r="D5" t="n">
-        <v>-43.23</v>
+        <v>-43.31</v>
       </c>
       <c r="E5" t="n">
-        <v>-47.23</v>
+        <v>-47.64</v>
       </c>
       <c r="F5" t="n">
-        <v>-47.63</v>
+        <v>-47.66</v>
       </c>
       <c r="G5" t="n">
-        <v>-49.52</v>
+        <v>-49.89</v>
       </c>
       <c r="H5" t="n">
-        <v>-49.99</v>
+        <v>-49.88</v>
       </c>
     </row>
     <row r="6">
@@ -7259,22 +7284,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-41.42</v>
+        <v>-41.16</v>
       </c>
       <c r="D6" t="n">
-        <v>-43.28</v>
+        <v>-42.8</v>
       </c>
       <c r="E6" t="n">
-        <v>-45.51</v>
+        <v>-45.08</v>
       </c>
       <c r="F6" t="n">
-        <v>-46.68</v>
+        <v>-46.19</v>
       </c>
       <c r="G6" t="n">
-        <v>-46.86</v>
+        <v>-46.55</v>
       </c>
       <c r="H6" t="n">
-        <v>-49.94</v>
+        <v>-49.53</v>
       </c>
     </row>
     <row r="7">
@@ -7287,22 +7312,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-39.45</v>
+        <v>-40.03</v>
       </c>
       <c r="D7" t="n">
         <v>-43.61</v>
       </c>
       <c r="E7" t="n">
-        <v>-42.41</v>
+        <v>-43.3</v>
       </c>
       <c r="F7" t="n">
-        <v>-45.93</v>
+        <v>-46.21</v>
       </c>
       <c r="G7" t="n">
-        <v>-45.14</v>
+        <v>-45.71</v>
       </c>
       <c r="H7" t="n">
-        <v>-50.13</v>
+        <v>-49.82</v>
       </c>
     </row>
     <row r="8">
@@ -7315,22 +7340,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-41.1</v>
+        <v>-41.28</v>
       </c>
       <c r="D8" t="n">
-        <v>-41.61</v>
+        <v>-42.29</v>
       </c>
       <c r="E8" t="n">
-        <v>-44.7</v>
+        <v>-45.04</v>
       </c>
       <c r="F8" t="n">
-        <v>-45.02</v>
+        <v>-45.7</v>
       </c>
       <c r="G8" t="n">
-        <v>-46.58</v>
+        <v>-46.66</v>
       </c>
       <c r="H8" t="n">
-        <v>-48.36</v>
+        <v>-48.86</v>
       </c>
     </row>
     <row r="9">
@@ -7343,22 +7368,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-42.6</v>
+        <v>-42.18</v>
       </c>
       <c r="D9" t="n">
-        <v>-44.08</v>
+        <v>-44.17</v>
       </c>
       <c r="E9" t="n">
-        <v>-46.79</v>
+        <v>-46.31</v>
       </c>
       <c r="F9" t="n">
-        <v>-48.58</v>
+        <v>-48.55</v>
       </c>
       <c r="G9" t="n">
-        <v>-48.19</v>
+        <v>-47.73</v>
       </c>
       <c r="H9" t="n">
-        <v>-50.54</v>
+        <v>-50.85</v>
       </c>
     </row>
     <row r="10">
@@ -7371,22 +7396,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-41.71</v>
+        <v>-41.55</v>
       </c>
       <c r="D10" t="n">
-        <v>-46.3</v>
+        <v>-45.67</v>
       </c>
       <c r="E10" t="n">
-        <v>-45.52</v>
+        <v>-45.17</v>
       </c>
       <c r="F10" t="n">
-        <v>-48.54</v>
+        <v>-48.01</v>
       </c>
       <c r="G10" t="n">
-        <v>-47.69</v>
+        <v>-47.88</v>
       </c>
       <c r="H10" t="n">
-        <v>-52.74</v>
+        <v>-52.25</v>
       </c>
     </row>
     <row r="11">
@@ -7399,22 +7424,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-40.12</v>
+        <v>-40.09</v>
       </c>
       <c r="D11" t="n">
-        <v>-45.13</v>
+        <v>-45.25</v>
       </c>
       <c r="E11" t="n">
-        <v>-45.07</v>
+        <v>-45.04</v>
       </c>
       <c r="F11" t="n">
-        <v>-48.46</v>
+        <v>-48.37</v>
       </c>
       <c r="G11" t="n">
-        <v>-44.91</v>
+        <v>-44.96</v>
       </c>
       <c r="H11" t="n">
-        <v>-51.95</v>
+        <v>-52.44</v>
       </c>
     </row>
     <row r="12">
@@ -7427,22 +7452,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-40.49</v>
+        <v>-40.21</v>
       </c>
       <c r="D12" t="n">
-        <v>-43.91</v>
+        <v>-44.13</v>
       </c>
       <c r="E12" t="n">
-        <v>-45.18</v>
+        <v>-44.96</v>
       </c>
       <c r="F12" t="n">
-        <v>-49.06</v>
+        <v>-49.28</v>
       </c>
       <c r="G12" t="n">
-        <v>-45.56</v>
+        <v>-45.2</v>
       </c>
       <c r="H12" t="n">
-        <v>-49.23</v>
+        <v>-49.75</v>
       </c>
     </row>
     <row r="13">
@@ -7455,22 +7480,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-42.04</v>
+        <v>-41.96</v>
       </c>
       <c r="D13" t="n">
-        <v>-41.18</v>
+        <v>-41.4</v>
       </c>
       <c r="E13" t="n">
-        <v>-46.33</v>
+        <v>-46.37</v>
       </c>
       <c r="F13" t="n">
-        <v>-46.63</v>
+        <v>-46.84</v>
       </c>
       <c r="G13" t="n">
-        <v>-47.48</v>
+        <v>-47.38</v>
       </c>
       <c r="H13" t="n">
-        <v>-47.07</v>
+        <v>-47.39</v>
       </c>
     </row>
     <row r="14">
@@ -7483,22 +7508,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-39.16</v>
+        <v>-39.24</v>
       </c>
       <c r="D14" t="n">
-        <v>-36.6</v>
+        <v>-37.1</v>
       </c>
       <c r="E14" t="n">
-        <v>-42.68</v>
+        <v>-43.21</v>
       </c>
       <c r="F14" t="n">
-        <v>-40.17</v>
+        <v>-40.77</v>
       </c>
       <c r="G14" t="n">
-        <v>-44.99</v>
+        <v>-44.54</v>
       </c>
       <c r="H14" t="n">
-        <v>-42.83</v>
+        <v>-43.55</v>
       </c>
     </row>
     <row r="15">
@@ -7511,22 +7536,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-39.45</v>
+        <v>-39.52</v>
       </c>
       <c r="D15" t="n">
-        <v>-35.48</v>
+        <v>-35.84</v>
       </c>
       <c r="E15" t="n">
+        <v>-42.15</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-39.04</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-45.29</v>
+      </c>
+      <c r="H15" t="n">
         <v>-42.24</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-38.54</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-45.14</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-41.75</v>
       </c>
     </row>
     <row r="16">
@@ -7539,22 +7564,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-36.91</v>
+        <v>-36.57</v>
       </c>
       <c r="D16" t="n">
-        <v>-39.36</v>
+        <v>-39.74</v>
       </c>
       <c r="E16" t="n">
-        <v>-39.26</v>
+        <v>-39.06</v>
       </c>
       <c r="F16" t="n">
-        <v>-41.66</v>
+        <v>-41.95</v>
       </c>
       <c r="G16" t="n">
-        <v>-42.98</v>
+        <v>-42.62</v>
       </c>
       <c r="H16" t="n">
-        <v>-47.12</v>
+        <v>-47.23</v>
       </c>
     </row>
     <row r="17">
@@ -7567,22 +7592,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-44.24</v>
+        <v>-43.73</v>
       </c>
       <c r="D17" t="n">
-        <v>-43.6</v>
+        <v>-43.55</v>
       </c>
       <c r="E17" t="n">
-        <v>-48.27</v>
+        <v>-47.96</v>
       </c>
       <c r="F17" t="n">
-        <v>-47.92</v>
+        <v>-47.97</v>
       </c>
       <c r="G17" t="n">
-        <v>-49.69</v>
+        <v>-48.85</v>
       </c>
       <c r="H17" t="n">
-        <v>-49.65</v>
+        <v>-49.79</v>
       </c>
     </row>
     <row r="18">
@@ -7595,22 +7620,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-40.75</v>
+        <v>-40.18</v>
       </c>
       <c r="D18" t="n">
-        <v>-43.42</v>
+        <v>-43.44</v>
       </c>
       <c r="E18" t="n">
-        <v>-44.48</v>
+        <v>-43.92</v>
       </c>
       <c r="F18" t="n">
-        <v>-46.74</v>
+        <v>-46.54</v>
       </c>
       <c r="G18" t="n">
-        <v>-46.29</v>
+        <v>-45.49</v>
       </c>
       <c r="H18" t="n">
-        <v>-50.04</v>
+        <v>-49.97</v>
       </c>
     </row>
     <row r="19">
@@ -7623,22 +7648,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-40.81</v>
+        <v>-40.85</v>
       </c>
       <c r="D19" t="n">
-        <v>-41.84</v>
+        <v>-41.82</v>
       </c>
       <c r="E19" t="n">
-        <v>-43.71</v>
+        <v>-43.88</v>
       </c>
       <c r="F19" t="n">
-        <v>-43.39</v>
+        <v>-43.49</v>
       </c>
       <c r="G19" t="n">
-        <v>-47.03</v>
+        <v>-46.97</v>
       </c>
       <c r="H19" t="n">
-        <v>-48.43</v>
+        <v>-48.07</v>
       </c>
     </row>
     <row r="20">
@@ -7651,22 +7676,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-40.06</v>
+        <v>-39.75</v>
       </c>
       <c r="D20" t="n">
-        <v>-43.65</v>
+        <v>-44.28</v>
       </c>
       <c r="E20" t="n">
-        <v>-44.69</v>
+        <v>-44.63</v>
       </c>
       <c r="F20" t="n">
-        <v>-47.38</v>
+        <v>-47.9</v>
       </c>
       <c r="G20" t="n">
-        <v>-45.12</v>
+        <v>-44.55</v>
       </c>
       <c r="H20" t="n">
-        <v>-50.23</v>
+        <v>-50.8</v>
       </c>
     </row>
     <row r="21">
@@ -7679,22 +7704,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-41.74</v>
+        <v>-41.5</v>
       </c>
       <c r="D21" t="n">
-        <v>-41</v>
+        <v>-41.37</v>
       </c>
       <c r="E21" t="n">
-        <v>-46</v>
+        <v>-45.97</v>
       </c>
       <c r="F21" t="n">
-        <v>-46.58</v>
+        <v>-47.07</v>
       </c>
       <c r="G21" t="n">
-        <v>-47.13</v>
+        <v>-46.87</v>
       </c>
       <c r="H21" t="n">
-        <v>-47.04</v>
+        <v>-47.3</v>
       </c>
     </row>
     <row r="22">
@@ -7707,22 +7732,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-38.55</v>
+        <v>-38.59</v>
       </c>
       <c r="D22" t="n">
-        <v>-40.98</v>
+        <v>-40.92</v>
       </c>
       <c r="E22" t="n">
-        <v>-42.9</v>
+        <v>-42.88</v>
       </c>
       <c r="F22" t="n">
-        <v>-45.13</v>
+        <v>-45.11</v>
       </c>
       <c r="G22" t="n">
-        <v>-44.09</v>
+        <v>-44.14</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.25</v>
+        <v>-46.37</v>
       </c>
     </row>
   </sheetData>
@@ -7772,13 +7797,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="C2" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3">
@@ -7786,13 +7811,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="C3" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="D3" t="n">
-        <v>0.92</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="4">
@@ -7800,13 +7825,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="C4" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5">
@@ -7814,13 +7839,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="C5" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="D5" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="6">
@@ -7828,13 +7853,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="C6" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="D6" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="7">
@@ -7842,13 +7867,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="C7" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="D7" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="8">
@@ -7856,13 +7881,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="C8" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="D8" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
@@ -7912,13 +7937,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="C2" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="D2" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="3">
@@ -7926,13 +7951,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="C3" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="D3" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="4">
@@ -7940,13 +7965,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.23</v>
+        <v>1.51</v>
       </c>
       <c r="C4" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="D4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="5">
@@ -7954,13 +7979,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="C5" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="D5" t="n">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="6">
@@ -7968,13 +7993,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="C6" t="n">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="D6" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="7">
@@ -7982,10 +8007,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="C7" t="n">
-        <v>1.51</v>
+        <v>1.31</v>
       </c>
       <c r="D7" t="n">
         <v>1.5</v>
@@ -7996,13 +8021,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="C8" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="D8" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8077,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="C2" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="D2" t="n">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="3">
@@ -8066,13 +8091,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.98</v>
+        <v>1.18</v>
       </c>
       <c r="C3" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4">
@@ -8083,10 +8108,10 @@
         <v>1.66</v>
       </c>
       <c r="C4" t="n">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="D4" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5">
@@ -8094,13 +8119,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="C5" t="n">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="6">
@@ -8108,13 +8133,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="C6" t="n">
         <v>2.88</v>
       </c>
       <c r="D6" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="7">
@@ -8122,13 +8147,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="C7" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="D7" t="n">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="8">
@@ -8136,13 +8161,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.83</v>
+        <v>1.15</v>
       </c>
       <c r="D8" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
     </row>
   </sheetData>
@@ -8192,13 +8217,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="C2" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="D2" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="3">
@@ -8206,10 +8231,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="C3" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="D3" t="n">
         <v>1.75</v>
@@ -8220,13 +8245,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="C4" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="D4" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5">
@@ -8234,13 +8259,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="C5" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="D5" t="n">
-        <v>1.56</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="6">
@@ -8248,13 +8273,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="C6" t="n">
-        <v>2.53</v>
+        <v>2.69</v>
       </c>
       <c r="D6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="7">
@@ -8262,13 +8287,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="C7" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="8">
@@ -8276,13 +8301,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="C8" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="D8" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
     </row>
   </sheetData>
@@ -8332,13 +8357,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.08</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="D2" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="3">
@@ -8346,13 +8371,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="C3" t="n">
-        <v>0.98</v>
+        <v>1.21</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="4">
@@ -8360,13 +8385,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D4" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5">
@@ -8374,13 +8399,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="C5" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="D5" t="n">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="6">
@@ -8388,13 +8413,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>1.41</v>
+        <v>1.68</v>
       </c>
       <c r="C6" t="n">
-        <v>3.36</v>
+        <v>3.29</v>
       </c>
       <c r="D6" t="n">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="7">
@@ -8402,13 +8427,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>1.03</v>
+        <v>1.42</v>
       </c>
       <c r="C7" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="D7" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="8">
@@ -8416,13 +8441,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="D8" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>
@@ -8472,13 +8497,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="C2" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="D2" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="3">
@@ -8486,13 +8511,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="C3" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="D3" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="4">
@@ -8500,13 +8525,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="C4" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="D4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5">
@@ -8514,13 +8539,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="C5" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="6">
@@ -8528,13 +8553,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="C6" t="n">
         <v>2.64</v>
       </c>
       <c r="D6" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="7">
@@ -8542,13 +8567,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="C7" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="D7" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="8">
@@ -8556,13 +8581,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="C8" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="D8" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
     </row>
   </sheetData>
@@ -8612,13 +8637,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>24.65</v>
+        <v>24.87</v>
       </c>
       <c r="C2" t="n">
-        <v>24.7</v>
+        <v>24.73</v>
       </c>
       <c r="D2" t="n">
-        <v>24.86</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="3">
@@ -8626,13 +8651,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>24.89</v>
+        <v>24.85</v>
       </c>
       <c r="C3" t="n">
-        <v>24.9</v>
+        <v>24.94</v>
       </c>
       <c r="D3" t="n">
-        <v>24.84</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="4">
@@ -8640,13 +8665,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.1</v>
+        <v>25.15</v>
       </c>
       <c r="C4" t="n">
-        <v>25.07</v>
+        <v>25.04</v>
       </c>
       <c r="D4" t="n">
-        <v>25.03</v>
+        <v>25.04</v>
       </c>
     </row>
     <row r="5">
@@ -8654,13 +8679,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.67</v>
+        <v>24.71</v>
       </c>
       <c r="C5" t="n">
-        <v>25.23</v>
+        <v>24.74</v>
       </c>
       <c r="D5" t="n">
-        <v>24.75</v>
+        <v>24.63</v>
       </c>
     </row>
     <row r="6">
@@ -8668,13 +8693,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>24.85</v>
+        <v>24.89</v>
       </c>
       <c r="C6" t="n">
-        <v>24.95</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>24.95</v>
+        <v>25.09</v>
       </c>
     </row>
     <row r="7">
@@ -8682,13 +8707,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>24.83</v>
+        <v>24.88</v>
       </c>
       <c r="C7" t="n">
-        <v>24.96</v>
+        <v>24.9</v>
       </c>
       <c r="D7" t="n">
-        <v>24.66</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="8">
@@ -8696,13 +8721,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>24.92</v>
+        <v>24.9</v>
       </c>
       <c r="C8" t="n">
-        <v>24.99</v>
+        <v>24.94</v>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>25.05</v>
       </c>
     </row>
   </sheetData>
@@ -8755,10 +8780,10 @@
         <v>23.69</v>
       </c>
       <c r="C2" t="n">
-        <v>23.67</v>
+        <v>23.72</v>
       </c>
       <c r="D2" t="n">
-        <v>23.77</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="3">
@@ -8766,13 +8791,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.81</v>
+        <v>23.77</v>
       </c>
       <c r="C3" t="n">
-        <v>23.84</v>
+        <v>23.8</v>
       </c>
       <c r="D3" t="n">
-        <v>23.75</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="4">
@@ -8780,13 +8805,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.9</v>
+        <v>23.84</v>
       </c>
       <c r="C4" t="n">
-        <v>23.97</v>
+        <v>23.95</v>
       </c>
       <c r="D4" t="n">
-        <v>23.9</v>
+        <v>23.86</v>
       </c>
     </row>
     <row r="5">
@@ -8794,13 +8819,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.6</v>
+        <v>23.63</v>
       </c>
       <c r="C5" t="n">
-        <v>23.67</v>
+        <v>23.56</v>
       </c>
       <c r="D5" t="n">
-        <v>23.63</v>
+        <v>23.58</v>
       </c>
     </row>
     <row r="6">
@@ -8808,13 +8833,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>23.85</v>
+        <v>23.87</v>
       </c>
       <c r="C6" t="n">
         <v>23.85</v>
       </c>
       <c r="D6" t="n">
-        <v>24.01</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -8822,13 +8847,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>23.77</v>
+        <v>23.8</v>
       </c>
       <c r="C7" t="n">
-        <v>23.73</v>
+        <v>23.68</v>
       </c>
       <c r="D7" t="n">
-        <v>23.6</v>
+        <v>23.55</v>
       </c>
     </row>
     <row r="8">
@@ -8836,13 +8861,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>23.79</v>
+        <v>23.83</v>
       </c>
       <c r="C8" t="n">
-        <v>23.78</v>
+        <v>23.83</v>
       </c>
       <c r="D8" t="n">
-        <v>23.9</v>
+        <v>23.94</v>
       </c>
     </row>
   </sheetData>
@@ -8892,13 +8917,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>23.65</v>
+        <v>23.85</v>
       </c>
       <c r="C2" t="n">
-        <v>23.92</v>
+        <v>23.73</v>
       </c>
       <c r="D2" t="n">
-        <v>23.83</v>
+        <v>23.77</v>
       </c>
     </row>
     <row r="3">
@@ -8906,13 +8931,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.98</v>
+        <v>23.88</v>
       </c>
       <c r="C3" t="n">
-        <v>23.87</v>
+        <v>23.85</v>
       </c>
       <c r="D3" t="n">
-        <v>23.76</v>
+        <v>23.86</v>
       </c>
     </row>
     <row r="4">
@@ -8923,10 +8948,10 @@
         <v>24.08</v>
       </c>
       <c r="C4" t="n">
-        <v>24.2</v>
+        <v>24.06</v>
       </c>
       <c r="D4" t="n">
-        <v>23.9</v>
+        <v>23.96</v>
       </c>
     </row>
     <row r="5">
@@ -8934,13 +8959,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.68</v>
+        <v>23.7</v>
       </c>
       <c r="C5" t="n">
-        <v>23.64</v>
+        <v>23.71</v>
       </c>
       <c r="D5" t="n">
-        <v>23.79</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="6">
@@ -8948,13 +8973,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>23.97</v>
+        <v>23.86</v>
       </c>
       <c r="C6" t="n">
-        <v>23.92</v>
+        <v>23.94</v>
       </c>
       <c r="D6" t="n">
-        <v>24.07</v>
+        <v>23.83</v>
       </c>
     </row>
     <row r="7">
@@ -8962,13 +8987,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>23.78</v>
+        <v>23.77</v>
       </c>
       <c r="C7" t="n">
-        <v>23.93</v>
+        <v>23.91</v>
       </c>
       <c r="D7" t="n">
-        <v>23.62</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="8">
@@ -8976,13 +9001,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>23.83</v>
+        <v>23.96</v>
       </c>
       <c r="C8" t="n">
-        <v>23.95</v>
+        <v>23.8</v>
       </c>
       <c r="D8" t="n">
-        <v>24.08</v>
+        <v>23.99</v>
       </c>
     </row>
   </sheetData>
@@ -9032,13 +9057,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>22.7</v>
+        <v>22.74</v>
       </c>
       <c r="C2" t="n">
-        <v>22.74</v>
+        <v>22.73</v>
       </c>
       <c r="D2" t="n">
-        <v>22.73</v>
+        <v>22.76</v>
       </c>
     </row>
     <row r="3">
@@ -9046,13 +9071,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.75</v>
+        <v>21.81</v>
       </c>
       <c r="C3" t="n">
-        <v>21.78</v>
+        <v>21.72</v>
       </c>
       <c r="D3" t="n">
-        <v>21.64</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="4">
@@ -9060,13 +9085,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.99</v>
+        <v>22.95</v>
       </c>
       <c r="C4" t="n">
-        <v>22.95</v>
+        <v>22.9</v>
       </c>
       <c r="D4" t="n">
-        <v>22.91</v>
+        <v>22.83</v>
       </c>
     </row>
     <row r="5">
@@ -9074,13 +9099,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.67</v>
+        <v>22.62</v>
       </c>
       <c r="C5" t="n">
-        <v>22.58</v>
+        <v>22.61</v>
       </c>
       <c r="D5" t="n">
-        <v>22.63</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="6">
@@ -9088,13 +9113,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>22.89</v>
+        <v>22.9</v>
       </c>
       <c r="C6" t="n">
-        <v>22.8</v>
+        <v>22.93</v>
       </c>
       <c r="D6" t="n">
-        <v>22.84</v>
+        <v>22.95</v>
       </c>
     </row>
     <row r="7">
@@ -9102,13 +9127,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>22.71</v>
+        <v>22.78</v>
       </c>
       <c r="C7" t="n">
-        <v>22.61</v>
+        <v>22.7</v>
       </c>
       <c r="D7" t="n">
-        <v>22.55</v>
+        <v>22.49</v>
       </c>
     </row>
     <row r="8">
@@ -9116,13 +9141,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>21.78</v>
+        <v>21.83</v>
       </c>
       <c r="C8" t="n">
-        <v>21.86</v>
+        <v>21.83</v>
       </c>
       <c r="D8" t="n">
-        <v>21.75</v>
+        <v>21.79</v>
       </c>
     </row>
   </sheetData>
@@ -9172,13 +9197,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>22.8</v>
+        <v>22.68</v>
       </c>
       <c r="C2" t="n">
-        <v>22.87</v>
+        <v>22.84</v>
       </c>
       <c r="D2" t="n">
-        <v>22.92</v>
+        <v>22.84</v>
       </c>
     </row>
     <row r="3">
@@ -9189,10 +9214,10 @@
         <v>22.94</v>
       </c>
       <c r="C3" t="n">
-        <v>23.03</v>
+        <v>22.97</v>
       </c>
       <c r="D3" t="n">
-        <v>22.92</v>
+        <v>22.93</v>
       </c>
     </row>
     <row r="4">
@@ -9200,13 +9225,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>23.04</v>
       </c>
       <c r="C4" t="n">
-        <v>23.09</v>
+        <v>23.07</v>
       </c>
       <c r="D4" t="n">
-        <v>23.11</v>
+        <v>22.95</v>
       </c>
     </row>
     <row r="5">
@@ -9214,13 +9239,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.74</v>
+        <v>22.75</v>
       </c>
       <c r="C5" t="n">
         <v>22.74</v>
       </c>
       <c r="D5" t="n">
-        <v>22.87</v>
+        <v>22.74</v>
       </c>
     </row>
     <row r="6">
@@ -9228,13 +9253,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>22.94</v>
+        <v>22.92</v>
       </c>
       <c r="C6" t="n">
-        <v>22.81</v>
+        <v>22.92</v>
       </c>
       <c r="D6" t="n">
-        <v>22.91</v>
+        <v>22.92</v>
       </c>
     </row>
     <row r="7">
@@ -9242,13 +9267,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>22.96</v>
+        <v>22.81</v>
       </c>
       <c r="C7" t="n">
-        <v>22.86</v>
+        <v>22.85</v>
       </c>
       <c r="D7" t="n">
-        <v>22.79</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="8">
@@ -9259,10 +9284,10 @@
         <v>22.95</v>
       </c>
       <c r="C8" t="n">
-        <v>23.06</v>
+        <v>23.04</v>
       </c>
       <c r="D8" t="n">
-        <v>23.04</v>
+        <v>23.05</v>
       </c>
     </row>
   </sheetData>
@@ -9312,10 +9337,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>21.74</v>
+        <v>21.78</v>
       </c>
       <c r="C2" t="n">
-        <v>21.78</v>
+        <v>21.81</v>
       </c>
       <c r="D2" t="n">
         <v>21.89</v>
@@ -9326,10 +9351,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.75</v>
+        <v>21.84</v>
       </c>
       <c r="C3" t="n">
-        <v>21.87</v>
+        <v>21.84</v>
       </c>
       <c r="D3" t="n">
         <v>21.8</v>
@@ -9340,13 +9365,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.87</v>
+        <v>21.94</v>
       </c>
       <c r="C4" t="n">
-        <v>22.01</v>
+        <v>21.88</v>
       </c>
       <c r="D4" t="n">
-        <v>21.92</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="5">
@@ -9354,13 +9379,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.57</v>
+        <v>21.54</v>
       </c>
       <c r="C5" t="n">
-        <v>21.64</v>
+        <v>21.62</v>
       </c>
       <c r="D5" t="n">
-        <v>21.56</v>
+        <v>21.53</v>
       </c>
     </row>
     <row r="6">
@@ -9368,13 +9393,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>21.87</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9</v>
+        <v>21.96</v>
       </c>
       <c r="D6" t="n">
-        <v>22.01</v>
+        <v>21.96</v>
       </c>
     </row>
     <row r="7">
@@ -9382,13 +9407,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>21.77</v>
+        <v>21.76</v>
       </c>
       <c r="C7" t="n">
-        <v>21.68</v>
+        <v>21.76</v>
       </c>
       <c r="D7" t="n">
-        <v>21.64</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="8">
@@ -9396,13 +9421,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>21.84</v>
+        <v>21.9</v>
       </c>
       <c r="C8" t="n">
-        <v>21.82</v>
+        <v>21.9</v>
       </c>
       <c r="D8" t="n">
-        <v>21.87</v>
+        <v>21.94</v>
       </c>
     </row>
   </sheetData>
@@ -9477,22 +9502,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-46.18</v>
+        <v>-46.56</v>
       </c>
       <c r="D2" t="n">
-        <v>-51.9</v>
+        <v>-51.77</v>
       </c>
       <c r="E2" t="n">
-        <v>-46.2</v>
+        <v>-46.31</v>
       </c>
       <c r="F2" t="n">
-        <v>-55.58</v>
+        <v>-55.55</v>
       </c>
       <c r="G2" t="n">
-        <v>-56.77</v>
+        <v>-56.81</v>
       </c>
       <c r="H2" t="n">
-        <v>-58.17</v>
+        <v>-58.18</v>
       </c>
     </row>
     <row r="3">
@@ -9505,22 +9530,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-46.31</v>
+        <v>-45.88</v>
       </c>
       <c r="D3" t="n">
-        <v>-51.95</v>
+        <v>-51.74</v>
       </c>
       <c r="E3" t="n">
-        <v>-45.69</v>
+        <v>-45.39</v>
       </c>
       <c r="F3" t="n">
-        <v>-55.54</v>
+        <v>-55.37</v>
       </c>
       <c r="G3" t="n">
-        <v>-57.47</v>
+        <v>-57.35</v>
       </c>
       <c r="H3" t="n">
-        <v>-58.54</v>
+        <v>-57.85</v>
       </c>
     </row>
     <row r="4">
@@ -9533,22 +9558,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-48.37</v>
+        <v>-48.7</v>
       </c>
       <c r="D4" t="n">
-        <v>-52.76</v>
+        <v>-52.77</v>
       </c>
       <c r="E4" t="n">
-        <v>-49.61</v>
+        <v>-49.31</v>
       </c>
       <c r="F4" t="n">
         <v>-56.45</v>
       </c>
       <c r="G4" t="n">
-        <v>-56.65</v>
+        <v>-57.12</v>
       </c>
       <c r="H4" t="n">
-        <v>-59.13</v>
+        <v>-59.18</v>
       </c>
     </row>
     <row r="5">
@@ -9561,22 +9586,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-48.13</v>
+        <v>-47.18</v>
       </c>
       <c r="D5" t="n">
-        <v>-51.75</v>
+        <v>-51.73</v>
       </c>
       <c r="E5" t="n">
-        <v>-48.15</v>
+        <v>-47.07</v>
       </c>
       <c r="F5" t="n">
-        <v>-55.47</v>
+        <v>-55.48</v>
       </c>
       <c r="G5" t="n">
-        <v>-57.68</v>
+        <v>-57.37</v>
       </c>
       <c r="H5" t="n">
-        <v>-58.46</v>
+        <v>-58.3</v>
       </c>
     </row>
     <row r="6">
@@ -9589,22 +9614,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-47.33</v>
+        <v>-46.78</v>
       </c>
       <c r="D6" t="n">
-        <v>-52.9</v>
+        <v>-52.99</v>
       </c>
       <c r="E6" t="n">
-        <v>-46.39</v>
+        <v>-46.32</v>
       </c>
       <c r="F6" t="n">
-        <v>-56.58</v>
+        <v>-56.98</v>
       </c>
       <c r="G6" t="n">
-        <v>-57.46</v>
+        <v>-56.99</v>
       </c>
       <c r="H6" t="n">
-        <v>-59.33</v>
+        <v>-59.59</v>
       </c>
     </row>
     <row r="7">
@@ -9617,22 +9642,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-46.6</v>
+        <v>-46.11</v>
       </c>
       <c r="D7" t="n">
-        <v>-53.07</v>
+        <v>-53.1</v>
       </c>
       <c r="E7" t="n">
-        <v>-47.69</v>
+        <v>-46.84</v>
       </c>
       <c r="F7" t="n">
-        <v>-56.2</v>
+        <v>-56.09</v>
       </c>
       <c r="G7" t="n">
-        <v>-54.53</v>
+        <v>-54.7</v>
       </c>
       <c r="H7" t="n">
-        <v>-59.34</v>
+        <v>-59.47</v>
       </c>
     </row>
     <row r="8">
@@ -9645,22 +9670,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-46.44</v>
+        <v>-46.06</v>
       </c>
       <c r="D8" t="n">
-        <v>-52.87</v>
+        <v>-52.91</v>
       </c>
       <c r="E8" t="n">
-        <v>-45.01</v>
+        <v>-44.78</v>
       </c>
       <c r="F8" t="n">
-        <v>-55.79</v>
+        <v>-55.51</v>
       </c>
       <c r="G8" t="n">
-        <v>-58.85</v>
+        <v>-58.76</v>
       </c>
       <c r="H8" t="n">
-        <v>-58.99</v>
+        <v>-59.09</v>
       </c>
     </row>
     <row r="9">
@@ -9673,22 +9698,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-47.4</v>
+        <v>-47.56</v>
       </c>
       <c r="D9" t="n">
-        <v>-53.51</v>
+        <v>-53.64</v>
       </c>
       <c r="E9" t="n">
-        <v>-47.06</v>
+        <v>-47.3</v>
       </c>
       <c r="F9" t="n">
-        <v>-56.46</v>
+        <v>-56.31</v>
       </c>
       <c r="G9" t="n">
-        <v>-56.78</v>
+        <v>-56.73</v>
       </c>
       <c r="H9" t="n">
-        <v>-59.42</v>
+        <v>-59.97</v>
       </c>
     </row>
     <row r="10">
@@ -9701,22 +9726,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-47.48</v>
+        <v>-47.24</v>
       </c>
       <c r="D10" t="n">
-        <v>-55.1</v>
+        <v>-54.9</v>
       </c>
       <c r="E10" t="n">
-        <v>-47.23</v>
+        <v>-46.86</v>
       </c>
       <c r="F10" t="n">
-        <v>-57.75</v>
+        <v>-57.31</v>
       </c>
       <c r="G10" t="n">
-        <v>-56.67</v>
+        <v>-56.95</v>
       </c>
       <c r="H10" t="n">
-        <v>-61.7</v>
+        <v>-62.01</v>
       </c>
     </row>
     <row r="11">
@@ -9729,22 +9754,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-48.11</v>
+        <v>-48.15</v>
       </c>
       <c r="D11" t="n">
-        <v>-53.15</v>
+        <v>-53.24</v>
       </c>
       <c r="E11" t="n">
-        <v>-47.03</v>
+        <v>-47.45</v>
       </c>
       <c r="F11" t="n">
         <v>-55.99</v>
       </c>
       <c r="G11" t="n">
-        <v>-58.61</v>
+        <v>-58.51</v>
       </c>
       <c r="H11" t="n">
-        <v>-58.79</v>
+        <v>-59.23</v>
       </c>
     </row>
     <row r="12">
@@ -9757,22 +9782,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-46.29</v>
+        <v>-46.67</v>
       </c>
       <c r="D12" t="n">
-        <v>-53.8</v>
+        <v>-53.45</v>
       </c>
       <c r="E12" t="n">
-        <v>-45.21</v>
+        <v>-45.71</v>
       </c>
       <c r="F12" t="n">
-        <v>-56.96</v>
+        <v>-56.43</v>
       </c>
       <c r="G12" t="n">
-        <v>-57.65</v>
+        <v>-56.77</v>
       </c>
       <c r="H12" t="n">
-        <v>-59.94</v>
+        <v>-59.95</v>
       </c>
     </row>
     <row r="13">
@@ -9785,22 +9810,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-48.64</v>
+        <v>-48.39</v>
       </c>
       <c r="D13" t="n">
-        <v>-53.19</v>
+        <v>-52.9</v>
       </c>
       <c r="E13" t="n">
-        <v>-48.73</v>
+        <v>-48.2</v>
       </c>
       <c r="F13" t="n">
-        <v>-56.06</v>
+        <v>-56.01</v>
       </c>
       <c r="G13" t="n">
-        <v>-56.65</v>
+        <v>-57.23</v>
       </c>
       <c r="H13" t="n">
-        <v>-59.21</v>
+        <v>-58.79</v>
       </c>
     </row>
     <row r="14">
@@ -9813,22 +9838,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-46.16</v>
+        <v>-45.76</v>
       </c>
       <c r="D14" t="n">
-        <v>-54.91</v>
+        <v>-55.25</v>
       </c>
       <c r="E14" t="n">
-        <v>-46.03</v>
+        <v>-45.8</v>
       </c>
       <c r="F14" t="n">
-        <v>-57.08</v>
+        <v>-57.34</v>
       </c>
       <c r="G14" t="n">
-        <v>-55.19</v>
+        <v>-54.98</v>
       </c>
       <c r="H14" t="n">
-        <v>-61.68</v>
+        <v>-61.69</v>
       </c>
     </row>
     <row r="15">
@@ -9841,22 +9866,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-41.4</v>
+        <v>-41.88</v>
       </c>
       <c r="D15" t="n">
-        <v>-54.54</v>
+        <v>-54.65</v>
       </c>
       <c r="E15" t="n">
-        <v>-39.85</v>
+        <v>-39.96</v>
       </c>
       <c r="F15" t="n">
-        <v>-56.74</v>
+        <v>-56.9</v>
       </c>
       <c r="G15" t="n">
-        <v>-56.92</v>
+        <v>-57.74</v>
       </c>
       <c r="H15" t="n">
-        <v>-60.87</v>
+        <v>-60.64</v>
       </c>
     </row>
     <row r="16">
@@ -9869,22 +9894,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-42.58</v>
+        <v>-42.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-57.31</v>
+        <v>-57.9</v>
       </c>
       <c r="E16" t="n">
-        <v>-41.4</v>
+        <v>-41.63</v>
       </c>
       <c r="F16" t="n">
-        <v>-58.92</v>
+        <v>-59.36</v>
       </c>
       <c r="G16" t="n">
-        <v>-55.13</v>
+        <v>-54.79</v>
       </c>
       <c r="H16" t="n">
-        <v>-63.05</v>
+        <v>-63.71</v>
       </c>
     </row>
     <row r="17">
@@ -9897,22 +9922,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-48.06</v>
+        <v>-48.24</v>
       </c>
       <c r="D17" t="n">
-        <v>-51.78</v>
+        <v>-51.82</v>
       </c>
       <c r="E17" t="n">
-        <v>-47.99</v>
+        <v>-48.18</v>
       </c>
       <c r="F17" t="n">
-        <v>-55.63</v>
+        <v>-55.56</v>
       </c>
       <c r="G17" t="n">
-        <v>-57.55</v>
+        <v>-57.71</v>
       </c>
       <c r="H17" t="n">
-        <v>-58.17</v>
+        <v>-58.28</v>
       </c>
     </row>
     <row r="18">
@@ -9925,22 +9950,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-47.47</v>
+        <v>-46.8</v>
       </c>
       <c r="D18" t="n">
-        <v>-53.18</v>
+        <v>-53.03</v>
       </c>
       <c r="E18" t="n">
-        <v>-46.93</v>
+        <v>-46.28</v>
       </c>
       <c r="F18" t="n">
-        <v>-57.02</v>
+        <v>-56.81</v>
       </c>
       <c r="G18" t="n">
-        <v>-57.26</v>
+        <v>-56.92</v>
       </c>
       <c r="H18" t="n">
-        <v>-59.16</v>
+        <v>-59.41</v>
       </c>
     </row>
     <row r="19">
@@ -9953,22 +9978,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-45.03</v>
+        <v>-44.74</v>
       </c>
       <c r="D19" t="n">
-        <v>-54.07</v>
+        <v>-54.05</v>
       </c>
       <c r="E19" t="n">
-        <v>-44.89</v>
+        <v>-44.5</v>
       </c>
       <c r="F19" t="n">
-        <v>-57.4</v>
+        <v>-57.09</v>
       </c>
       <c r="G19" t="n">
-        <v>-55.09</v>
+        <v>-55.43</v>
       </c>
       <c r="H19" t="n">
-        <v>-60.4</v>
+        <v>-60.8</v>
       </c>
     </row>
     <row r="20">
@@ -9981,22 +10006,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-47.6</v>
+        <v>-48.26</v>
       </c>
       <c r="D20" t="n">
-        <v>-53.6</v>
+        <v>-53.3</v>
       </c>
       <c r="E20" t="n">
-        <v>-47.04</v>
+        <v>-47.49</v>
       </c>
       <c r="F20" t="n">
-        <v>-56.34</v>
+        <v>-56.17</v>
       </c>
       <c r="G20" t="n">
         <v>-58.53</v>
       </c>
       <c r="H20" t="n">
-        <v>-59.4</v>
+        <v>-59.74</v>
       </c>
     </row>
     <row r="21">
@@ -10009,22 +10034,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-48.2</v>
+        <v>-48.45</v>
       </c>
       <c r="D21" t="n">
-        <v>-53.14</v>
+        <v>-53.26</v>
       </c>
       <c r="E21" t="n">
-        <v>-48.44</v>
+        <v>-48.63</v>
       </c>
       <c r="F21" t="n">
-        <v>-56.16</v>
+        <v>-56.14</v>
       </c>
       <c r="G21" t="n">
-        <v>-56.93</v>
+        <v>-56.86</v>
       </c>
       <c r="H21" t="n">
-        <v>-59.31</v>
+        <v>-59.23</v>
       </c>
     </row>
     <row r="22">
@@ -10037,22 +10062,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-44.54</v>
+        <v>-44.28</v>
       </c>
       <c r="D22" t="n">
-        <v>-53.78</v>
+        <v>-53.6</v>
       </c>
       <c r="E22" t="n">
-        <v>-43.31</v>
+        <v>-43.33</v>
       </c>
       <c r="F22" t="n">
-        <v>-57.1</v>
+        <v>-57.02</v>
       </c>
       <c r="G22" t="n">
-        <v>-57.71</v>
+        <v>-57.36</v>
       </c>
       <c r="H22" t="n">
-        <v>-60.2</v>
+        <v>-59.95</v>
       </c>
     </row>
   </sheetData>
@@ -10127,22 +10152,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-44.58</v>
+        <v>-45.06</v>
       </c>
       <c r="D2" t="n">
-        <v>-43.41</v>
+        <v>-43.35</v>
       </c>
       <c r="E2" t="n">
-        <v>-47.82</v>
+        <v>-48.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-47.43</v>
+        <v>-47.48</v>
       </c>
       <c r="G2" t="n">
-        <v>-51.19</v>
+        <v>-51.66</v>
       </c>
       <c r="H2" t="n">
-        <v>-49.64</v>
+        <v>-49.59</v>
       </c>
     </row>
     <row r="3">
@@ -10155,22 +10180,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-45.96</v>
+        <v>-45.97</v>
       </c>
       <c r="D3" t="n">
-        <v>-42.29</v>
+        <v>-42.37</v>
       </c>
       <c r="E3" t="n">
-        <v>-49.3</v>
+        <v>-49.53</v>
       </c>
       <c r="F3" t="n">
-        <v>-45.74</v>
+        <v>-45.52</v>
       </c>
       <c r="G3" t="n">
-        <v>-52.84</v>
+        <v>-52.66</v>
       </c>
       <c r="H3" t="n">
-        <v>-48.77</v>
+        <v>-49.15</v>
       </c>
     </row>
     <row r="4">
@@ -10183,22 +10208,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-44.54</v>
+        <v>-45.15</v>
       </c>
       <c r="D4" t="n">
-        <v>-46.33</v>
+        <v>-46.18</v>
       </c>
       <c r="E4" t="n">
-        <v>-48.05</v>
+        <v>-48.63</v>
       </c>
       <c r="F4" t="n">
-        <v>-50.02</v>
+        <v>-50.21</v>
       </c>
       <c r="G4" t="n">
-        <v>-51.14</v>
+        <v>-51.8</v>
       </c>
       <c r="H4" t="n">
-        <v>-53.2</v>
+        <v>-52.57</v>
       </c>
     </row>
     <row r="5">
@@ -10211,22 +10236,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-45.71</v>
+        <v>-46.18</v>
       </c>
       <c r="D5" t="n">
-        <v>-44.46</v>
+        <v>-44.47</v>
       </c>
       <c r="E5" t="n">
-        <v>-49.15</v>
+        <v>-49.59</v>
       </c>
       <c r="F5" t="n">
-        <v>-49.29</v>
+        <v>-49.69</v>
       </c>
       <c r="G5" t="n">
-        <v>-52.44</v>
+        <v>-52.75</v>
       </c>
       <c r="H5" t="n">
-        <v>-52.61</v>
+        <v>-52.56</v>
       </c>
     </row>
     <row r="6">
@@ -10239,22 +10264,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-43.68</v>
+        <v>-43.96</v>
       </c>
       <c r="D6" t="n">
-        <v>-43.6</v>
+        <v>-43.51</v>
       </c>
       <c r="E6" t="n">
-        <v>-47.11</v>
+        <v>-47.26</v>
       </c>
       <c r="F6" t="n">
-        <v>-46.56</v>
+        <v>-46.76</v>
       </c>
       <c r="G6" t="n">
-        <v>-50.1</v>
+        <v>-50.76</v>
       </c>
       <c r="H6" t="n">
-        <v>-50.89</v>
+        <v>-50.48</v>
       </c>
     </row>
     <row r="7">
@@ -10267,22 +10292,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-40.61</v>
+        <v>-41.1</v>
       </c>
       <c r="D7" t="n">
-        <v>-45.34</v>
+        <v>-45.32</v>
       </c>
       <c r="E7" t="n">
-        <v>-43.05</v>
+        <v>-44</v>
       </c>
       <c r="F7" t="n">
-        <v>-47.64</v>
+        <v>-48.23</v>
       </c>
       <c r="G7" t="n">
-        <v>-46.69</v>
+        <v>-46.98</v>
       </c>
       <c r="H7" t="n">
-        <v>-51.94</v>
+        <v>-51.5</v>
       </c>
     </row>
     <row r="8">
@@ -10295,22 +10320,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-42.92</v>
+        <v>-43.42</v>
       </c>
       <c r="D8" t="n">
-        <v>-42.91</v>
+        <v>-42.94</v>
       </c>
       <c r="E8" t="n">
-        <v>-46.56</v>
+        <v>-47.34</v>
       </c>
       <c r="F8" t="n">
-        <v>-46.21</v>
+        <v>-46.47</v>
       </c>
       <c r="G8" t="n">
-        <v>-48.64</v>
+        <v>-49.3</v>
       </c>
       <c r="H8" t="n">
-        <v>-49.85</v>
+        <v>-49.87</v>
       </c>
     </row>
     <row r="9">
@@ -10323,22 +10348,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-44.25</v>
+        <v>-43.94</v>
       </c>
       <c r="D9" t="n">
-        <v>-45.33</v>
+        <v>-45.27</v>
       </c>
       <c r="E9" t="n">
-        <v>-47.83</v>
+        <v>-47.56</v>
       </c>
       <c r="F9" t="n">
-        <v>-50.2</v>
+        <v>-50.36</v>
       </c>
       <c r="G9" t="n">
-        <v>-50.9</v>
+        <v>-50.55</v>
       </c>
       <c r="H9" t="n">
-        <v>-53.52</v>
+        <v>-53.17</v>
       </c>
     </row>
     <row r="10">
@@ -10351,22 +10376,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-44.57</v>
+        <v>-44.47</v>
       </c>
       <c r="D10" t="n">
-        <v>-46.33</v>
+        <v>-46.8</v>
       </c>
       <c r="E10" t="n">
-        <v>-48.19</v>
+        <v>-48.15</v>
       </c>
       <c r="F10" t="n">
-        <v>-48.37</v>
+        <v>-49.1</v>
       </c>
       <c r="G10" t="n">
-        <v>-51</v>
+        <v>-51.29</v>
       </c>
       <c r="H10" t="n">
-        <v>-52.93</v>
+        <v>-53.56</v>
       </c>
     </row>
     <row r="11">
@@ -10379,22 +10404,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-41.85</v>
+        <v>-42.13</v>
       </c>
       <c r="D11" t="n">
-        <v>-44.17</v>
+        <v>-44.29</v>
       </c>
       <c r="E11" t="n">
-        <v>-47.06</v>
+        <v>-47.85</v>
       </c>
       <c r="F11" t="n">
-        <v>-48.06</v>
+        <v>-48.39</v>
       </c>
       <c r="G11" t="n">
-        <v>-47.51</v>
+        <v>-47.97</v>
       </c>
       <c r="H11" t="n">
-        <v>-52.37</v>
+        <v>-52.17</v>
       </c>
     </row>
     <row r="12">
@@ -10407,22 +10432,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-41.15</v>
+        <v>-41.01</v>
       </c>
       <c r="D12" t="n">
-        <v>-44.29</v>
+        <v>-44.45</v>
       </c>
       <c r="E12" t="n">
-        <v>-46.14</v>
+        <v>-46.27</v>
       </c>
       <c r="F12" t="n">
-        <v>-50.75</v>
+        <v>-50.76</v>
       </c>
       <c r="G12" t="n">
-        <v>-46.87</v>
+        <v>-46.66</v>
       </c>
       <c r="H12" t="n">
-        <v>-50.15</v>
+        <v>-50.56</v>
       </c>
     </row>
     <row r="13">
@@ -10435,22 +10460,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-42.53</v>
+        <v>-42.68</v>
       </c>
       <c r="D13" t="n">
-        <v>-41.92</v>
+        <v>-42.16</v>
       </c>
       <c r="E13" t="n">
-        <v>-46.91</v>
+        <v>-47.43</v>
       </c>
       <c r="F13" t="n">
-        <v>-48.75</v>
+        <v>-49.1</v>
       </c>
       <c r="G13" t="n">
-        <v>-48.56</v>
+        <v>-48.7</v>
       </c>
       <c r="H13" t="n">
-        <v>-49.27</v>
+        <v>-49.75</v>
       </c>
     </row>
     <row r="14">
@@ -10463,22 +10488,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-41.83</v>
+        <v>-42.17</v>
       </c>
       <c r="D14" t="n">
-        <v>-38.19</v>
+        <v>-38.42</v>
       </c>
       <c r="E14" t="n">
-        <v>-46.41</v>
+        <v>-46.93</v>
       </c>
       <c r="F14" t="n">
-        <v>-41.84</v>
+        <v>-42.36</v>
       </c>
       <c r="G14" t="n">
-        <v>-47.74</v>
+        <v>-48.12</v>
       </c>
       <c r="H14" t="n">
-        <v>-45.04</v>
+        <v>-45.19</v>
       </c>
     </row>
     <row r="15">
@@ -10491,22 +10516,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-40.32</v>
+        <v>-40.56</v>
       </c>
       <c r="D15" t="n">
-        <v>-36.17</v>
+        <v>-36.67</v>
       </c>
       <c r="E15" t="n">
-        <v>-43.2</v>
+        <v>-43.43</v>
       </c>
       <c r="F15" t="n">
-        <v>-39.65</v>
+        <v>-40.24</v>
       </c>
       <c r="G15" t="n">
-        <v>-45.72</v>
+        <v>-45.91</v>
       </c>
       <c r="H15" t="n">
-        <v>-42.99</v>
+        <v>-43.55</v>
       </c>
     </row>
     <row r="16">
@@ -10519,22 +10544,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-38.28</v>
+        <v>-37.54</v>
       </c>
       <c r="D16" t="n">
-        <v>-41.75</v>
+        <v>-41.66</v>
       </c>
       <c r="E16" t="n">
-        <v>-40.34</v>
+        <v>-40</v>
       </c>
       <c r="F16" t="n">
-        <v>-44.68</v>
+        <v>-44.2</v>
       </c>
       <c r="G16" t="n">
-        <v>-44.86</v>
+        <v>-43.48</v>
       </c>
       <c r="H16" t="n">
-        <v>-50.94</v>
+        <v>-51.14</v>
       </c>
     </row>
     <row r="17">
@@ -10547,22 +10572,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-45.69</v>
+        <v>-45.92</v>
       </c>
       <c r="D17" t="n">
-        <v>-45.05</v>
+        <v>-45.34</v>
       </c>
       <c r="E17" t="n">
-        <v>-49.74</v>
+        <v>-50.07</v>
       </c>
       <c r="F17" t="n">
-        <v>-49.76</v>
+        <v>-50.29</v>
       </c>
       <c r="G17" t="n">
-        <v>-52.1</v>
+        <v>-52.33</v>
       </c>
       <c r="H17" t="n">
-        <v>-52.83</v>
+        <v>-52.57</v>
       </c>
     </row>
     <row r="18">
@@ -10575,22 +10600,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-42.69</v>
+        <v>-42.65</v>
       </c>
       <c r="D18" t="n">
-        <v>-43.44</v>
+        <v>-43.63</v>
       </c>
       <c r="E18" t="n">
-        <v>-46.19</v>
+        <v>-46.29</v>
       </c>
       <c r="F18" t="n">
-        <v>-46.47</v>
+        <v>-46.99</v>
       </c>
       <c r="G18" t="n">
-        <v>-49.34</v>
+        <v>-48.91</v>
       </c>
       <c r="H18" t="n">
-        <v>-50.07</v>
+        <v>-49.89</v>
       </c>
     </row>
     <row r="19">
@@ -10603,22 +10628,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-43.29</v>
+        <v>-43.76</v>
       </c>
       <c r="D19" t="n">
-        <v>-43.33</v>
+        <v>-43.41</v>
       </c>
       <c r="E19" t="n">
-        <v>-45.9</v>
+        <v>-46.66</v>
       </c>
       <c r="F19" t="n">
-        <v>-44.73</v>
+        <v>-45.12</v>
       </c>
       <c r="G19" t="n">
-        <v>-49.53</v>
+        <v>-49.76</v>
       </c>
       <c r="H19" t="n">
-        <v>-50.27</v>
+        <v>-50.03</v>
       </c>
     </row>
     <row r="20">
@@ -10631,22 +10656,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-42.14</v>
+        <v>-42.1</v>
       </c>
       <c r="D20" t="n">
-        <v>-43.93</v>
+        <v>-44.51</v>
       </c>
       <c r="E20" t="n">
-        <v>-47.59</v>
+        <v>-47.51</v>
       </c>
       <c r="F20" t="n">
-        <v>-47.9</v>
+        <v>-48.65</v>
       </c>
       <c r="G20" t="n">
-        <v>-48.11</v>
+        <v>-48.17</v>
       </c>
       <c r="H20" t="n">
-        <v>-52.4</v>
+        <v>-52.13</v>
       </c>
     </row>
     <row r="21">
@@ -10659,22 +10684,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-42.64</v>
+        <v>-42.28</v>
       </c>
       <c r="D21" t="n">
-        <v>-42.14</v>
+        <v>-42.08</v>
       </c>
       <c r="E21" t="n">
-        <v>-47.01</v>
+        <v>-46.61</v>
       </c>
       <c r="F21" t="n">
-        <v>-49.28</v>
+        <v>-49.01</v>
       </c>
       <c r="G21" t="n">
-        <v>-48.87</v>
+        <v>-48.33</v>
       </c>
       <c r="H21" t="n">
-        <v>-49.96</v>
+        <v>-50.14</v>
       </c>
     </row>
     <row r="22">
@@ -10687,22 +10712,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-40.25</v>
+        <v>-39.96</v>
       </c>
       <c r="D22" t="n">
-        <v>-40.68</v>
+        <v>-40.91</v>
       </c>
       <c r="E22" t="n">
-        <v>-45.17</v>
+        <v>-44.92</v>
       </c>
       <c r="F22" t="n">
-        <v>-44.27</v>
+        <v>-44.91</v>
       </c>
       <c r="G22" t="n">
-        <v>-47.14</v>
+        <v>-46.71</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.73</v>
+        <v>-47.17</v>
       </c>
     </row>
   </sheetData>

--- a/results_20MHZ_LTE.xlsx
+++ b/results_20MHZ_LTE.xlsx
@@ -575,6 +575,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -856,6 +858,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1137,6 +1141,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1418,6 +1424,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -3907,6 +3915,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -4188,6 +4198,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -5057,13 +5069,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>24.79</v>
+        <v>24.49</v>
       </c>
       <c r="C2" t="n">
-        <v>24.84</v>
+        <v>24.27</v>
       </c>
       <c r="D2" t="n">
-        <v>24.88</v>
+        <v>24.35</v>
       </c>
     </row>
     <row r="3">
@@ -5071,13 +5083,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>24.83</v>
+        <v>24.36</v>
       </c>
       <c r="C3" t="n">
-        <v>24.76</v>
+        <v>24.53</v>
       </c>
       <c r="D3" t="n">
-        <v>24.72</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="4">
@@ -5085,13 +5097,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.9</v>
+        <v>24.58</v>
       </c>
       <c r="C4" t="n">
-        <v>24.97</v>
+        <v>24.55</v>
       </c>
       <c r="D4" t="n">
-        <v>24.94</v>
+        <v>24.58</v>
       </c>
     </row>
     <row r="5">
@@ -5099,13 +5111,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.58</v>
+        <v>24.13</v>
       </c>
       <c r="C5" t="n">
-        <v>24.65</v>
+        <v>23.91</v>
       </c>
       <c r="D5" t="n">
-        <v>24.5</v>
+        <v>24.16</v>
       </c>
     </row>
     <row r="6">
@@ -5113,13 +5125,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>24.66</v>
+        <v>24.39</v>
       </c>
       <c r="C6" t="n">
-        <v>24.83</v>
+        <v>24.41</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>24.37</v>
       </c>
     </row>
     <row r="7">
@@ -5127,13 +5139,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>24.71</v>
+        <v>24.51</v>
       </c>
       <c r="C7" t="n">
-        <v>24.82</v>
+        <v>24.54</v>
       </c>
       <c r="D7" t="n">
-        <v>24.48</v>
+        <v>24.21</v>
       </c>
     </row>
     <row r="8">
@@ -5141,13 +5153,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>24.84</v>
+        <v>24.28</v>
       </c>
       <c r="C8" t="n">
-        <v>24.89</v>
+        <v>24.25</v>
       </c>
       <c r="D8" t="n">
-        <v>24.93</v>
+        <v>24.3</v>
       </c>
     </row>
   </sheetData>
@@ -5222,22 +5234,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-44.98</v>
+        <v>-45.28</v>
       </c>
       <c r="D2" t="n">
-        <v>-51.19</v>
+        <v>-51.46</v>
       </c>
       <c r="E2" t="n">
-        <v>-44.71</v>
+        <v>-44.84</v>
       </c>
       <c r="F2" t="n">
-        <v>-55.05</v>
+        <v>-55.27</v>
       </c>
       <c r="G2" t="n">
-        <v>-55.56</v>
+        <v>-56.13</v>
       </c>
       <c r="H2" t="n">
-        <v>-57.56</v>
+        <v>-57.71</v>
       </c>
     </row>
     <row r="3">
@@ -5250,22 +5262,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-46</v>
+        <v>-45.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-50.98</v>
+        <v>-51.06</v>
       </c>
       <c r="E3" t="n">
-        <v>-45.71</v>
+        <v>-44.53</v>
       </c>
       <c r="F3" t="n">
-        <v>-54.71</v>
+        <v>-54.87</v>
       </c>
       <c r="G3" t="n">
-        <v>-56.14</v>
+        <v>-56.19</v>
       </c>
       <c r="H3" t="n">
-        <v>-57.16</v>
+        <v>-57.13</v>
       </c>
     </row>
     <row r="4">
@@ -5278,22 +5290,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-47.95</v>
+        <v>-47.09</v>
       </c>
       <c r="D4" t="n">
-        <v>-51.66</v>
+        <v>-52.1</v>
       </c>
       <c r="E4" t="n">
-        <v>-48.87</v>
+        <v>-47.35</v>
       </c>
       <c r="F4" t="n">
-        <v>-55.53</v>
+        <v>-55.82</v>
       </c>
       <c r="G4" t="n">
-        <v>-56.13</v>
+        <v>-56.11</v>
       </c>
       <c r="H4" t="n">
-        <v>-57.98</v>
+        <v>-58.34</v>
       </c>
     </row>
     <row r="5">
@@ -5306,22 +5318,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-45.45</v>
+        <v>-46.01</v>
       </c>
       <c r="D5" t="n">
-        <v>-50.94</v>
+        <v>-51.24</v>
       </c>
       <c r="E5" t="n">
-        <v>-45.03</v>
+        <v>-45.61</v>
       </c>
       <c r="F5" t="n">
-        <v>-54.74</v>
+        <v>-54.9</v>
       </c>
       <c r="G5" t="n">
-        <v>-56.71</v>
+        <v>-56.73</v>
       </c>
       <c r="H5" t="n">
-        <v>-57</v>
+        <v>-57.59</v>
       </c>
     </row>
     <row r="6">
@@ -5334,22 +5346,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-45.93</v>
+        <v>-46.3</v>
       </c>
       <c r="D6" t="n">
-        <v>-52.2</v>
+        <v>-52.82</v>
       </c>
       <c r="E6" t="n">
-        <v>-45.48</v>
+        <v>-45.94</v>
       </c>
       <c r="F6" t="n">
-        <v>-55.96</v>
+        <v>-56.55</v>
       </c>
       <c r="G6" t="n">
-        <v>-56.11</v>
+        <v>-56.44</v>
       </c>
       <c r="H6" t="n">
-        <v>-58.79</v>
+        <v>-58.95</v>
       </c>
     </row>
     <row r="7">
@@ -5362,22 +5374,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-45.39</v>
+        <v>-45.98</v>
       </c>
       <c r="D7" t="n">
-        <v>-52.26</v>
+        <v>-52.79</v>
       </c>
       <c r="E7" t="n">
-        <v>-45.89</v>
+        <v>-46.55</v>
       </c>
       <c r="F7" t="n">
-        <v>-55.4</v>
+        <v>-55.65</v>
       </c>
       <c r="G7" t="n">
-        <v>-53.85</v>
+        <v>-54.48</v>
       </c>
       <c r="H7" t="n">
-        <v>-58.35</v>
+        <v>-59.52</v>
       </c>
     </row>
     <row r="8">
@@ -5390,22 +5402,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-44.92</v>
+        <v>-45.68</v>
       </c>
       <c r="D8" t="n">
-        <v>-52.02</v>
+        <v>-51.72</v>
       </c>
       <c r="E8" t="n">
-        <v>-43.71</v>
+        <v>-44.51</v>
       </c>
       <c r="F8" t="n">
-        <v>-55.06</v>
+        <v>-55.03</v>
       </c>
       <c r="G8" t="n">
-        <v>-57.91</v>
+        <v>-58.32</v>
       </c>
       <c r="H8" t="n">
-        <v>-58.04</v>
+        <v>-57.84</v>
       </c>
     </row>
     <row r="9">
@@ -5418,22 +5430,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-45.96</v>
+        <v>-46</v>
       </c>
       <c r="D9" t="n">
-        <v>-52.5</v>
+        <v>-52.46</v>
       </c>
       <c r="E9" t="n">
-        <v>-45.73</v>
+        <v>-45.53</v>
       </c>
       <c r="F9" t="n">
-        <v>-55.5</v>
+        <v>-55.58</v>
       </c>
       <c r="G9" t="n">
-        <v>-55.86</v>
+        <v>-56.44</v>
       </c>
       <c r="H9" t="n">
-        <v>-58.31</v>
+        <v>-58.47</v>
       </c>
     </row>
     <row r="10">
@@ -5446,22 +5458,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-46.39</v>
+        <v>-47.71</v>
       </c>
       <c r="D10" t="n">
-        <v>-54</v>
+        <v>-54.93</v>
       </c>
       <c r="E10" t="n">
-        <v>-46.26</v>
+        <v>-47.46</v>
       </c>
       <c r="F10" t="n">
-        <v>-56.63</v>
+        <v>-57.23</v>
       </c>
       <c r="G10" t="n">
-        <v>-55.53</v>
+        <v>-56.69</v>
       </c>
       <c r="H10" t="n">
-        <v>-60.53</v>
+        <v>-61.47</v>
       </c>
     </row>
     <row r="11">
@@ -5474,22 +5486,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-47.15</v>
+        <v>-46.84</v>
       </c>
       <c r="D11" t="n">
-        <v>-52.26</v>
+        <v>-51.89</v>
       </c>
       <c r="E11" t="n">
-        <v>-46.42</v>
+        <v>-46.16</v>
       </c>
       <c r="F11" t="n">
-        <v>-55.21</v>
+        <v>-54.92</v>
       </c>
       <c r="G11" t="n">
-        <v>-57.7</v>
+        <v>-57.26</v>
       </c>
       <c r="H11" t="n">
-        <v>-58.23</v>
+        <v>-57.93</v>
       </c>
     </row>
     <row r="12">
@@ -5502,22 +5514,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-45.55</v>
+        <v>-46.42</v>
       </c>
       <c r="D12" t="n">
-        <v>-52.63</v>
+        <v>-52.15</v>
       </c>
       <c r="E12" t="n">
-        <v>-44.61</v>
+        <v>-45.28</v>
       </c>
       <c r="F12" t="n">
-        <v>-55.6</v>
+        <v>-55.43</v>
       </c>
       <c r="G12" t="n">
-        <v>-56.05</v>
+        <v>-56.54</v>
       </c>
       <c r="H12" t="n">
-        <v>-58.58</v>
+        <v>-58.24</v>
       </c>
     </row>
     <row r="13">
@@ -5530,22 +5542,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-46.87</v>
+        <v>-46.57</v>
       </c>
       <c r="D13" t="n">
-        <v>-52.33</v>
+        <v>-51.62</v>
       </c>
       <c r="E13" t="n">
-        <v>-46.66</v>
+        <v>-46</v>
       </c>
       <c r="F13" t="n">
-        <v>-55.15</v>
+        <v>-54.92</v>
       </c>
       <c r="G13" t="n">
-        <v>-56.2</v>
+        <v>-56.3</v>
       </c>
       <c r="H13" t="n">
-        <v>-58.36</v>
+        <v>-57.77</v>
       </c>
     </row>
     <row r="14">
@@ -5558,22 +5570,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-45.52</v>
+        <v>-45.04</v>
       </c>
       <c r="D14" t="n">
-        <v>-55.04</v>
+        <v>-54.93</v>
       </c>
       <c r="E14" t="n">
-        <v>-44.89</v>
+        <v>-44.61</v>
       </c>
       <c r="F14" t="n">
-        <v>-57.47</v>
+        <v>-56.97</v>
       </c>
       <c r="G14" t="n">
-        <v>-55.76</v>
+        <v>-55.18</v>
       </c>
       <c r="H14" t="n">
-        <v>-61.04</v>
+        <v>-60.95</v>
       </c>
     </row>
     <row r="15">
@@ -5586,22 +5598,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-41.28</v>
+        <v>-41.87</v>
       </c>
       <c r="D15" t="n">
-        <v>-53.95</v>
+        <v>-54.3</v>
       </c>
       <c r="E15" t="n">
-        <v>-39.42</v>
+        <v>-39.86</v>
       </c>
       <c r="F15" t="n">
-        <v>-56.37</v>
+        <v>-56.6</v>
       </c>
       <c r="G15" t="n">
-        <v>-56.95</v>
+        <v>-56.91</v>
       </c>
       <c r="H15" t="n">
-        <v>-59.68</v>
+        <v>-60.14</v>
       </c>
     </row>
     <row r="16">
@@ -5614,22 +5626,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-41.25</v>
+        <v>-42.19</v>
       </c>
       <c r="D16" t="n">
-        <v>-56.81</v>
+        <v>-57.12</v>
       </c>
       <c r="E16" t="n">
-        <v>-40.1</v>
+        <v>-40.66</v>
       </c>
       <c r="F16" t="n">
-        <v>-58.24</v>
+        <v>-58.32</v>
       </c>
       <c r="G16" t="n">
-        <v>-54.35</v>
+        <v>-55.33</v>
       </c>
       <c r="H16" t="n">
-        <v>-62.58</v>
+        <v>-62.92</v>
       </c>
     </row>
     <row r="17">
@@ -5642,22 +5654,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-46.66</v>
+        <v>-47.93</v>
       </c>
       <c r="D17" t="n">
-        <v>-50.92</v>
+        <v>-51.54</v>
       </c>
       <c r="E17" t="n">
-        <v>-46.47</v>
+        <v>-48.21</v>
       </c>
       <c r="F17" t="n">
-        <v>-54.5</v>
+        <v>-55.24</v>
       </c>
       <c r="G17" t="n">
-        <v>-56.45</v>
+        <v>-56.75</v>
       </c>
       <c r="H17" t="n">
-        <v>-57.42</v>
+        <v>-57.5</v>
       </c>
     </row>
     <row r="18">
@@ -5670,22 +5682,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-46.11</v>
+        <v>-46.69</v>
       </c>
       <c r="D18" t="n">
-        <v>-52.2</v>
+        <v>-52.54</v>
       </c>
       <c r="E18" t="n">
-        <v>-45.68</v>
+        <v>-46.26</v>
       </c>
       <c r="F18" t="n">
-        <v>-56.17</v>
+        <v>-56.32</v>
       </c>
       <c r="G18" t="n">
-        <v>-55.9</v>
+        <v>-56.51</v>
       </c>
       <c r="H18" t="n">
-        <v>-58.78</v>
+        <v>-59.02</v>
       </c>
     </row>
     <row r="19">
@@ -5698,22 +5710,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-44.91</v>
+        <v>-45.34</v>
       </c>
       <c r="D19" t="n">
-        <v>-53.31</v>
+        <v>-53.72</v>
       </c>
       <c r="E19" t="n">
-        <v>-44.88</v>
+        <v>-45.18</v>
       </c>
       <c r="F19" t="n">
-        <v>-56.41</v>
+        <v>-56.66</v>
       </c>
       <c r="G19" t="n">
-        <v>-54.33</v>
+        <v>-55.04</v>
       </c>
       <c r="H19" t="n">
-        <v>-60.06</v>
+        <v>-60.05</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5738,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-46.25</v>
+        <v>-46.45</v>
       </c>
       <c r="D20" t="n">
-        <v>-52.59</v>
+        <v>-52.36</v>
       </c>
       <c r="E20" t="n">
-        <v>-45.33</v>
+        <v>-45.47</v>
       </c>
       <c r="F20" t="n">
-        <v>-55.34</v>
+        <v>-55.49</v>
       </c>
       <c r="G20" t="n">
-        <v>-57.55</v>
+        <v>-57.7</v>
       </c>
       <c r="H20" t="n">
-        <v>-59.04</v>
+        <v>-58.36</v>
       </c>
     </row>
     <row r="21">
@@ -5754,22 +5766,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-45.96</v>
+        <v>-46.53</v>
       </c>
       <c r="D21" t="n">
-        <v>-52.19</v>
+        <v>-52.16</v>
       </c>
       <c r="E21" t="n">
-        <v>-46.08</v>
+        <v>-45.99</v>
       </c>
       <c r="F21" t="n">
-        <v>-55.17</v>
+        <v>-55.09</v>
       </c>
       <c r="G21" t="n">
-        <v>-55.54</v>
+        <v>-56.32</v>
       </c>
       <c r="H21" t="n">
-        <v>-58.25</v>
+        <v>-58.37</v>
       </c>
     </row>
     <row r="22">
@@ -5782,22 +5794,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-44.35</v>
+        <v>-44.62</v>
       </c>
       <c r="D22" t="n">
-        <v>-52.82</v>
+        <v>-53.16</v>
       </c>
       <c r="E22" t="n">
-        <v>-42.98</v>
+        <v>-42.9</v>
       </c>
       <c r="F22" t="n">
-        <v>-56.08</v>
+        <v>-56.39</v>
       </c>
       <c r="G22" t="n">
-        <v>-56.25</v>
+        <v>-56.7</v>
       </c>
       <c r="H22" t="n">
-        <v>-58.89</v>
+        <v>-59.46</v>
       </c>
     </row>
   </sheetData>
@@ -5872,22 +5884,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-43.88</v>
+        <v>-43.71</v>
       </c>
       <c r="D2" t="n">
-        <v>-41.28</v>
+        <v>-40.67</v>
       </c>
       <c r="E2" t="n">
-        <v>-47.81</v>
+        <v>-47.49</v>
       </c>
       <c r="F2" t="n">
-        <v>-45.98</v>
+        <v>-45.21</v>
       </c>
       <c r="G2" t="n">
-        <v>-49.63</v>
+        <v>-49.53</v>
       </c>
       <c r="H2" t="n">
-        <v>-47.1</v>
+        <v>-46.29</v>
       </c>
     </row>
     <row r="3">
@@ -5900,22 +5912,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-44.05</v>
+        <v>-44.31</v>
       </c>
       <c r="D3" t="n">
-        <v>-43.14</v>
+        <v>-44.14</v>
       </c>
       <c r="E3" t="n">
-        <v>-48.5</v>
+        <v>-48.45</v>
       </c>
       <c r="F3" t="n">
-        <v>-47.09</v>
+        <v>-48.25</v>
       </c>
       <c r="G3" t="n">
-        <v>-50.24</v>
+        <v>-50.74</v>
       </c>
       <c r="H3" t="n">
-        <v>-49.66</v>
+        <v>-50.83</v>
       </c>
     </row>
     <row r="4">
@@ -5928,22 +5940,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-43.43</v>
+        <v>-44.08</v>
       </c>
       <c r="D4" t="n">
-        <v>-44.96</v>
+        <v>-45.34</v>
       </c>
       <c r="E4" t="n">
-        <v>-47.41</v>
+        <v>-48.07</v>
       </c>
       <c r="F4" t="n">
-        <v>-48.87</v>
+        <v>-49.2</v>
       </c>
       <c r="G4" t="n">
-        <v>-49.42</v>
+        <v>-50.37</v>
       </c>
       <c r="H4" t="n">
-        <v>-51.35</v>
+        <v>-51.72</v>
       </c>
     </row>
     <row r="5">
@@ -5956,22 +5968,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-44.65</v>
+        <v>-44.87</v>
       </c>
       <c r="D5" t="n">
-        <v>-44.06</v>
+        <v>-44.42</v>
       </c>
       <c r="E5" t="n">
-        <v>-48.29</v>
+        <v>-48.62</v>
       </c>
       <c r="F5" t="n">
-        <v>-48.93</v>
+        <v>-49.41</v>
       </c>
       <c r="G5" t="n">
-        <v>-50.46</v>
+        <v>-50.44</v>
       </c>
       <c r="H5" t="n">
-        <v>-50.7</v>
+        <v>-50.89</v>
       </c>
     </row>
     <row r="6">
@@ -5984,22 +5996,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-42.4</v>
+        <v>-42.67</v>
       </c>
       <c r="D6" t="n">
-        <v>-43.93</v>
+        <v>-45.13</v>
       </c>
       <c r="E6" t="n">
-        <v>-46.56</v>
+        <v>-46.98</v>
       </c>
       <c r="F6" t="n">
-        <v>-47.69</v>
+        <v>-48.5</v>
       </c>
       <c r="G6" t="n">
-        <v>-47.96</v>
+        <v>-48.22</v>
       </c>
       <c r="H6" t="n">
-        <v>-50.7</v>
+        <v>-51.89</v>
       </c>
     </row>
     <row r="7">
@@ -6012,22 +6024,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-40.15</v>
+        <v>-40.5</v>
       </c>
       <c r="D7" t="n">
+        <v>-44.47</v>
+      </c>
+      <c r="E7" t="n">
         <v>-43.74</v>
       </c>
-      <c r="E7" t="n">
-        <v>-43.3</v>
-      </c>
       <c r="F7" t="n">
-        <v>-46.32</v>
+        <v>-46.89</v>
       </c>
       <c r="G7" t="n">
-        <v>-45.98</v>
+        <v>-46.52</v>
       </c>
       <c r="H7" t="n">
-        <v>-49.89</v>
+        <v>-50.57</v>
       </c>
     </row>
     <row r="8">
@@ -6040,22 +6052,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-41.65</v>
+        <v>-42.1</v>
       </c>
       <c r="D8" t="n">
-        <v>-40.7</v>
+        <v>-41.76</v>
       </c>
       <c r="E8" t="n">
-        <v>-45.49</v>
+        <v>-46.09</v>
       </c>
       <c r="F8" t="n">
-        <v>-44.14</v>
+        <v>-45.21</v>
       </c>
       <c r="G8" t="n">
-        <v>-47.09</v>
+        <v>-47.56</v>
       </c>
       <c r="H8" t="n">
-        <v>-47.15</v>
+        <v>-48.08</v>
       </c>
     </row>
     <row r="9">
@@ -6068,22 +6080,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-43.71</v>
+        <v>-44.11</v>
       </c>
       <c r="D9" t="n">
-        <v>-43.38</v>
+        <v>-43.77</v>
       </c>
       <c r="E9" t="n">
-        <v>-47.69</v>
+        <v>-48.19</v>
       </c>
       <c r="F9" t="n">
-        <v>-47.73</v>
+        <v>-48.49</v>
       </c>
       <c r="G9" t="n">
-        <v>-50.28</v>
+        <v>-50.8</v>
       </c>
       <c r="H9" t="n">
-        <v>-49.68</v>
+        <v>-50.26</v>
       </c>
     </row>
     <row r="10">
@@ -6096,22 +6108,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-42.83</v>
+        <v>-42.89</v>
       </c>
       <c r="D10" t="n">
-        <v>-46.44</v>
+        <v>-47.08</v>
       </c>
       <c r="E10" t="n">
-        <v>-46.96</v>
+        <v>-46.98</v>
       </c>
       <c r="F10" t="n">
-        <v>-49.33</v>
+        <v>-49.66</v>
       </c>
       <c r="G10" t="n">
-        <v>-49.09</v>
+        <v>-49.37</v>
       </c>
       <c r="H10" t="n">
-        <v>-52.53</v>
+        <v>-53.2</v>
       </c>
     </row>
     <row r="11">
@@ -6124,22 +6136,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-39.6</v>
+        <v>-39.77</v>
       </c>
       <c r="D11" t="n">
-        <v>-43.93</v>
+        <v>-44.19</v>
       </c>
       <c r="E11" t="n">
-        <v>-45.07</v>
+        <v>-45.11</v>
       </c>
       <c r="F11" t="n">
-        <v>-47.78</v>
+        <v>-48.11</v>
       </c>
       <c r="G11" t="n">
-        <v>-44.63</v>
+        <v>-44.57</v>
       </c>
       <c r="H11" t="n">
-        <v>-50.57</v>
+        <v>-50.9</v>
       </c>
     </row>
     <row r="12">
@@ -6152,22 +6164,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-40.59</v>
+        <v>-40.32</v>
       </c>
       <c r="D12" t="n">
-        <v>-43.61</v>
+        <v>-43.97</v>
       </c>
       <c r="E12" t="n">
-        <v>-45.78</v>
+        <v>-45.36</v>
       </c>
       <c r="F12" t="n">
-        <v>-49.96</v>
+        <v>-50.37</v>
       </c>
       <c r="G12" t="n">
-        <v>-45.76</v>
+        <v>-45.26</v>
       </c>
       <c r="H12" t="n">
-        <v>-48.91</v>
+        <v>-49.58</v>
       </c>
     </row>
     <row r="13">
@@ -6180,22 +6192,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-42.23</v>
+        <v>-41.85</v>
       </c>
       <c r="D13" t="n">
-        <v>-41.85</v>
+        <v>-41.31</v>
       </c>
       <c r="E13" t="n">
-        <v>-46.83</v>
+        <v>-46.38</v>
       </c>
       <c r="F13" t="n">
-        <v>-47.89</v>
+        <v>-47.36</v>
       </c>
       <c r="G13" t="n">
-        <v>-48.07</v>
+        <v>-47.26</v>
       </c>
       <c r="H13" t="n">
-        <v>-48.12</v>
+        <v>-47.72</v>
       </c>
     </row>
     <row r="14">
@@ -6208,22 +6220,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-39.01</v>
+        <v>-38.75</v>
       </c>
       <c r="D14" t="n">
-        <v>-37.17</v>
+        <v>-37.98</v>
       </c>
       <c r="E14" t="n">
-        <v>-42.99</v>
+        <v>-42.66</v>
       </c>
       <c r="F14" t="n">
-        <v>-41.02</v>
+        <v>-41.15</v>
       </c>
       <c r="G14" t="n">
-        <v>-44.55</v>
+        <v>-44.16</v>
       </c>
       <c r="H14" t="n">
-        <v>-43.44</v>
+        <v>-44.64</v>
       </c>
     </row>
     <row r="15">
@@ -6236,22 +6248,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-39.56</v>
+        <v>-39.19</v>
       </c>
       <c r="D15" t="n">
-        <v>-35.66</v>
+        <v>-36.3</v>
       </c>
       <c r="E15" t="n">
-        <v>-42.11</v>
+        <v>-41.98</v>
       </c>
       <c r="F15" t="n">
-        <v>-38.66</v>
+        <v>-39.25</v>
       </c>
       <c r="G15" t="n">
-        <v>-45.31</v>
+        <v>-44.49</v>
       </c>
       <c r="H15" t="n">
-        <v>-42</v>
+        <v>-42.91</v>
       </c>
     </row>
     <row r="16">
@@ -6264,22 +6276,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-37.14</v>
+        <v>-36.9</v>
       </c>
       <c r="D16" t="n">
-        <v>-40.59</v>
+        <v>-40.22</v>
       </c>
       <c r="E16" t="n">
-        <v>-39.62</v>
+        <v>-39.5</v>
       </c>
       <c r="F16" t="n">
-        <v>-42.97</v>
+        <v>-42.37</v>
       </c>
       <c r="G16" t="n">
-        <v>-43.33</v>
+        <v>-42.53</v>
       </c>
       <c r="H16" t="n">
-        <v>-48.41</v>
+        <v>-48.21</v>
       </c>
     </row>
     <row r="17">
@@ -6292,22 +6304,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-44.72</v>
+        <v>-44.74</v>
       </c>
       <c r="D17" t="n">
-        <v>-42.06</v>
+        <v>-42.34</v>
       </c>
       <c r="E17" t="n">
-        <v>-49.3</v>
+        <v>-49</v>
       </c>
       <c r="F17" t="n">
-        <v>-46.16</v>
+        <v>-46.63</v>
       </c>
       <c r="G17" t="n">
-        <v>-50.33</v>
+        <v>-50.19</v>
       </c>
       <c r="H17" t="n">
-        <v>-47.97</v>
+        <v>-48.07</v>
       </c>
     </row>
     <row r="18">
@@ -6320,22 +6332,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-41.36</v>
+        <v>-41.86</v>
       </c>
       <c r="D18" t="n">
-        <v>-43.46</v>
+        <v>-44.79</v>
       </c>
       <c r="E18" t="n">
-        <v>-45.89</v>
+        <v>-46.53</v>
       </c>
       <c r="F18" t="n">
-        <v>-47.04</v>
+        <v>-48.54</v>
       </c>
       <c r="G18" t="n">
-        <v>-46.74</v>
+        <v>-47.08</v>
       </c>
       <c r="H18" t="n">
-        <v>-49.89</v>
+        <v>-50.83</v>
       </c>
     </row>
     <row r="19">
@@ -6348,22 +6360,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-40.84</v>
+        <v>-41.84</v>
       </c>
       <c r="D19" t="n">
-        <v>-42.06</v>
+        <v>-42.41</v>
       </c>
       <c r="E19" t="n">
-        <v>-43.78</v>
+        <v>-44.79</v>
       </c>
       <c r="F19" t="n">
-        <v>-43.61</v>
+        <v>-43.9</v>
       </c>
       <c r="G19" t="n">
-        <v>-46.99</v>
+        <v>-47.8</v>
       </c>
       <c r="H19" t="n">
-        <v>-48.59</v>
+        <v>-49.22</v>
       </c>
     </row>
     <row r="20">
@@ -6376,22 +6388,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-40.01</v>
+        <v>-40.49</v>
       </c>
       <c r="D20" t="n">
-        <v>-45.13</v>
+        <v>-45.38</v>
       </c>
       <c r="E20" t="n">
-        <v>-45</v>
+        <v>-45.3</v>
       </c>
       <c r="F20" t="n">
-        <v>-48.4</v>
+        <v>-48.52</v>
       </c>
       <c r="G20" t="n">
-        <v>-45.06</v>
+        <v>-45.54</v>
       </c>
       <c r="H20" t="n">
-        <v>-51.98</v>
+        <v>-52.47</v>
       </c>
     </row>
     <row r="21">
@@ -6404,22 +6416,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-42.1</v>
+        <v>-41.67</v>
       </c>
       <c r="D21" t="n">
-        <v>-41.67</v>
+        <v>-41.25</v>
       </c>
       <c r="E21" t="n">
-        <v>-46.63</v>
+        <v>-46</v>
       </c>
       <c r="F21" t="n">
-        <v>-47.42</v>
+        <v>-46.68</v>
       </c>
       <c r="G21" t="n">
-        <v>-47.37</v>
+        <v>-47.22</v>
       </c>
       <c r="H21" t="n">
-        <v>-47.67</v>
+        <v>-47.23</v>
       </c>
     </row>
     <row r="22">
@@ -6432,22 +6444,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-38.5</v>
+        <v>-38.8</v>
       </c>
       <c r="D22" t="n">
-        <v>-41.43</v>
+        <v>-41.53</v>
       </c>
       <c r="E22" t="n">
-        <v>-43.14</v>
+        <v>-43.04</v>
       </c>
       <c r="F22" t="n">
-        <v>-45.81</v>
+        <v>-45.92</v>
       </c>
       <c r="G22" t="n">
-        <v>-43.69</v>
+        <v>-44.19</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.8</v>
+        <v>-46.75</v>
       </c>
     </row>
   </sheetData>
@@ -6522,22 +6534,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-45.09</v>
+        <v>-45.54</v>
       </c>
       <c r="D2" t="n">
-        <v>-50.7</v>
+        <v>-51.06</v>
       </c>
       <c r="E2" t="n">
-        <v>-45</v>
+        <v>-45.52</v>
       </c>
       <c r="F2" t="n">
-        <v>-54.51</v>
+        <v>-54.91</v>
       </c>
       <c r="G2" t="n">
-        <v>-55.12</v>
+        <v>-55.33</v>
       </c>
       <c r="H2" t="n">
-        <v>-56.76</v>
+        <v>-57.28</v>
       </c>
     </row>
     <row r="3">
@@ -6550,22 +6562,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-45.52</v>
+        <v>-45.63</v>
       </c>
       <c r="D3" t="n">
-        <v>-50.46</v>
+        <v>-50.72</v>
       </c>
       <c r="E3" t="n">
-        <v>-45.08</v>
+        <v>-45.48</v>
       </c>
       <c r="F3" t="n">
-        <v>-54.48</v>
+        <v>-54.6</v>
       </c>
       <c r="G3" t="n">
-        <v>-55.62</v>
+        <v>-55.69</v>
       </c>
       <c r="H3" t="n">
-        <v>-56.76</v>
+        <v>-57.27</v>
       </c>
     </row>
     <row r="4">
@@ -6578,22 +6590,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-45.93</v>
+        <v>-47.01</v>
       </c>
       <c r="D4" t="n">
-        <v>-51.08</v>
+        <v>-51.45</v>
       </c>
       <c r="E4" t="n">
-        <v>-46.11</v>
+        <v>-47.42</v>
       </c>
       <c r="F4" t="n">
-        <v>-55.05</v>
+        <v>-55.35</v>
       </c>
       <c r="G4" t="n">
-        <v>-55.26</v>
+        <v>-55.77</v>
       </c>
       <c r="H4" t="n">
-        <v>-57.24</v>
+        <v>-57.39</v>
       </c>
     </row>
     <row r="5">
@@ -6606,22 +6618,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-46.38</v>
+        <v>-45.61</v>
       </c>
       <c r="D5" t="n">
-        <v>-50.59</v>
+        <v>-51.17</v>
       </c>
       <c r="E5" t="n">
-        <v>-46.5</v>
+        <v>-44.7</v>
       </c>
       <c r="F5" t="n">
-        <v>-54.63</v>
+        <v>-54.93</v>
       </c>
       <c r="G5" t="n">
-        <v>-56.28</v>
+        <v>-56.52</v>
       </c>
       <c r="H5" t="n">
-        <v>-56.8</v>
+        <v>-57.61</v>
       </c>
     </row>
     <row r="6">
@@ -6634,22 +6646,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-45.84</v>
+        <v>-45.8</v>
       </c>
       <c r="D6" t="n">
-        <v>-52.1</v>
+        <v>-51.94</v>
       </c>
       <c r="E6" t="n">
-        <v>-45.6</v>
+        <v>-45.78</v>
       </c>
       <c r="F6" t="n">
-        <v>-56.1</v>
+        <v>-55.71</v>
       </c>
       <c r="G6" t="n">
-        <v>-56.14</v>
+        <v>-55.64</v>
       </c>
       <c r="H6" t="n">
-        <v>-59.08</v>
+        <v>-58.38</v>
       </c>
     </row>
     <row r="7">
@@ -6665,19 +6677,19 @@
         <v>-45.57</v>
       </c>
       <c r="D7" t="n">
-        <v>-52</v>
+        <v>-52.39</v>
       </c>
       <c r="E7" t="n">
-        <v>-45.34</v>
+        <v>-45.52</v>
       </c>
       <c r="F7" t="n">
-        <v>-55.5</v>
+        <v>-55.47</v>
       </c>
       <c r="G7" t="n">
-        <v>-54.35</v>
+        <v>-54.59</v>
       </c>
       <c r="H7" t="n">
-        <v>-58.45</v>
+        <v>-58.74</v>
       </c>
     </row>
     <row r="8">
@@ -6690,22 +6702,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-45.01</v>
+        <v>-45.53</v>
       </c>
       <c r="D8" t="n">
-        <v>-52.15</v>
+        <v>-51.59</v>
       </c>
       <c r="E8" t="n">
-        <v>-44.12</v>
+        <v>-44.64</v>
       </c>
       <c r="F8" t="n">
-        <v>-54.89</v>
+        <v>-54.69</v>
       </c>
       <c r="G8" t="n">
-        <v>-57.28</v>
+        <v>-57.5</v>
       </c>
       <c r="H8" t="n">
-        <v>-57.92</v>
+        <v>-57.61</v>
       </c>
     </row>
     <row r="9">
@@ -6718,22 +6730,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-46.89</v>
+        <v>-46.59</v>
       </c>
       <c r="D9" t="n">
-        <v>-53.62</v>
+        <v>-52.98</v>
       </c>
       <c r="E9" t="n">
-        <v>-47.05</v>
+        <v>-46.59</v>
       </c>
       <c r="F9" t="n">
-        <v>-56.29</v>
+        <v>-56.19</v>
       </c>
       <c r="G9" t="n">
-        <v>-56.24</v>
+        <v>-56.28</v>
       </c>
       <c r="H9" t="n">
-        <v>-59.39</v>
+        <v>-59.06</v>
       </c>
     </row>
     <row r="10">
@@ -6746,22 +6758,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-44.84</v>
+        <v>-45.36</v>
       </c>
       <c r="D10" t="n">
-        <v>-53.9</v>
+        <v>-54.57</v>
       </c>
       <c r="E10" t="n">
-        <v>-44.5</v>
+        <v>-45.11</v>
       </c>
       <c r="F10" t="n">
-        <v>-56.34</v>
+        <v>-56.89</v>
       </c>
       <c r="G10" t="n">
-        <v>-55.26</v>
+        <v>-55.45</v>
       </c>
       <c r="H10" t="n">
-        <v>-60.91</v>
+        <v>-61.02</v>
       </c>
     </row>
     <row r="11">
@@ -6774,22 +6786,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-45.68</v>
+        <v>-45.89</v>
       </c>
       <c r="D11" t="n">
-        <v>-52.51</v>
+        <v>-51.96</v>
       </c>
       <c r="E11" t="n">
-        <v>-44.8</v>
+        <v>-45.26</v>
       </c>
       <c r="F11" t="n">
-        <v>-55.16</v>
+        <v>-55.22</v>
       </c>
       <c r="G11" t="n">
-        <v>-57.49</v>
+        <v>-57.32</v>
       </c>
       <c r="H11" t="n">
-        <v>-58.76</v>
+        <v>-58.18</v>
       </c>
     </row>
     <row r="12">
@@ -6802,22 +6814,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-46.87</v>
+        <v>-45.4</v>
       </c>
       <c r="D12" t="n">
-        <v>-52.42</v>
+        <v>-51.86</v>
       </c>
       <c r="E12" t="n">
-        <v>-46.07</v>
+        <v>-44.79</v>
       </c>
       <c r="F12" t="n">
-        <v>-55.53</v>
+        <v>-55.24</v>
       </c>
       <c r="G12" t="n">
-        <v>-56.33</v>
+        <v>-55.99</v>
       </c>
       <c r="H12" t="n">
-        <v>-58.32</v>
+        <v>-57.72</v>
       </c>
     </row>
     <row r="13">
@@ -6830,22 +6842,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-46.59</v>
+        <v>-47.15</v>
       </c>
       <c r="D13" t="n">
-        <v>-52.35</v>
+        <v>-52.07</v>
       </c>
       <c r="E13" t="n">
-        <v>-46.44</v>
+        <v>-47.37</v>
       </c>
       <c r="F13" t="n">
-        <v>-55.34</v>
+        <v>-55.31</v>
       </c>
       <c r="G13" t="n">
-        <v>-56.05</v>
+        <v>-56.41</v>
       </c>
       <c r="H13" t="n">
-        <v>-58.11</v>
+        <v>-58.15</v>
       </c>
     </row>
     <row r="14">
@@ -6858,22 +6870,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-43.73</v>
+        <v>-44.36</v>
       </c>
       <c r="D14" t="n">
-        <v>-54.96</v>
+        <v>-55.21</v>
       </c>
       <c r="E14" t="n">
-        <v>-43.03</v>
+        <v>-43.65</v>
       </c>
       <c r="F14" t="n">
-        <v>-56.95</v>
+        <v>-57.28</v>
       </c>
       <c r="G14" t="n">
-        <v>-54.76</v>
+        <v>-55.3</v>
       </c>
       <c r="H14" t="n">
-        <v>-61.28</v>
+        <v>-61.17</v>
       </c>
     </row>
     <row r="15">
@@ -6886,22 +6898,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-40.74</v>
+        <v>-40.75</v>
       </c>
       <c r="D15" t="n">
-        <v>-53.88</v>
+        <v>-54.19</v>
       </c>
       <c r="E15" t="n">
-        <v>-38.96</v>
+        <v>-39.03</v>
       </c>
       <c r="F15" t="n">
-        <v>-56.05</v>
+        <v>-56.53</v>
       </c>
       <c r="G15" t="n">
-        <v>-55.84</v>
+        <v>-56.22</v>
       </c>
       <c r="H15" t="n">
-        <v>-59.73</v>
+        <v>-59.87</v>
       </c>
     </row>
     <row r="16">
@@ -6914,22 +6926,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-41.46</v>
+        <v>-41.52</v>
       </c>
       <c r="D16" t="n">
-        <v>-56.96</v>
+        <v>-56.84</v>
       </c>
       <c r="E16" t="n">
-        <v>-40.31</v>
+        <v>-40.41</v>
       </c>
       <c r="F16" t="n">
-        <v>-57.97</v>
+        <v>-57.95</v>
       </c>
       <c r="G16" t="n">
-        <v>-53.62</v>
+        <v>-54.21</v>
       </c>
       <c r="H16" t="n">
-        <v>-62.81</v>
+        <v>-61.77</v>
       </c>
     </row>
     <row r="17">
@@ -6942,22 +6954,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-46.52</v>
+        <v>-47.36</v>
       </c>
       <c r="D17" t="n">
-        <v>-50.69</v>
+        <v>-51.25</v>
       </c>
       <c r="E17" t="n">
-        <v>-46.51</v>
+        <v>-47.69</v>
       </c>
       <c r="F17" t="n">
-        <v>-54.52</v>
+        <v>-54.87</v>
       </c>
       <c r="G17" t="n">
-        <v>-56.51</v>
+        <v>-56.93</v>
       </c>
       <c r="H17" t="n">
-        <v>-57.05</v>
+        <v>-57.66</v>
       </c>
     </row>
     <row r="18">
@@ -6970,22 +6982,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-45.64</v>
+        <v>-46.02</v>
       </c>
       <c r="D18" t="n">
-        <v>-51.77</v>
+        <v>-51.94</v>
       </c>
       <c r="E18" t="n">
-        <v>-45.42</v>
+        <v>-46.3</v>
       </c>
       <c r="F18" t="n">
-        <v>-56.21</v>
+        <v>-55.71</v>
       </c>
       <c r="G18" t="n">
-        <v>-55.73</v>
+        <v>-55.1</v>
       </c>
       <c r="H18" t="n">
-        <v>-58.44</v>
+        <v>-58.25</v>
       </c>
     </row>
     <row r="19">
@@ -6998,22 +7010,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-42.94</v>
+        <v>-43.93</v>
       </c>
       <c r="D19" t="n">
-        <v>-52.62</v>
+        <v>-53.38</v>
       </c>
       <c r="E19" t="n">
-        <v>-42.49</v>
+        <v>-43.32</v>
       </c>
       <c r="F19" t="n">
-        <v>-56.19</v>
+        <v>-57.03</v>
       </c>
       <c r="G19" t="n">
-        <v>-54.81</v>
+        <v>-55.23</v>
       </c>
       <c r="H19" t="n">
-        <v>-59.08</v>
+        <v>-59.83</v>
       </c>
     </row>
     <row r="20">
@@ -7026,22 +7038,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-45.22</v>
+        <v>-46.09</v>
       </c>
       <c r="D20" t="n">
-        <v>-53.01</v>
+        <v>-52.16</v>
       </c>
       <c r="E20" t="n">
-        <v>-44.51</v>
+        <v>-45.57</v>
       </c>
       <c r="F20" t="n">
-        <v>-55.85</v>
+        <v>-55.12</v>
       </c>
       <c r="G20" t="n">
-        <v>-57.66</v>
+        <v>-57.28</v>
       </c>
       <c r="H20" t="n">
-        <v>-59.05</v>
+        <v>-58.23</v>
       </c>
     </row>
     <row r="21">
@@ -7054,22 +7066,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-46.71</v>
+        <v>-47.01</v>
       </c>
       <c r="D21" t="n">
-        <v>-52.39</v>
+        <v>-51.98</v>
       </c>
       <c r="E21" t="n">
-        <v>-46.31</v>
+        <v>-46.84</v>
       </c>
       <c r="F21" t="n">
-        <v>-55.09</v>
+        <v>-55.24</v>
       </c>
       <c r="G21" t="n">
-        <v>-57.02</v>
+        <v>-56.88</v>
       </c>
       <c r="H21" t="n">
-        <v>-58.33</v>
+        <v>-58.34</v>
       </c>
     </row>
     <row r="22">
@@ -7082,22 +7094,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-43.5</v>
+        <v>-43.54</v>
       </c>
       <c r="D22" t="n">
-        <v>-52.69</v>
+        <v>-53.01</v>
       </c>
       <c r="E22" t="n">
-        <v>-42.56</v>
+        <v>-42.28</v>
       </c>
       <c r="F22" t="n">
-        <v>-56.13</v>
+        <v>-56.12</v>
       </c>
       <c r="G22" t="n">
-        <v>-55.58</v>
+        <v>-55.63</v>
       </c>
       <c r="H22" t="n">
-        <v>-58.96</v>
+        <v>-59.3</v>
       </c>
     </row>
   </sheetData>
@@ -7172,22 +7184,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-43.41</v>
+        <v>-43.12</v>
       </c>
       <c r="D2" t="n">
-        <v>-41.66</v>
+        <v>-41.28</v>
       </c>
       <c r="E2" t="n">
-        <v>-47.57</v>
+        <v>-47.13</v>
       </c>
       <c r="F2" t="n">
-        <v>-46.16</v>
+        <v>-45.59</v>
       </c>
       <c r="G2" t="n">
-        <v>-48.94</v>
+        <v>-48.79</v>
       </c>
       <c r="H2" t="n">
-        <v>-47.55</v>
+        <v>-47.23</v>
       </c>
     </row>
     <row r="3">
@@ -7200,22 +7212,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-43.7</v>
+        <v>-43.73</v>
       </c>
       <c r="D3" t="n">
-        <v>-43.07</v>
+        <v>-43.74</v>
       </c>
       <c r="E3" t="n">
-        <v>-47.86</v>
+        <v>-48.43</v>
       </c>
       <c r="F3" t="n">
-        <v>-46.85</v>
+        <v>-47.79</v>
       </c>
       <c r="G3" t="n">
-        <v>-49.66</v>
+        <v>-49.64</v>
       </c>
       <c r="H3" t="n">
-        <v>-49.88</v>
+        <v>-50.35</v>
       </c>
     </row>
     <row r="4">
@@ -7228,22 +7240,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-42.88</v>
+        <v>-42.72</v>
       </c>
       <c r="D4" t="n">
-        <v>-44.1</v>
+        <v>-44.66</v>
       </c>
       <c r="E4" t="n">
-        <v>-46.71</v>
+        <v>-47</v>
       </c>
       <c r="F4" t="n">
-        <v>-48</v>
+        <v>-48.91</v>
       </c>
       <c r="G4" t="n">
-        <v>-48.98</v>
+        <v>-48.81</v>
       </c>
       <c r="H4" t="n">
-        <v>-50.45</v>
+        <v>-50.79</v>
       </c>
     </row>
     <row r="5">
@@ -7256,22 +7268,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-44.11</v>
+        <v>-44.18</v>
       </c>
       <c r="D5" t="n">
-        <v>-43.31</v>
+        <v>-43.56</v>
       </c>
       <c r="E5" t="n">
-        <v>-47.64</v>
+        <v>-47.7</v>
       </c>
       <c r="F5" t="n">
-        <v>-47.66</v>
+        <v>-48.21</v>
       </c>
       <c r="G5" t="n">
-        <v>-49.89</v>
+        <v>-49.86</v>
       </c>
       <c r="H5" t="n">
-        <v>-49.88</v>
+        <v>-50.04</v>
       </c>
     </row>
     <row r="6">
@@ -7284,22 +7296,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-41.16</v>
+        <v>-42.21</v>
       </c>
       <c r="D6" t="n">
-        <v>-42.8</v>
+        <v>-44.18</v>
       </c>
       <c r="E6" t="n">
-        <v>-45.08</v>
+        <v>-46.02</v>
       </c>
       <c r="F6" t="n">
-        <v>-46.19</v>
+        <v>-47.27</v>
       </c>
       <c r="G6" t="n">
-        <v>-46.55</v>
+        <v>-47.89</v>
       </c>
       <c r="H6" t="n">
-        <v>-49.53</v>
+        <v>-51.14</v>
       </c>
     </row>
     <row r="7">
@@ -7312,22 +7324,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-40.03</v>
+        <v>-40.43</v>
       </c>
       <c r="D7" t="n">
-        <v>-43.61</v>
+        <v>-43.74</v>
       </c>
       <c r="E7" t="n">
-        <v>-43.3</v>
+        <v>-43.53</v>
       </c>
       <c r="F7" t="n">
-        <v>-46.21</v>
+        <v>-46.45</v>
       </c>
       <c r="G7" t="n">
-        <v>-45.71</v>
+        <v>-46.19</v>
       </c>
       <c r="H7" t="n">
-        <v>-49.82</v>
+        <v>-49.61</v>
       </c>
     </row>
     <row r="8">
@@ -7340,22 +7352,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-41.28</v>
+        <v>-41.51</v>
       </c>
       <c r="D8" t="n">
-        <v>-42.29</v>
+        <v>-41.75</v>
       </c>
       <c r="E8" t="n">
-        <v>-45.04</v>
+        <v>-45.07</v>
       </c>
       <c r="F8" t="n">
-        <v>-45.7</v>
+        <v>-45.05</v>
       </c>
       <c r="G8" t="n">
-        <v>-46.66</v>
+        <v>-46.97</v>
       </c>
       <c r="H8" t="n">
-        <v>-48.86</v>
+        <v>-48.77</v>
       </c>
     </row>
     <row r="9">
@@ -7368,22 +7380,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-42.18</v>
+        <v>-43.29</v>
       </c>
       <c r="D9" t="n">
-        <v>-44.17</v>
+        <v>-43.38</v>
       </c>
       <c r="E9" t="n">
-        <v>-46.31</v>
+        <v>-47.41</v>
       </c>
       <c r="F9" t="n">
-        <v>-48.55</v>
+        <v>-48.2</v>
       </c>
       <c r="G9" t="n">
-        <v>-47.73</v>
+        <v>-49.19</v>
       </c>
       <c r="H9" t="n">
-        <v>-50.85</v>
+        <v>-49.72</v>
       </c>
     </row>
     <row r="10">
@@ -7396,22 +7408,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-41.55</v>
+        <v>-42.27</v>
       </c>
       <c r="D10" t="n">
-        <v>-45.67</v>
+        <v>-46.73</v>
       </c>
       <c r="E10" t="n">
-        <v>-45.17</v>
+        <v>-46.31</v>
       </c>
       <c r="F10" t="n">
-        <v>-48.01</v>
+        <v>-49.3</v>
       </c>
       <c r="G10" t="n">
-        <v>-47.88</v>
+        <v>-48.33</v>
       </c>
       <c r="H10" t="n">
-        <v>-52.25</v>
+        <v>-52.94</v>
       </c>
     </row>
     <row r="11">
@@ -7424,22 +7436,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-40.09</v>
+        <v>-40.19</v>
       </c>
       <c r="D11" t="n">
-        <v>-45.25</v>
+        <v>-45.44</v>
       </c>
       <c r="E11" t="n">
-        <v>-45.04</v>
+        <v>-45.2</v>
       </c>
       <c r="F11" t="n">
-        <v>-48.37</v>
+        <v>-48.52</v>
       </c>
       <c r="G11" t="n">
-        <v>-44.96</v>
+        <v>-45.03</v>
       </c>
       <c r="H11" t="n">
-        <v>-52.44</v>
+        <v>-52.65</v>
       </c>
     </row>
     <row r="12">
@@ -7452,22 +7464,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-40.21</v>
+        <v>-40.56</v>
       </c>
       <c r="D12" t="n">
-        <v>-44.13</v>
+        <v>-43.76</v>
       </c>
       <c r="E12" t="n">
-        <v>-44.96</v>
+        <v>-45.25</v>
       </c>
       <c r="F12" t="n">
-        <v>-49.28</v>
+        <v>-49.39</v>
       </c>
       <c r="G12" t="n">
-        <v>-45.2</v>
+        <v>-45.6</v>
       </c>
       <c r="H12" t="n">
-        <v>-49.75</v>
+        <v>-49.24</v>
       </c>
     </row>
     <row r="13">
@@ -7480,22 +7492,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-41.96</v>
+        <v>-41.75</v>
       </c>
       <c r="D13" t="n">
-        <v>-41.4</v>
+        <v>-40.85</v>
       </c>
       <c r="E13" t="n">
-        <v>-46.37</v>
+        <v>-46.22</v>
       </c>
       <c r="F13" t="n">
-        <v>-46.84</v>
+        <v>-45.91</v>
       </c>
       <c r="G13" t="n">
-        <v>-47.38</v>
+        <v>-47.2</v>
       </c>
       <c r="H13" t="n">
-        <v>-47.39</v>
+        <v>-46.87</v>
       </c>
     </row>
     <row r="14">
@@ -7508,22 +7520,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-39.24</v>
+        <v>-38.57</v>
       </c>
       <c r="D14" t="n">
-        <v>-37.1</v>
+        <v>-37.76</v>
       </c>
       <c r="E14" t="n">
-        <v>-43.21</v>
+        <v>-42.41</v>
       </c>
       <c r="F14" t="n">
-        <v>-40.77</v>
+        <v>-41.07</v>
       </c>
       <c r="G14" t="n">
-        <v>-44.54</v>
+        <v>-44.11</v>
       </c>
       <c r="H14" t="n">
-        <v>-43.55</v>
+        <v>-44.4</v>
       </c>
     </row>
     <row r="15">
@@ -7536,22 +7548,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-39.52</v>
+        <v>-39.14</v>
       </c>
       <c r="D15" t="n">
-        <v>-35.84</v>
+        <v>-35.83</v>
       </c>
       <c r="E15" t="n">
-        <v>-42.15</v>
+        <v>-42.07</v>
       </c>
       <c r="F15" t="n">
         <v>-39.04</v>
       </c>
       <c r="G15" t="n">
-        <v>-45.29</v>
+        <v>-44.63</v>
       </c>
       <c r="H15" t="n">
-        <v>-42.24</v>
+        <v>-42.14</v>
       </c>
     </row>
     <row r="16">
@@ -7564,22 +7576,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-36.57</v>
+        <v>-36.74</v>
       </c>
       <c r="D16" t="n">
-        <v>-39.74</v>
+        <v>-39.71</v>
       </c>
       <c r="E16" t="n">
-        <v>-39.06</v>
+        <v>-39.35</v>
       </c>
       <c r="F16" t="n">
-        <v>-41.95</v>
+        <v>-42.2</v>
       </c>
       <c r="G16" t="n">
-        <v>-42.62</v>
+        <v>-42.52</v>
       </c>
       <c r="H16" t="n">
-        <v>-47.23</v>
+        <v>-47.1</v>
       </c>
     </row>
     <row r="17">
@@ -7592,22 +7604,22 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>-44.05</v>
+      </c>
+      <c r="D17" t="n">
         <v>-43.73</v>
       </c>
-      <c r="D17" t="n">
-        <v>-43.55</v>
-      </c>
       <c r="E17" t="n">
-        <v>-47.96</v>
+        <v>-48.36</v>
       </c>
       <c r="F17" t="n">
-        <v>-47.97</v>
+        <v>-48.19</v>
       </c>
       <c r="G17" t="n">
-        <v>-48.85</v>
+        <v>-49.59</v>
       </c>
       <c r="H17" t="n">
-        <v>-49.79</v>
+        <v>-49.89</v>
       </c>
     </row>
     <row r="18">
@@ -7620,22 +7632,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-40.18</v>
+        <v>-40.94</v>
       </c>
       <c r="D18" t="n">
-        <v>-43.44</v>
+        <v>-45.05</v>
       </c>
       <c r="E18" t="n">
-        <v>-43.92</v>
+        <v>-45.23</v>
       </c>
       <c r="F18" t="n">
-        <v>-46.54</v>
+        <v>-48.5</v>
       </c>
       <c r="G18" t="n">
-        <v>-45.49</v>
+        <v>-46.34</v>
       </c>
       <c r="H18" t="n">
-        <v>-49.97</v>
+        <v>-51.22</v>
       </c>
     </row>
     <row r="19">
@@ -7648,22 +7660,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-40.85</v>
+        <v>-41.54</v>
       </c>
       <c r="D19" t="n">
-        <v>-41.82</v>
+        <v>-42.44</v>
       </c>
       <c r="E19" t="n">
-        <v>-43.88</v>
+        <v>-44.53</v>
       </c>
       <c r="F19" t="n">
-        <v>-43.49</v>
+        <v>-43.89</v>
       </c>
       <c r="G19" t="n">
-        <v>-46.97</v>
+        <v>-47.66</v>
       </c>
       <c r="H19" t="n">
-        <v>-48.07</v>
+        <v>-49.06</v>
       </c>
     </row>
     <row r="20">
@@ -7676,22 +7688,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-39.75</v>
+        <v>-40.12</v>
       </c>
       <c r="D20" t="n">
-        <v>-44.28</v>
+        <v>-44.85</v>
       </c>
       <c r="E20" t="n">
-        <v>-44.63</v>
+        <v>-45.12</v>
       </c>
       <c r="F20" t="n">
-        <v>-47.9</v>
+        <v>-48.18</v>
       </c>
       <c r="G20" t="n">
-        <v>-44.55</v>
+        <v>-45.09</v>
       </c>
       <c r="H20" t="n">
-        <v>-50.8</v>
+        <v>-51.7</v>
       </c>
     </row>
     <row r="21">
@@ -7704,22 +7716,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-41.5</v>
+        <v>-41.45</v>
       </c>
       <c r="D21" t="n">
-        <v>-41.37</v>
+        <v>-40.95</v>
       </c>
       <c r="E21" t="n">
-        <v>-45.97</v>
+        <v>-45.67</v>
       </c>
       <c r="F21" t="n">
-        <v>-47.07</v>
+        <v>-46.16</v>
       </c>
       <c r="G21" t="n">
-        <v>-46.87</v>
+        <v>-47</v>
       </c>
       <c r="H21" t="n">
-        <v>-47.3</v>
+        <v>-47.11</v>
       </c>
     </row>
     <row r="22">
@@ -7732,22 +7744,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-38.59</v>
+        <v>-38.49</v>
       </c>
       <c r="D22" t="n">
-        <v>-40.92</v>
+        <v>-41.37</v>
       </c>
       <c r="E22" t="n">
         <v>-42.88</v>
       </c>
       <c r="F22" t="n">
-        <v>-45.11</v>
+        <v>-45.77</v>
       </c>
       <c r="G22" t="n">
-        <v>-44.14</v>
+        <v>-43.89</v>
       </c>
       <c r="H22" t="n">
-        <v>-46.37</v>
+        <v>-46.71</v>
       </c>
     </row>
   </sheetData>
@@ -7797,13 +7809,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="C2" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3">
@@ -7811,13 +7823,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="C3" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.02</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -7825,13 +7837,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="D4" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
@@ -7839,13 +7851,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="C5" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="D5" t="n">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="6">
@@ -7853,13 +7865,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="C6" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="D6" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="7">
@@ -7867,13 +7879,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="C7" t="n">
-        <v>1.15</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7893,10 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="C8" t="n">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="D8" t="n">
         <v>1.36</v>
@@ -7937,13 +7949,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="C2" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="D2" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="3">
@@ -7951,13 +7963,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="C3" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="D3" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="4">
@@ -7965,10 +7977,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.51</v>
+        <v>1.21</v>
       </c>
       <c r="C4" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="D4" t="n">
         <v>1.24</v>
@@ -7982,10 +7994,10 @@
         <v>1.17</v>
       </c>
       <c r="C5" t="n">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="D5" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6">
@@ -7993,13 +8005,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="C6" t="n">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="D6" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="7">
@@ -8007,13 +8019,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="C7" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="8">
@@ -8021,13 +8033,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="C8" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="D8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>
@@ -8077,13 +8089,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="C2" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="D2" t="n">
-        <v>0.86</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="3">
@@ -8091,13 +8103,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="C3" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.05</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -8105,13 +8117,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="C4" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="D4" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="5">
@@ -8122,10 +8134,10 @@
         <v>1.29</v>
       </c>
       <c r="C5" t="n">
-        <v>1.4</v>
+        <v>1.61</v>
       </c>
       <c r="D5" t="n">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="6">
@@ -8133,13 +8145,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="C6" t="n">
-        <v>2.88</v>
+        <v>2.71</v>
       </c>
       <c r="D6" t="n">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="7">
@@ -8147,13 +8159,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="D7" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="8">
@@ -8161,13 +8173,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="C8" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="D8" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
@@ -8217,13 +8229,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="C2" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="D2" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="3">
@@ -8231,13 +8243,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="C3" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="D3" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="4">
@@ -8245,13 +8257,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="C4" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="D4" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="5">
@@ -8259,13 +8271,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="C5" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="D5" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="6">
@@ -8273,13 +8285,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="C6" t="n">
-        <v>2.69</v>
+        <v>2.54</v>
       </c>
       <c r="D6" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="7">
@@ -8287,13 +8299,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="C7" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="D7" t="n">
-        <v>2.03</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="8">
@@ -8301,10 +8313,10 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="C8" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="D8" t="n">
         <v>1.69</v>
@@ -8357,13 +8369,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="C2" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="D2" t="n">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3">
@@ -8371,13 +8383,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="C3" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="D3" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="4">
@@ -8385,13 +8397,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="C4" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="D4" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="5">
@@ -8399,13 +8411,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="C5" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="D5" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="6">
@@ -8413,13 +8425,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="C6" t="n">
-        <v>3.29</v>
+        <v>3.16</v>
       </c>
       <c r="D6" t="n">
-        <v>2.34</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="7">
@@ -8427,13 +8439,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>1.42</v>
+        <v>0.96</v>
       </c>
       <c r="C7" t="n">
-        <v>1.17</v>
+        <v>0.96</v>
       </c>
       <c r="D7" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="8">
@@ -8441,13 +8453,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="C8" t="n">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="D8" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
     </row>
   </sheetData>
@@ -8497,13 +8509,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="C2" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="D2" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="3">
@@ -8511,13 +8523,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="C3" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="D3" t="n">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="4">
@@ -8525,13 +8537,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="C4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D4" t="n">
         <v>1.32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.4</v>
       </c>
     </row>
     <row r="5">
@@ -8539,13 +8551,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="C5" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="D5" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="6">
@@ -8553,13 +8565,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="C6" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="D6" t="n">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="7">
@@ -8567,13 +8579,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="C7" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="D7" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="8">
@@ -8581,13 +8593,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="C8" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="D8" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>
@@ -8637,13 +8649,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>24.87</v>
+        <v>24.42</v>
       </c>
       <c r="C2" t="n">
-        <v>24.73</v>
+        <v>24.45</v>
       </c>
       <c r="D2" t="n">
-        <v>24.95</v>
+        <v>24.52</v>
       </c>
     </row>
     <row r="3">
@@ -8651,13 +8663,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>24.85</v>
+        <v>24.63</v>
       </c>
       <c r="C3" t="n">
-        <v>24.94</v>
+        <v>24.57</v>
       </c>
       <c r="D3" t="n">
-        <v>24.8</v>
+        <v>24.49</v>
       </c>
     </row>
     <row r="4">
@@ -8665,13 +8677,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.15</v>
+        <v>24.73</v>
       </c>
       <c r="C4" t="n">
-        <v>25.04</v>
+        <v>24.59</v>
       </c>
       <c r="D4" t="n">
-        <v>25.04</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="5">
@@ -8679,13 +8691,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.71</v>
+        <v>24.21</v>
       </c>
       <c r="C5" t="n">
-        <v>24.74</v>
+        <v>24.22</v>
       </c>
       <c r="D5" t="n">
-        <v>24.63</v>
+        <v>24.15</v>
       </c>
     </row>
     <row r="6">
@@ -8693,13 +8705,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>24.89</v>
+        <v>24.49</v>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>24.57</v>
       </c>
       <c r="D6" t="n">
-        <v>25.09</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="7">
@@ -8707,13 +8719,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>24.88</v>
+        <v>24.47</v>
       </c>
       <c r="C7" t="n">
-        <v>24.9</v>
+        <v>24.64</v>
       </c>
       <c r="D7" t="n">
-        <v>24.72</v>
+        <v>24.27</v>
       </c>
     </row>
     <row r="8">
@@ -8721,13 +8733,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>24.9</v>
+        <v>24.24</v>
       </c>
       <c r="C8" t="n">
-        <v>24.94</v>
+        <v>24.35</v>
       </c>
       <c r="D8" t="n">
-        <v>25.05</v>
+        <v>24.47</v>
       </c>
     </row>
   </sheetData>
@@ -8777,13 +8789,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>23.69</v>
+        <v>23.33</v>
       </c>
       <c r="C2" t="n">
-        <v>23.72</v>
+        <v>23.22</v>
       </c>
       <c r="D2" t="n">
-        <v>23.81</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="3">
@@ -8791,13 +8803,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.77</v>
+        <v>23.39</v>
       </c>
       <c r="C3" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="D3" t="n">
-        <v>23.7</v>
+        <v>23.39</v>
       </c>
     </row>
     <row r="4">
@@ -8805,13 +8817,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.84</v>
+        <v>23.43</v>
       </c>
       <c r="C4" t="n">
-        <v>23.95</v>
+        <v>23.52</v>
       </c>
       <c r="D4" t="n">
-        <v>23.86</v>
+        <v>23.52</v>
       </c>
     </row>
     <row r="5">
@@ -8819,13 +8831,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.63</v>
+        <v>23.13</v>
       </c>
       <c r="C5" t="n">
-        <v>23.56</v>
+        <v>23.02</v>
       </c>
       <c r="D5" t="n">
-        <v>23.58</v>
+        <v>23.13</v>
       </c>
     </row>
     <row r="6">
@@ -8833,13 +8845,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>23.87</v>
+        <v>23.44</v>
       </c>
       <c r="C6" t="n">
-        <v>23.85</v>
+        <v>23.41</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="7">
@@ -8847,13 +8859,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>23.8</v>
+        <v>23.33</v>
       </c>
       <c r="C7" t="n">
-        <v>23.68</v>
+        <v>23.34</v>
       </c>
       <c r="D7" t="n">
-        <v>23.55</v>
+        <v>23.12</v>
       </c>
     </row>
     <row r="8">
@@ -8861,13 +8873,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>23.83</v>
+        <v>23.15</v>
       </c>
       <c r="C8" t="n">
-        <v>23.83</v>
+        <v>23.29</v>
       </c>
       <c r="D8" t="n">
-        <v>23.94</v>
+        <v>23.28</v>
       </c>
     </row>
   </sheetData>
@@ -8917,13 +8929,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>23.85</v>
+        <v>23.42</v>
       </c>
       <c r="C2" t="n">
-        <v>23.73</v>
+        <v>23.33</v>
       </c>
       <c r="D2" t="n">
-        <v>23.77</v>
+        <v>23.43</v>
       </c>
     </row>
     <row r="3">
@@ -8931,13 +8943,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.88</v>
+        <v>23.5</v>
       </c>
       <c r="C3" t="n">
-        <v>23.85</v>
+        <v>23.5</v>
       </c>
       <c r="D3" t="n">
-        <v>23.86</v>
+        <v>23.41</v>
       </c>
     </row>
     <row r="4">
@@ -8945,13 +8957,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.08</v>
+        <v>23.57</v>
       </c>
       <c r="C4" t="n">
-        <v>24.06</v>
+        <v>23.69</v>
       </c>
       <c r="D4" t="n">
-        <v>23.96</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="5">
@@ -8959,13 +8971,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.7</v>
+        <v>23.12</v>
       </c>
       <c r="C5" t="n">
-        <v>23.71</v>
+        <v>23.23</v>
       </c>
       <c r="D5" t="n">
-        <v>23.76</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="6">
@@ -8973,13 +8985,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>23.86</v>
+        <v>23.35</v>
       </c>
       <c r="C6" t="n">
-        <v>23.94</v>
+        <v>23.49</v>
       </c>
       <c r="D6" t="n">
-        <v>23.83</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="7">
@@ -8987,13 +8999,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>23.77</v>
+        <v>23.55</v>
       </c>
       <c r="C7" t="n">
-        <v>23.91</v>
+        <v>23.51</v>
       </c>
       <c r="D7" t="n">
-        <v>23.68</v>
+        <v>23.19</v>
       </c>
     </row>
     <row r="8">
@@ -9001,13 +9013,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>23.96</v>
+        <v>23.3</v>
       </c>
       <c r="C8" t="n">
-        <v>23.8</v>
+        <v>23.39</v>
       </c>
       <c r="D8" t="n">
-        <v>23.99</v>
+        <v>23.42</v>
       </c>
     </row>
   </sheetData>
@@ -9057,13 +9069,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>22.74</v>
+        <v>22.32</v>
       </c>
       <c r="C2" t="n">
-        <v>22.73</v>
+        <v>22.32</v>
       </c>
       <c r="D2" t="n">
-        <v>22.76</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="3">
@@ -9071,13 +9083,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.81</v>
+        <v>21.49</v>
       </c>
       <c r="C3" t="n">
-        <v>21.72</v>
+        <v>21.43</v>
       </c>
       <c r="D3" t="n">
-        <v>21.68</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="4">
@@ -9085,13 +9097,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.95</v>
+        <v>22.51</v>
       </c>
       <c r="C4" t="n">
-        <v>22.9</v>
+        <v>22.46</v>
       </c>
       <c r="D4" t="n">
-        <v>22.83</v>
+        <v>22.49</v>
       </c>
     </row>
     <row r="5">
@@ -9099,13 +9111,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.62</v>
+        <v>22.2</v>
       </c>
       <c r="C5" t="n">
-        <v>22.61</v>
+        <v>22.09</v>
       </c>
       <c r="D5" t="n">
-        <v>22.6</v>
+        <v>22.09</v>
       </c>
     </row>
     <row r="6">
@@ -9113,13 +9125,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>22.9</v>
+        <v>22.46</v>
       </c>
       <c r="C6" t="n">
-        <v>22.93</v>
+        <v>22.42</v>
       </c>
       <c r="D6" t="n">
-        <v>22.95</v>
+        <v>22.41</v>
       </c>
     </row>
     <row r="7">
@@ -9127,13 +9139,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>22.78</v>
+        <v>22.29</v>
       </c>
       <c r="C7" t="n">
-        <v>22.7</v>
+        <v>22.29</v>
       </c>
       <c r="D7" t="n">
-        <v>22.49</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="8">
@@ -9141,13 +9153,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>21.83</v>
+        <v>21.28</v>
       </c>
       <c r="C8" t="n">
-        <v>21.83</v>
+        <v>21.24</v>
       </c>
       <c r="D8" t="n">
-        <v>21.79</v>
+        <v>21.2</v>
       </c>
     </row>
   </sheetData>
@@ -9197,13 +9209,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>22.68</v>
+        <v>22.48</v>
       </c>
       <c r="C2" t="n">
-        <v>22.84</v>
+        <v>22.44</v>
       </c>
       <c r="D2" t="n">
-        <v>22.84</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="3">
@@ -9211,13 +9223,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>22.94</v>
+        <v>22.5</v>
       </c>
       <c r="C3" t="n">
-        <v>22.97</v>
+        <v>22.62</v>
       </c>
       <c r="D3" t="n">
-        <v>22.93</v>
+        <v>22.47</v>
       </c>
     </row>
     <row r="4">
@@ -9225,13 +9237,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.04</v>
+        <v>22.49</v>
       </c>
       <c r="C4" t="n">
-        <v>23.07</v>
+        <v>22.66</v>
       </c>
       <c r="D4" t="n">
-        <v>22.95</v>
+        <v>22.51</v>
       </c>
     </row>
     <row r="5">
@@ -9239,13 +9251,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.75</v>
+        <v>22.2</v>
       </c>
       <c r="C5" t="n">
-        <v>22.74</v>
+        <v>22.05</v>
       </c>
       <c r="D5" t="n">
-        <v>22.74</v>
+        <v>22.21</v>
       </c>
     </row>
     <row r="6">
@@ -9253,13 +9265,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>22.92</v>
+        <v>22.46</v>
       </c>
       <c r="C6" t="n">
-        <v>22.92</v>
+        <v>22.54</v>
       </c>
       <c r="D6" t="n">
-        <v>22.92</v>
+        <v>22.37</v>
       </c>
     </row>
     <row r="7">
@@ -9267,13 +9279,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>22.81</v>
+        <v>22.47</v>
       </c>
       <c r="C7" t="n">
-        <v>22.85</v>
+        <v>22.58</v>
       </c>
       <c r="D7" t="n">
-        <v>22.82</v>
+        <v>22.49</v>
       </c>
     </row>
     <row r="8">
@@ -9281,13 +9293,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>22.95</v>
+        <v>22.34</v>
       </c>
       <c r="C8" t="n">
-        <v>23.04</v>
+        <v>22.36</v>
       </c>
       <c r="D8" t="n">
-        <v>23.05</v>
+        <v>22.34</v>
       </c>
     </row>
   </sheetData>
@@ -9337,13 +9349,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>21.78</v>
+        <v>21.32</v>
       </c>
       <c r="C2" t="n">
-        <v>21.81</v>
+        <v>21.35</v>
       </c>
       <c r="D2" t="n">
-        <v>21.89</v>
+        <v>21.39</v>
       </c>
     </row>
     <row r="3">
@@ -9351,13 +9363,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.84</v>
+        <v>21.37</v>
       </c>
       <c r="C3" t="n">
-        <v>21.84</v>
+        <v>21.56</v>
       </c>
       <c r="D3" t="n">
-        <v>21.8</v>
+        <v>21.37</v>
       </c>
     </row>
     <row r="4">
@@ -9365,13 +9377,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.94</v>
+        <v>21.53</v>
       </c>
       <c r="C4" t="n">
-        <v>21.88</v>
+        <v>21.45</v>
       </c>
       <c r="D4" t="n">
-        <v>21.9</v>
+        <v>21.47</v>
       </c>
     </row>
     <row r="5">
@@ -9379,13 +9391,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.54</v>
+        <v>21.08</v>
       </c>
       <c r="C5" t="n">
-        <v>21.62</v>
+        <v>21.09</v>
       </c>
       <c r="D5" t="n">
-        <v>21.53</v>
+        <v>21.12</v>
       </c>
     </row>
     <row r="6">
@@ -9393,13 +9405,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="C6" t="n">
-        <v>21.96</v>
+        <v>21.39</v>
       </c>
       <c r="D6" t="n">
-        <v>21.96</v>
+        <v>21.44</v>
       </c>
     </row>
     <row r="7">
@@ -9407,13 +9419,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>21.76</v>
+        <v>21.27</v>
       </c>
       <c r="C7" t="n">
-        <v>21.76</v>
+        <v>21.36</v>
       </c>
       <c r="D7" t="n">
-        <v>21.7</v>
+        <v>21.39</v>
       </c>
     </row>
     <row r="8">
@@ -9421,13 +9433,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>21.9</v>
+        <v>21.25</v>
       </c>
       <c r="C8" t="n">
-        <v>21.9</v>
+        <v>21.18</v>
       </c>
       <c r="D8" t="n">
-        <v>21.94</v>
+        <v>21.25</v>
       </c>
     </row>
   </sheetData>
@@ -9502,22 +9514,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-46.56</v>
+        <v>-46.69</v>
       </c>
       <c r="D2" t="n">
-        <v>-51.77</v>
+        <v>-52.32</v>
       </c>
       <c r="E2" t="n">
-        <v>-46.31</v>
+        <v>-46.51</v>
       </c>
       <c r="F2" t="n">
-        <v>-55.55</v>
+        <v>-56.08</v>
       </c>
       <c r="G2" t="n">
-        <v>-56.81</v>
+        <v>-57.18</v>
       </c>
       <c r="H2" t="n">
-        <v>-58.18</v>
+        <v>-58.28</v>
       </c>
     </row>
     <row r="3">
@@ -9530,22 +9542,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-45.88</v>
+        <v>-46.95</v>
       </c>
       <c r="D3" t="n">
-        <v>-51.74</v>
+        <v>-52.11</v>
       </c>
       <c r="E3" t="n">
-        <v>-45.39</v>
+        <v>-46.54</v>
       </c>
       <c r="F3" t="n">
-        <v>-55.37</v>
+        <v>-55.82</v>
       </c>
       <c r="G3" t="n">
-        <v>-57.35</v>
+        <v>-57.94</v>
       </c>
       <c r="H3" t="n">
-        <v>-57.85</v>
+        <v>-58.37</v>
       </c>
     </row>
     <row r="4">
@@ -9558,22 +9570,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-48.7</v>
+        <v>-49.1</v>
       </c>
       <c r="D4" t="n">
-        <v>-52.77</v>
+        <v>-52.73</v>
       </c>
       <c r="E4" t="n">
-        <v>-49.31</v>
+        <v>-49.85</v>
       </c>
       <c r="F4" t="n">
-        <v>-56.45</v>
+        <v>-56.47</v>
       </c>
       <c r="G4" t="n">
-        <v>-57.12</v>
+        <v>-57.36</v>
       </c>
       <c r="H4" t="n">
-        <v>-59.18</v>
+        <v>-59.02</v>
       </c>
     </row>
     <row r="5">
@@ -9586,22 +9598,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-47.18</v>
+        <v>-48.04</v>
       </c>
       <c r="D5" t="n">
-        <v>-51.73</v>
+        <v>-52.44</v>
       </c>
       <c r="E5" t="n">
-        <v>-47.07</v>
+        <v>-48.11</v>
       </c>
       <c r="F5" t="n">
-        <v>-55.48</v>
+        <v>-56.19</v>
       </c>
       <c r="G5" t="n">
-        <v>-57.37</v>
+        <v>-58.09</v>
       </c>
       <c r="H5" t="n">
-        <v>-58.3</v>
+        <v>-58.6</v>
       </c>
     </row>
     <row r="6">
@@ -9614,22 +9626,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-46.78</v>
+        <v>-47.64</v>
       </c>
       <c r="D6" t="n">
-        <v>-52.99</v>
+        <v>-53.4</v>
       </c>
       <c r="E6" t="n">
-        <v>-46.32</v>
+        <v>-47.35</v>
       </c>
       <c r="F6" t="n">
-        <v>-56.98</v>
+        <v>-57.14</v>
       </c>
       <c r="G6" t="n">
-        <v>-56.99</v>
+        <v>-57.35</v>
       </c>
       <c r="H6" t="n">
-        <v>-59.59</v>
+        <v>-60.13</v>
       </c>
     </row>
     <row r="7">
@@ -9642,22 +9654,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-46.11</v>
+        <v>-47.13</v>
       </c>
       <c r="D7" t="n">
-        <v>-53.1</v>
+        <v>-53.67</v>
       </c>
       <c r="E7" t="n">
-        <v>-46.84</v>
+        <v>-48.31</v>
       </c>
       <c r="F7" t="n">
-        <v>-56.09</v>
+        <v>-56.72</v>
       </c>
       <c r="G7" t="n">
-        <v>-54.7</v>
+        <v>-54.75</v>
       </c>
       <c r="H7" t="n">
-        <v>-59.47</v>
+        <v>-59.75</v>
       </c>
     </row>
     <row r="8">
@@ -9670,22 +9682,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-46.06</v>
+        <v>-46.14</v>
       </c>
       <c r="D8" t="n">
-        <v>-52.91</v>
+        <v>-52.78</v>
       </c>
       <c r="E8" t="n">
-        <v>-44.78</v>
+        <v>-45.12</v>
       </c>
       <c r="F8" t="n">
-        <v>-55.51</v>
+        <v>-55.96</v>
       </c>
       <c r="G8" t="n">
-        <v>-58.76</v>
+        <v>-59.03</v>
       </c>
       <c r="H8" t="n">
-        <v>-59.09</v>
+        <v>-58.91</v>
       </c>
     </row>
     <row r="9">
@@ -9698,22 +9710,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-47.56</v>
+        <v>-47.16</v>
       </c>
       <c r="D9" t="n">
-        <v>-53.64</v>
+        <v>-53.25</v>
       </c>
       <c r="E9" t="n">
-        <v>-47.3</v>
+        <v>-46.53</v>
       </c>
       <c r="F9" t="n">
-        <v>-56.31</v>
+        <v>-56.43</v>
       </c>
       <c r="G9" t="n">
-        <v>-56.73</v>
+        <v>-57.14</v>
       </c>
       <c r="H9" t="n">
-        <v>-59.97</v>
+        <v>-59.58</v>
       </c>
     </row>
     <row r="10">
@@ -9726,22 +9738,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-47.24</v>
+        <v>-48.27</v>
       </c>
       <c r="D10" t="n">
-        <v>-54.9</v>
+        <v>-55.56</v>
       </c>
       <c r="E10" t="n">
-        <v>-46.86</v>
+        <v>-47.48</v>
       </c>
       <c r="F10" t="n">
-        <v>-57.31</v>
+        <v>-57.79</v>
       </c>
       <c r="G10" t="n">
-        <v>-56.95</v>
+        <v>-57.78</v>
       </c>
       <c r="H10" t="n">
-        <v>-62.01</v>
+        <v>-62.75</v>
       </c>
     </row>
     <row r="11">
@@ -9754,22 +9766,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-48.15</v>
+        <v>-47.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-53.24</v>
+        <v>-52.81</v>
       </c>
       <c r="E11" t="n">
-        <v>-47.45</v>
+        <v>-47.15</v>
       </c>
       <c r="F11" t="n">
-        <v>-55.99</v>
+        <v>-55.98</v>
       </c>
       <c r="G11" t="n">
-        <v>-58.51</v>
+        <v>-58.28</v>
       </c>
       <c r="H11" t="n">
-        <v>-59.23</v>
+        <v>-58.97</v>
       </c>
     </row>
     <row r="12">
@@ -9782,22 +9794,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-46.67</v>
+        <v>-46.63</v>
       </c>
       <c r="D12" t="n">
-        <v>-53.45</v>
+        <v>-53.19</v>
       </c>
       <c r="E12" t="n">
-        <v>-45.71</v>
+        <v>-45.28</v>
       </c>
       <c r="F12" t="n">
-        <v>-56.43</v>
+        <v>-56.41</v>
       </c>
       <c r="G12" t="n">
-        <v>-56.77</v>
+        <v>-56.85</v>
       </c>
       <c r="H12" t="n">
-        <v>-59.95</v>
+        <v>-59.18</v>
       </c>
     </row>
     <row r="13">
@@ -9810,22 +9822,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-48.39</v>
+        <v>-47.36</v>
       </c>
       <c r="D13" t="n">
-        <v>-52.9</v>
+        <v>-52.6</v>
       </c>
       <c r="E13" t="n">
-        <v>-48.2</v>
+        <v>-47.31</v>
       </c>
       <c r="F13" t="n">
-        <v>-56.01</v>
+        <v>-55.77</v>
       </c>
       <c r="G13" t="n">
-        <v>-57.23</v>
+        <v>-56.43</v>
       </c>
       <c r="H13" t="n">
-        <v>-58.79</v>
+        <v>-58.73</v>
       </c>
     </row>
     <row r="14">
@@ -9838,22 +9850,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-45.76</v>
+        <v>-45.87</v>
       </c>
       <c r="D14" t="n">
-        <v>-55.25</v>
+        <v>-55.47</v>
       </c>
       <c r="E14" t="n">
-        <v>-45.8</v>
+        <v>-45.77</v>
       </c>
       <c r="F14" t="n">
-        <v>-57.34</v>
+        <v>-57.38</v>
       </c>
       <c r="G14" t="n">
-        <v>-54.98</v>
+        <v>-55.02</v>
       </c>
       <c r="H14" t="n">
-        <v>-61.69</v>
+        <v>-62.41</v>
       </c>
     </row>
     <row r="15">
@@ -9866,22 +9878,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-41.88</v>
+        <v>-42.2</v>
       </c>
       <c r="D15" t="n">
-        <v>-54.65</v>
+        <v>-54.58</v>
       </c>
       <c r="E15" t="n">
-        <v>-39.96</v>
+        <v>-40.13</v>
       </c>
       <c r="F15" t="n">
-        <v>-56.9</v>
+        <v>-56.99</v>
       </c>
       <c r="G15" t="n">
-        <v>-57.74</v>
+        <v>-57.5</v>
       </c>
       <c r="H15" t="n">
-        <v>-60.64</v>
+        <v>-60.61</v>
       </c>
     </row>
     <row r="16">
@@ -9894,22 +9906,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-42.59</v>
+        <v>-42.92</v>
       </c>
       <c r="D16" t="n">
-        <v>-57.9</v>
+        <v>-57.53</v>
       </c>
       <c r="E16" t="n">
-        <v>-41.63</v>
+        <v>-41.6</v>
       </c>
       <c r="F16" t="n">
-        <v>-59.36</v>
+        <v>-59.13</v>
       </c>
       <c r="G16" t="n">
-        <v>-54.79</v>
+        <v>-55.64</v>
       </c>
       <c r="H16" t="n">
-        <v>-63.71</v>
+        <v>-63.02</v>
       </c>
     </row>
     <row r="17">
@@ -9922,22 +9934,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-48.24</v>
+        <v>-48.6</v>
       </c>
       <c r="D17" t="n">
-        <v>-51.82</v>
+        <v>-52.29</v>
       </c>
       <c r="E17" t="n">
-        <v>-48.18</v>
+        <v>-48.93</v>
       </c>
       <c r="F17" t="n">
-        <v>-55.56</v>
+        <v>-55.81</v>
       </c>
       <c r="G17" t="n">
-        <v>-57.71</v>
+        <v>-58.25</v>
       </c>
       <c r="H17" t="n">
-        <v>-58.28</v>
+        <v>-58.73</v>
       </c>
     </row>
     <row r="18">
@@ -9950,22 +9962,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-46.8</v>
+        <v>-48.22</v>
       </c>
       <c r="D18" t="n">
-        <v>-53.03</v>
+        <v>-53.76</v>
       </c>
       <c r="E18" t="n">
-        <v>-46.28</v>
+        <v>-47.59</v>
       </c>
       <c r="F18" t="n">
-        <v>-56.81</v>
+        <v>-57.47</v>
       </c>
       <c r="G18" t="n">
-        <v>-56.92</v>
+        <v>-57.6</v>
       </c>
       <c r="H18" t="n">
-        <v>-59.41</v>
+        <v>-60.27</v>
       </c>
     </row>
     <row r="19">
@@ -9978,22 +9990,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-44.74</v>
+        <v>-45.94</v>
       </c>
       <c r="D19" t="n">
-        <v>-54.05</v>
+        <v>-54.57</v>
       </c>
       <c r="E19" t="n">
-        <v>-44.5</v>
+        <v>-45.63</v>
       </c>
       <c r="F19" t="n">
-        <v>-57.09</v>
+        <v>-57.68</v>
       </c>
       <c r="G19" t="n">
-        <v>-55.43</v>
+        <v>-55.66</v>
       </c>
       <c r="H19" t="n">
-        <v>-60.8</v>
+        <v>-61.35</v>
       </c>
     </row>
     <row r="20">
@@ -10006,22 +10018,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-48.26</v>
+        <v>-47.83</v>
       </c>
       <c r="D20" t="n">
-        <v>-53.3</v>
+        <v>-52.87</v>
       </c>
       <c r="E20" t="n">
-        <v>-47.49</v>
+        <v>-47.23</v>
       </c>
       <c r="F20" t="n">
-        <v>-56.17</v>
+        <v>-55.96</v>
       </c>
       <c r="G20" t="n">
-        <v>-58.53</v>
+        <v>-58.68</v>
       </c>
       <c r="H20" t="n">
-        <v>-59.74</v>
+        <v>-59.2</v>
       </c>
     </row>
     <row r="21">
@@ -10034,22 +10046,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-48.45</v>
+        <v>-48.84</v>
       </c>
       <c r="D21" t="n">
-        <v>-53.26</v>
+        <v>-52.88</v>
       </c>
       <c r="E21" t="n">
-        <v>-48.63</v>
+        <v>-48.6</v>
       </c>
       <c r="F21" t="n">
-        <v>-56.14</v>
+        <v>-55.9</v>
       </c>
       <c r="G21" t="n">
-        <v>-56.86</v>
+        <v>-57.31</v>
       </c>
       <c r="H21" t="n">
-        <v>-59.23</v>
+        <v>-59.18</v>
       </c>
     </row>
     <row r="22">
@@ -10062,22 +10074,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-44.28</v>
+        <v>-44.45</v>
       </c>
       <c r="D22" t="n">
-        <v>-53.6</v>
+        <v>-54.03</v>
       </c>
       <c r="E22" t="n">
-        <v>-43.33</v>
+        <v>-43.05</v>
       </c>
       <c r="F22" t="n">
-        <v>-57.02</v>
+        <v>-57.33</v>
       </c>
       <c r="G22" t="n">
-        <v>-57.36</v>
+        <v>-57.15</v>
       </c>
       <c r="H22" t="n">
-        <v>-59.95</v>
+        <v>-60.39</v>
       </c>
     </row>
   </sheetData>
@@ -10152,22 +10164,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-45.06</v>
+        <v>-44.76</v>
       </c>
       <c r="D2" t="n">
-        <v>-43.35</v>
+        <v>-43.04</v>
       </c>
       <c r="E2" t="n">
-        <v>-48.08</v>
+        <v>-47.75</v>
       </c>
       <c r="F2" t="n">
-        <v>-47.48</v>
+        <v>-46.95</v>
       </c>
       <c r="G2" t="n">
-        <v>-51.66</v>
+        <v>-51.81</v>
       </c>
       <c r="H2" t="n">
-        <v>-49.59</v>
+        <v>-49.01</v>
       </c>
     </row>
     <row r="3">
@@ -10180,22 +10192,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-45.97</v>
+        <v>-46.02</v>
       </c>
       <c r="D3" t="n">
-        <v>-42.37</v>
+        <v>-43.17</v>
       </c>
       <c r="E3" t="n">
-        <v>-49.53</v>
+        <v>-49.96</v>
       </c>
       <c r="F3" t="n">
-        <v>-45.52</v>
+        <v>-46.57</v>
       </c>
       <c r="G3" t="n">
-        <v>-52.66</v>
+        <v>-53.03</v>
       </c>
       <c r="H3" t="n">
-        <v>-49.15</v>
+        <v>-49.94</v>
       </c>
     </row>
     <row r="4">
@@ -10208,22 +10220,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-45.15</v>
+        <v>-45.29</v>
       </c>
       <c r="D4" t="n">
-        <v>-46.18</v>
+        <v>-46.89</v>
       </c>
       <c r="E4" t="n">
-        <v>-48.63</v>
+        <v>-48.89</v>
       </c>
       <c r="F4" t="n">
-        <v>-50.21</v>
+        <v>-50.53</v>
       </c>
       <c r="G4" t="n">
-        <v>-51.8</v>
+        <v>-52.67</v>
       </c>
       <c r="H4" t="n">
-        <v>-52.57</v>
+        <v>-53.94</v>
       </c>
     </row>
     <row r="5">
@@ -10236,22 +10248,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-46.18</v>
+        <v>-45.8</v>
       </c>
       <c r="D5" t="n">
-        <v>-44.47</v>
+        <v>-44.88</v>
       </c>
       <c r="E5" t="n">
-        <v>-49.59</v>
+        <v>-49.22</v>
       </c>
       <c r="F5" t="n">
-        <v>-49.69</v>
+        <v>-49.94</v>
       </c>
       <c r="G5" t="n">
-        <v>-52.75</v>
+        <v>-52.67</v>
       </c>
       <c r="H5" t="n">
-        <v>-52.56</v>
+        <v>-53.04</v>
       </c>
     </row>
     <row r="6">
@@ -10264,22 +10276,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-43.96</v>
+        <v>-43.77</v>
       </c>
       <c r="D6" t="n">
-        <v>-43.51</v>
+        <v>-43.42</v>
       </c>
       <c r="E6" t="n">
-        <v>-47.26</v>
+        <v>-47.2</v>
       </c>
       <c r="F6" t="n">
-        <v>-46.76</v>
+        <v>-46.58</v>
       </c>
       <c r="G6" t="n">
-        <v>-50.76</v>
+        <v>-50.54</v>
       </c>
       <c r="H6" t="n">
-        <v>-50.48</v>
+        <v>-50.06</v>
       </c>
     </row>
     <row r="7">
@@ -10292,22 +10304,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-41.1</v>
+        <v>-41.71</v>
       </c>
       <c r="D7" t="n">
-        <v>-45.32</v>
+        <v>-45.86</v>
       </c>
       <c r="E7" t="n">
-        <v>-44</v>
+        <v>-44.23</v>
       </c>
       <c r="F7" t="n">
-        <v>-48.23</v>
+        <v>-48.27</v>
       </c>
       <c r="G7" t="n">
-        <v>-46.98</v>
+        <v>-47.72</v>
       </c>
       <c r="H7" t="n">
-        <v>-51.5</v>
+        <v>-52.23</v>
       </c>
     </row>
     <row r="8">
@@ -10320,22 +10332,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-43.42</v>
+        <v>-43.67</v>
       </c>
       <c r="D8" t="n">
-        <v>-42.94</v>
+        <v>-42.64</v>
       </c>
       <c r="E8" t="n">
-        <v>-47.34</v>
+        <v>-47.36</v>
       </c>
       <c r="F8" t="n">
-        <v>-46.47</v>
+        <v>-46.06</v>
       </c>
       <c r="G8" t="n">
-        <v>-49.3</v>
+        <v>-49.59</v>
       </c>
       <c r="H8" t="n">
-        <v>-49.87</v>
+        <v>-49.51</v>
       </c>
     </row>
     <row r="9">
@@ -10348,22 +10360,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-43.94</v>
+        <v>-44.67</v>
       </c>
       <c r="D9" t="n">
-        <v>-45.27</v>
+        <v>-45.3</v>
       </c>
       <c r="E9" t="n">
-        <v>-47.56</v>
+        <v>-48.34</v>
       </c>
       <c r="F9" t="n">
-        <v>-50.36</v>
+        <v>-50.26</v>
       </c>
       <c r="G9" t="n">
-        <v>-50.55</v>
+        <v>-51.22</v>
       </c>
       <c r="H9" t="n">
-        <v>-53.17</v>
+        <v>-53.5</v>
       </c>
     </row>
     <row r="10">
@@ -10376,22 +10388,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-44.47</v>
+        <v>-45.31</v>
       </c>
       <c r="D10" t="n">
         <v>-46.8</v>
       </c>
       <c r="E10" t="n">
-        <v>-48.15</v>
+        <v>-48.98</v>
       </c>
       <c r="F10" t="n">
-        <v>-49.1</v>
+        <v>-48.77</v>
       </c>
       <c r="G10" t="n">
-        <v>-51.29</v>
+        <v>-51.72</v>
       </c>
       <c r="H10" t="n">
-        <v>-53.56</v>
+        <v>-53.42</v>
       </c>
     </row>
     <row r="11">
@@ -10404,22 +10416,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-42.13</v>
+        <v>-42.29</v>
       </c>
       <c r="D11" t="n">
-        <v>-44.29</v>
+        <v>-44.43</v>
       </c>
       <c r="E11" t="n">
-        <v>-47.85</v>
+        <v>-47.49</v>
       </c>
       <c r="F11" t="n">
-        <v>-48.39</v>
+        <v>-48.18</v>
       </c>
       <c r="G11" t="n">
-        <v>-47.97</v>
+        <v>-48.17</v>
       </c>
       <c r="H11" t="n">
-        <v>-52.17</v>
+        <v>-52.03</v>
       </c>
     </row>
     <row r="12">
@@ -10432,22 +10444,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-41.01</v>
+        <v>-40.7</v>
       </c>
       <c r="D12" t="n">
-        <v>-44.45</v>
+        <v>-44.04</v>
       </c>
       <c r="E12" t="n">
-        <v>-46.27</v>
+        <v>-45.44</v>
       </c>
       <c r="F12" t="n">
-        <v>-50.76</v>
+        <v>-50.19</v>
       </c>
       <c r="G12" t="n">
-        <v>-46.66</v>
+        <v>-46.39</v>
       </c>
       <c r="H12" t="n">
-        <v>-50.56</v>
+        <v>-50.2</v>
       </c>
     </row>
     <row r="13">
@@ -10460,22 +10472,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-42.68</v>
+        <v>-42.25</v>
       </c>
       <c r="D13" t="n">
-        <v>-42.16</v>
+        <v>-41.51</v>
       </c>
       <c r="E13" t="n">
-        <v>-47.43</v>
+        <v>-46.47</v>
       </c>
       <c r="F13" t="n">
-        <v>-49.1</v>
+        <v>-47.64</v>
       </c>
       <c r="G13" t="n">
-        <v>-48.7</v>
+        <v>-48.37</v>
       </c>
       <c r="H13" t="n">
-        <v>-49.75</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="14">
@@ -10488,22 +10500,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-42.17</v>
+        <v>-41.34</v>
       </c>
       <c r="D14" t="n">
-        <v>-38.42</v>
+        <v>-39.72</v>
       </c>
       <c r="E14" t="n">
-        <v>-46.93</v>
+        <v>-45.8</v>
       </c>
       <c r="F14" t="n">
-        <v>-42.36</v>
+        <v>-43.11</v>
       </c>
       <c r="G14" t="n">
-        <v>-48.12</v>
+        <v>-47.21</v>
       </c>
       <c r="H14" t="n">
-        <v>-45.19</v>
+        <v>-46.48</v>
       </c>
     </row>
     <row r="15">
@@ -10516,22 +10528,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-40.56</v>
+        <v>-40.48</v>
       </c>
       <c r="D15" t="n">
-        <v>-36.67</v>
+        <v>-37.09</v>
       </c>
       <c r="E15" t="n">
-        <v>-43.43</v>
+        <v>-43.23</v>
       </c>
       <c r="F15" t="n">
-        <v>-40.24</v>
+        <v>-40.61</v>
       </c>
       <c r="G15" t="n">
-        <v>-45.91</v>
+        <v>-46.12</v>
       </c>
       <c r="H15" t="n">
-        <v>-43.55</v>
+        <v>-44.01</v>
       </c>
     </row>
     <row r="16">
@@ -10544,22 +10556,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-37.54</v>
+        <v>-37.95</v>
       </c>
       <c r="D16" t="n">
-        <v>-41.66</v>
+        <v>-41.55</v>
       </c>
       <c r="E16" t="n">
-        <v>-40</v>
+        <v>-40.17</v>
       </c>
       <c r="F16" t="n">
         <v>-44.2</v>
       </c>
       <c r="G16" t="n">
-        <v>-43.48</v>
+        <v>-44.11</v>
       </c>
       <c r="H16" t="n">
-        <v>-51.14</v>
+        <v>-50.28</v>
       </c>
     </row>
     <row r="17">
@@ -10572,22 +10584,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-45.92</v>
+        <v>-46.03</v>
       </c>
       <c r="D17" t="n">
-        <v>-45.34</v>
+        <v>-45.58</v>
       </c>
       <c r="E17" t="n">
-        <v>-50.07</v>
+        <v>-50.24</v>
       </c>
       <c r="F17" t="n">
-        <v>-50.29</v>
+        <v>-50.24</v>
       </c>
       <c r="G17" t="n">
         <v>-52.33</v>
       </c>
       <c r="H17" t="n">
-        <v>-52.57</v>
+        <v>-53.31</v>
       </c>
     </row>
     <row r="18">
@@ -10600,22 +10612,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-42.65</v>
+        <v>-42.95</v>
       </c>
       <c r="D18" t="n">
-        <v>-43.63</v>
+        <v>-44.43</v>
       </c>
       <c r="E18" t="n">
-        <v>-46.29</v>
+        <v>-46.6</v>
       </c>
       <c r="F18" t="n">
-        <v>-46.99</v>
+        <v>-47.25</v>
       </c>
       <c r="G18" t="n">
-        <v>-48.91</v>
+        <v>-49.49</v>
       </c>
       <c r="H18" t="n">
-        <v>-49.89</v>
+        <v>-51.33</v>
       </c>
     </row>
     <row r="19">
@@ -10628,22 +10640,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-43.76</v>
+        <v>-44.16</v>
       </c>
       <c r="D19" t="n">
-        <v>-43.41</v>
+        <v>-43.45</v>
       </c>
       <c r="E19" t="n">
-        <v>-46.66</v>
+        <v>-46.71</v>
       </c>
       <c r="F19" t="n">
-        <v>-45.12</v>
+        <v>-45.11</v>
       </c>
       <c r="G19" t="n">
-        <v>-49.76</v>
+        <v>-50.79</v>
       </c>
       <c r="H19" t="n">
-        <v>-50.03</v>
+        <v>-50.09</v>
       </c>
     </row>
     <row r="20">
@@ -10656,22 +10668,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-42.1</v>
+        <v>-42.29</v>
       </c>
       <c r="D20" t="n">
-        <v>-44.51</v>
+        <v>-44.39</v>
       </c>
       <c r="E20" t="n">
-        <v>-47.51</v>
+        <v>-47.78</v>
       </c>
       <c r="F20" t="n">
-        <v>-48.65</v>
+        <v>-48.23</v>
       </c>
       <c r="G20" t="n">
-        <v>-48.17</v>
+        <v>-48.28</v>
       </c>
       <c r="H20" t="n">
-        <v>-52.13</v>
+        <v>-52.48</v>
       </c>
     </row>
     <row r="21">
@@ -10684,22 +10696,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-42.28</v>
+        <v>-42.26</v>
       </c>
       <c r="D21" t="n">
-        <v>-42.08</v>
+        <v>-41.31</v>
       </c>
       <c r="E21" t="n">
-        <v>-46.61</v>
+        <v>-46.46</v>
       </c>
       <c r="F21" t="n">
-        <v>-49.01</v>
+        <v>-47.33</v>
       </c>
       <c r="G21" t="n">
-        <v>-48.33</v>
+        <v>-48.3</v>
       </c>
       <c r="H21" t="n">
-        <v>-50.14</v>
+        <v>-48.98</v>
       </c>
     </row>
     <row r="22">
@@ -10712,22 +10724,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-39.96</v>
+        <v>-39.9</v>
       </c>
       <c r="D22" t="n">
-        <v>-40.91</v>
+        <v>-40.79</v>
       </c>
       <c r="E22" t="n">
-        <v>-44.92</v>
+        <v>-44.41</v>
       </c>
       <c r="F22" t="n">
-        <v>-44.91</v>
+        <v>-44.38</v>
       </c>
       <c r="G22" t="n">
-        <v>-46.71</v>
+        <v>-46.53</v>
       </c>
       <c r="H22" t="n">
-        <v>-47.17</v>
+        <v>-46.99</v>
       </c>
     </row>
   </sheetData>

--- a/results_20MHZ_LTE.xlsx
+++ b/results_20MHZ_LTE.xlsx
@@ -189,12 +189,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_1'!$A$2:$A$15</f>
+              <f>'PWR_Q_1'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_1'!$B$2:$B$15</f>
+              <f>'PWR_Q_1'!$B$2:$B$17</f>
             </numRef>
           </val>
         </ser>
@@ -221,12 +221,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_1'!$A$2:$A$15</f>
+              <f>'PWR_Q_1'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_1'!$C$2:$C$15</f>
+              <f>'PWR_Q_1'!$C$2:$C$17</f>
             </numRef>
           </val>
         </ser>
@@ -254,12 +254,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_1'!$A$2:$A$15</f>
+              <f>'PWR_Q_1'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_1'!$D$2:$D$15</f>
+              <f>'PWR_Q_1'!$D$2:$D$17</f>
             </numRef>
           </val>
         </ser>
@@ -374,12 +374,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$43</f>
+              <f>'ACLR_Q_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$C$2:$C$43</f>
+              <f>'ACLR_Q_F'!$C$2:$C$49</f>
             </numRef>
           </val>
         </ser>
@@ -407,12 +407,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$43</f>
+              <f>'ACLR_Q_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$D$2:$D$43</f>
+              <f>'ACLR_Q_F'!$D$2:$D$49</f>
             </numRef>
           </val>
         </ser>
@@ -439,12 +439,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$43</f>
+              <f>'ACLR_Q_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$E$2:$E$43</f>
+              <f>'ACLR_Q_F'!$E$2:$E$49</f>
             </numRef>
           </val>
         </ser>
@@ -471,12 +471,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$43</f>
+              <f>'ACLR_Q_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$F$2:$F$43</f>
+              <f>'ACLR_Q_F'!$F$2:$F$49</f>
             </numRef>
           </val>
         </ser>
@@ -503,12 +503,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$43</f>
+              <f>'ACLR_Q_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$G$2:$G$43</f>
+              <f>'ACLR_Q_F'!$G$2:$G$49</f>
             </numRef>
           </val>
         </ser>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$43</f>
+              <f>'ACLR_Q_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$H$2:$H$43</f>
+              <f>'ACLR_Q_F'!$H$2:$H$49</f>
             </numRef>
           </val>
         </ser>
@@ -657,12 +657,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$43</f>
+              <f>'ACLR_16_P'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$C$2:$C$43</f>
+              <f>'ACLR_16_P'!$C$2:$C$49</f>
             </numRef>
           </val>
         </ser>
@@ -690,12 +690,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$43</f>
+              <f>'ACLR_16_P'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$D$2:$D$43</f>
+              <f>'ACLR_16_P'!$D$2:$D$49</f>
             </numRef>
           </val>
         </ser>
@@ -722,12 +722,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$43</f>
+              <f>'ACLR_16_P'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$E$2:$E$43</f>
+              <f>'ACLR_16_P'!$E$2:$E$49</f>
             </numRef>
           </val>
         </ser>
@@ -754,12 +754,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$43</f>
+              <f>'ACLR_16_P'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$F$2:$F$43</f>
+              <f>'ACLR_16_P'!$F$2:$F$49</f>
             </numRef>
           </val>
         </ser>
@@ -786,12 +786,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$43</f>
+              <f>'ACLR_16_P'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$G$2:$G$43</f>
+              <f>'ACLR_16_P'!$G$2:$G$49</f>
             </numRef>
           </val>
         </ser>
@@ -818,12 +818,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$43</f>
+              <f>'ACLR_16_P'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$H$2:$H$43</f>
+              <f>'ACLR_16_P'!$H$2:$H$49</f>
             </numRef>
           </val>
         </ser>
@@ -940,12 +940,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$43</f>
+              <f>'ACLR_16_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$C$2:$C$43</f>
+              <f>'ACLR_16_F'!$C$2:$C$49</f>
             </numRef>
           </val>
         </ser>
@@ -973,12 +973,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$43</f>
+              <f>'ACLR_16_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$D$2:$D$43</f>
+              <f>'ACLR_16_F'!$D$2:$D$49</f>
             </numRef>
           </val>
         </ser>
@@ -1005,12 +1005,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$43</f>
+              <f>'ACLR_16_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$E$2:$E$43</f>
+              <f>'ACLR_16_F'!$E$2:$E$49</f>
             </numRef>
           </val>
         </ser>
@@ -1037,12 +1037,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$43</f>
+              <f>'ACLR_16_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$F$2:$F$43</f>
+              <f>'ACLR_16_F'!$F$2:$F$49</f>
             </numRef>
           </val>
         </ser>
@@ -1069,12 +1069,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$43</f>
+              <f>'ACLR_16_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$G$2:$G$43</f>
+              <f>'ACLR_16_F'!$G$2:$G$49</f>
             </numRef>
           </val>
         </ser>
@@ -1101,12 +1101,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$43</f>
+              <f>'ACLR_16_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$H$2:$H$43</f>
+              <f>'ACLR_16_F'!$H$2:$H$49</f>
             </numRef>
           </val>
         </ser>
@@ -1223,12 +1223,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$43</f>
+              <f>'ACLR_64_P'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$C$2:$C$43</f>
+              <f>'ACLR_64_P'!$C$2:$C$49</f>
             </numRef>
           </val>
         </ser>
@@ -1256,12 +1256,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$43</f>
+              <f>'ACLR_64_P'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$D$2:$D$43</f>
+              <f>'ACLR_64_P'!$D$2:$D$49</f>
             </numRef>
           </val>
         </ser>
@@ -1288,12 +1288,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$43</f>
+              <f>'ACLR_64_P'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$E$2:$E$43</f>
+              <f>'ACLR_64_P'!$E$2:$E$49</f>
             </numRef>
           </val>
         </ser>
@@ -1320,12 +1320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$43</f>
+              <f>'ACLR_64_P'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$F$2:$F$43</f>
+              <f>'ACLR_64_P'!$F$2:$F$49</f>
             </numRef>
           </val>
         </ser>
@@ -1352,12 +1352,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$43</f>
+              <f>'ACLR_64_P'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$G$2:$G$43</f>
+              <f>'ACLR_64_P'!$G$2:$G$49</f>
             </numRef>
           </val>
         </ser>
@@ -1384,12 +1384,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$43</f>
+              <f>'ACLR_64_P'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$H$2:$H$43</f>
+              <f>'ACLR_64_P'!$H$2:$H$49</f>
             </numRef>
           </val>
         </ser>
@@ -1506,12 +1506,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$43</f>
+              <f>'ACLR_64_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$C$2:$C$43</f>
+              <f>'ACLR_64_F'!$C$2:$C$49</f>
             </numRef>
           </val>
         </ser>
@@ -1539,12 +1539,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$43</f>
+              <f>'ACLR_64_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$D$2:$D$43</f>
+              <f>'ACLR_64_F'!$D$2:$D$49</f>
             </numRef>
           </val>
         </ser>
@@ -1571,12 +1571,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$43</f>
+              <f>'ACLR_64_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$E$2:$E$43</f>
+              <f>'ACLR_64_F'!$E$2:$E$49</f>
             </numRef>
           </val>
         </ser>
@@ -1603,12 +1603,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$43</f>
+              <f>'ACLR_64_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$F$2:$F$43</f>
+              <f>'ACLR_64_F'!$F$2:$F$49</f>
             </numRef>
           </val>
         </ser>
@@ -1635,12 +1635,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$43</f>
+              <f>'ACLR_64_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$G$2:$G$43</f>
+              <f>'ACLR_64_F'!$G$2:$G$49</f>
             </numRef>
           </val>
         </ser>
@@ -1667,12 +1667,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$43</f>
+              <f>'ACLR_64_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$H$2:$H$43</f>
+              <f>'ACLR_64_F'!$H$2:$H$49</f>
             </numRef>
           </val>
         </ser>
@@ -1789,12 +1789,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_256_F'!$A$2:$B$43</f>
+              <f>'ACLR_256_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_256_F'!$C$2:$C$43</f>
+              <f>'ACLR_256_F'!$C$2:$C$49</f>
             </numRef>
           </val>
         </ser>
@@ -1822,12 +1822,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_256_F'!$A$2:$B$43</f>
+              <f>'ACLR_256_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_256_F'!$D$2:$D$43</f>
+              <f>'ACLR_256_F'!$D$2:$D$49</f>
             </numRef>
           </val>
         </ser>
@@ -1854,12 +1854,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_256_F'!$A$2:$B$43</f>
+              <f>'ACLR_256_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_256_F'!$E$2:$E$43</f>
+              <f>'ACLR_256_F'!$E$2:$E$49</f>
             </numRef>
           </val>
         </ser>
@@ -1886,12 +1886,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_256_F'!$A$2:$B$43</f>
+              <f>'ACLR_256_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_256_F'!$F$2:$F$43</f>
+              <f>'ACLR_256_F'!$F$2:$F$49</f>
             </numRef>
           </val>
         </ser>
@@ -1918,12 +1918,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_256_F'!$A$2:$B$43</f>
+              <f>'ACLR_256_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_256_F'!$G$2:$G$43</f>
+              <f>'ACLR_256_F'!$G$2:$G$49</f>
             </numRef>
           </val>
         </ser>
@@ -1950,12 +1950,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_256_F'!$A$2:$B$43</f>
+              <f>'ACLR_256_F'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_256_F'!$H$2:$H$43</f>
+              <f>'ACLR_256_F'!$H$2:$H$49</f>
             </numRef>
           </val>
         </ser>
@@ -2071,12 +2071,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_P'!$A$2:$A$15</f>
+              <f>'EVM_Q_P'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_P'!$B$2:$B$15</f>
+              <f>'EVM_Q_P'!$B$2:$B$17</f>
             </numRef>
           </val>
         </ser>
@@ -2103,12 +2103,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_P'!$A$2:$A$15</f>
+              <f>'EVM_Q_P'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_P'!$C$2:$C$15</f>
+              <f>'EVM_Q_P'!$C$2:$C$17</f>
             </numRef>
           </val>
         </ser>
@@ -2136,12 +2136,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_P'!$A$2:$A$15</f>
+              <f>'EVM_Q_P'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_P'!$D$2:$D$15</f>
+              <f>'EVM_Q_P'!$D$2:$D$17</f>
             </numRef>
           </val>
         </ser>
@@ -2255,12 +2255,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_F'!$A$2:$A$15</f>
+              <f>'EVM_Q_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_F'!$B$2:$B$15</f>
+              <f>'EVM_Q_F'!$B$2:$B$17</f>
             </numRef>
           </val>
         </ser>
@@ -2287,12 +2287,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_F'!$A$2:$A$15</f>
+              <f>'EVM_Q_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_F'!$C$2:$C$15</f>
+              <f>'EVM_Q_F'!$C$2:$C$17</f>
             </numRef>
           </val>
         </ser>
@@ -2320,12 +2320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_F'!$A$2:$A$15</f>
+              <f>'EVM_Q_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_F'!$D$2:$D$15</f>
+              <f>'EVM_Q_F'!$D$2:$D$17</f>
             </numRef>
           </val>
         </ser>
@@ -2439,12 +2439,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_P'!$A$2:$A$15</f>
+              <f>'EVM_16_P'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_P'!$B$2:$B$15</f>
+              <f>'EVM_16_P'!$B$2:$B$17</f>
             </numRef>
           </val>
         </ser>
@@ -2471,12 +2471,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_P'!$A$2:$A$15</f>
+              <f>'EVM_16_P'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_P'!$C$2:$C$15</f>
+              <f>'EVM_16_P'!$C$2:$C$17</f>
             </numRef>
           </val>
         </ser>
@@ -2504,12 +2504,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_P'!$A$2:$A$15</f>
+              <f>'EVM_16_P'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_P'!$D$2:$D$15</f>
+              <f>'EVM_16_P'!$D$2:$D$17</f>
             </numRef>
           </val>
         </ser>
@@ -2623,12 +2623,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_F'!$A$2:$A$15</f>
+              <f>'EVM_16_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_F'!$B$2:$B$15</f>
+              <f>'EVM_16_F'!$B$2:$B$17</f>
             </numRef>
           </val>
         </ser>
@@ -2655,12 +2655,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_F'!$A$2:$A$15</f>
+              <f>'EVM_16_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_F'!$C$2:$C$15</f>
+              <f>'EVM_16_F'!$C$2:$C$17</f>
             </numRef>
           </val>
         </ser>
@@ -2688,12 +2688,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_F'!$A$2:$A$15</f>
+              <f>'EVM_16_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_F'!$D$2:$D$15</f>
+              <f>'EVM_16_F'!$D$2:$D$17</f>
             </numRef>
           </val>
         </ser>
@@ -2807,12 +2807,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_P'!$A$2:$A$15</f>
+              <f>'PWR_Q_P'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_P'!$B$2:$B$15</f>
+              <f>'PWR_Q_P'!$B$2:$B$17</f>
             </numRef>
           </val>
         </ser>
@@ -2839,12 +2839,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_P'!$A$2:$A$15</f>
+              <f>'PWR_Q_P'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_P'!$C$2:$C$15</f>
+              <f>'PWR_Q_P'!$C$2:$C$17</f>
             </numRef>
           </val>
         </ser>
@@ -2872,12 +2872,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_P'!$A$2:$A$15</f>
+              <f>'PWR_Q_P'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_P'!$D$2:$D$15</f>
+              <f>'PWR_Q_P'!$D$2:$D$17</f>
             </numRef>
           </val>
         </ser>
@@ -2991,12 +2991,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_P'!$A$2:$A$15</f>
+              <f>'EVM_64_P'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_P'!$B$2:$B$15</f>
+              <f>'EVM_64_P'!$B$2:$B$17</f>
             </numRef>
           </val>
         </ser>
@@ -3023,12 +3023,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_P'!$A$2:$A$15</f>
+              <f>'EVM_64_P'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_P'!$C$2:$C$15</f>
+              <f>'EVM_64_P'!$C$2:$C$17</f>
             </numRef>
           </val>
         </ser>
@@ -3056,12 +3056,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_P'!$A$2:$A$15</f>
+              <f>'EVM_64_P'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_P'!$D$2:$D$15</f>
+              <f>'EVM_64_P'!$D$2:$D$17</f>
             </numRef>
           </val>
         </ser>
@@ -3175,12 +3175,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_F'!$A$2:$A$15</f>
+              <f>'EVM_64_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_F'!$B$2:$B$15</f>
+              <f>'EVM_64_F'!$B$2:$B$17</f>
             </numRef>
           </val>
         </ser>
@@ -3207,12 +3207,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_F'!$A$2:$A$15</f>
+              <f>'EVM_64_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_F'!$C$2:$C$15</f>
+              <f>'EVM_64_F'!$C$2:$C$17</f>
             </numRef>
           </val>
         </ser>
@@ -3240,12 +3240,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_F'!$A$2:$A$15</f>
+              <f>'EVM_64_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_F'!$D$2:$D$15</f>
+              <f>'EVM_64_F'!$D$2:$D$17</f>
             </numRef>
           </val>
         </ser>
@@ -3359,12 +3359,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_256_F'!$A$2:$A$15</f>
+              <f>'EVM_256_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_256_F'!$B$2:$B$15</f>
+              <f>'EVM_256_F'!$B$2:$B$17</f>
             </numRef>
           </val>
         </ser>
@@ -3391,12 +3391,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_256_F'!$A$2:$A$15</f>
+              <f>'EVM_256_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_256_F'!$C$2:$C$15</f>
+              <f>'EVM_256_F'!$C$2:$C$17</f>
             </numRef>
           </val>
         </ser>
@@ -3424,12 +3424,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_256_F'!$A$2:$A$15</f>
+              <f>'EVM_256_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_256_F'!$D$2:$D$15</f>
+              <f>'EVM_256_F'!$D$2:$D$17</f>
             </numRef>
           </val>
         </ser>
@@ -3543,12 +3543,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_F'!$A$2:$A$15</f>
+              <f>'PWR_Q_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_F'!$B$2:$B$15</f>
+              <f>'PWR_Q_F'!$B$2:$B$17</f>
             </numRef>
           </val>
         </ser>
@@ -3575,12 +3575,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_F'!$A$2:$A$15</f>
+              <f>'PWR_Q_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_F'!$C$2:$C$15</f>
+              <f>'PWR_Q_F'!$C$2:$C$17</f>
             </numRef>
           </val>
         </ser>
@@ -3608,12 +3608,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_F'!$A$2:$A$15</f>
+              <f>'PWR_Q_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_F'!$D$2:$D$15</f>
+              <f>'PWR_Q_F'!$D$2:$D$17</f>
             </numRef>
           </val>
         </ser>
@@ -3727,12 +3727,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_16_P'!$A$2:$A$15</f>
+              <f>'PWR_16_P'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_P'!$B$2:$B$15</f>
+              <f>'PWR_16_P'!$B$2:$B$17</f>
             </numRef>
           </val>
         </ser>
@@ -3759,12 +3759,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_16_P'!$A$2:$A$15</f>
+              <f>'PWR_16_P'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_P'!$C$2:$C$15</f>
+              <f>'PWR_16_P'!$C$2:$C$17</f>
             </numRef>
           </val>
         </ser>
@@ -3792,12 +3792,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_16_P'!$A$2:$A$15</f>
+              <f>'PWR_16_P'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_P'!$D$2:$D$15</f>
+              <f>'PWR_16_P'!$D$2:$D$17</f>
             </numRef>
           </val>
         </ser>
@@ -3911,12 +3911,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_16_F'!$A$2:$A$15</f>
+              <f>'PWR_16_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_F'!$B$2:$B$15</f>
+              <f>'PWR_16_F'!$B$2:$B$17</f>
             </numRef>
           </val>
         </ser>
@@ -3943,12 +3943,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_16_F'!$A$2:$A$15</f>
+              <f>'PWR_16_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_F'!$C$2:$C$15</f>
+              <f>'PWR_16_F'!$C$2:$C$17</f>
             </numRef>
           </val>
         </ser>
@@ -3976,12 +3976,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_16_F'!$A$2:$A$15</f>
+              <f>'PWR_16_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_F'!$D$2:$D$15</f>
+              <f>'PWR_16_F'!$D$2:$D$17</f>
             </numRef>
           </val>
         </ser>
@@ -4095,12 +4095,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_64_P'!$A$2:$A$15</f>
+              <f>'PWR_64_P'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_P'!$B$2:$B$15</f>
+              <f>'PWR_64_P'!$B$2:$B$17</f>
             </numRef>
           </val>
         </ser>
@@ -4127,12 +4127,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_64_P'!$A$2:$A$15</f>
+              <f>'PWR_64_P'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_P'!$C$2:$C$15</f>
+              <f>'PWR_64_P'!$C$2:$C$17</f>
             </numRef>
           </val>
         </ser>
@@ -4160,12 +4160,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_64_P'!$A$2:$A$15</f>
+              <f>'PWR_64_P'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_P'!$D$2:$D$15</f>
+              <f>'PWR_64_P'!$D$2:$D$17</f>
             </numRef>
           </val>
         </ser>
@@ -4279,12 +4279,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_64_F'!$A$2:$A$15</f>
+              <f>'PWR_64_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_F'!$B$2:$B$15</f>
+              <f>'PWR_64_F'!$B$2:$B$17</f>
             </numRef>
           </val>
         </ser>
@@ -4311,12 +4311,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_64_F'!$A$2:$A$15</f>
+              <f>'PWR_64_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_F'!$C$2:$C$15</f>
+              <f>'PWR_64_F'!$C$2:$C$17</f>
             </numRef>
           </val>
         </ser>
@@ -4344,12 +4344,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_64_F'!$A$2:$A$15</f>
+              <f>'PWR_64_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_F'!$D$2:$D$15</f>
+              <f>'PWR_64_F'!$D$2:$D$17</f>
             </numRef>
           </val>
         </ser>
@@ -4463,12 +4463,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_256_F'!$A$2:$A$15</f>
+              <f>'PWR_256_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_256_F'!$B$2:$B$15</f>
+              <f>'PWR_256_F'!$B$2:$B$17</f>
             </numRef>
           </val>
         </ser>
@@ -4495,12 +4495,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_256_F'!$A$2:$A$15</f>
+              <f>'PWR_256_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_256_F'!$C$2:$C$15</f>
+              <f>'PWR_256_F'!$C$2:$C$17</f>
             </numRef>
           </val>
         </ser>
@@ -4528,12 +4528,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_256_F'!$A$2:$A$15</f>
+              <f>'PWR_256_F'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_256_F'!$D$2:$D$15</f>
+              <f>'PWR_256_F'!$D$2:$D$17</f>
             </numRef>
           </val>
         </ser>
@@ -4648,12 +4648,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$43</f>
+              <f>'ACLR_Q_P'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$C$2:$C$43</f>
+              <f>'ACLR_Q_P'!$C$2:$C$49</f>
             </numRef>
           </val>
         </ser>
@@ -4681,12 +4681,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$43</f>
+              <f>'ACLR_Q_P'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$D$2:$D$43</f>
+              <f>'ACLR_Q_P'!$D$2:$D$49</f>
             </numRef>
           </val>
         </ser>
@@ -4713,12 +4713,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$43</f>
+              <f>'ACLR_Q_P'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$E$2:$E$43</f>
+              <f>'ACLR_Q_P'!$E$2:$E$49</f>
             </numRef>
           </val>
         </ser>
@@ -4745,12 +4745,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$43</f>
+              <f>'ACLR_Q_P'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$F$2:$F$43</f>
+              <f>'ACLR_Q_P'!$F$2:$F$49</f>
             </numRef>
           </val>
         </ser>
@@ -4777,12 +4777,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$43</f>
+              <f>'ACLR_Q_P'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$G$2:$G$43</f>
+              <f>'ACLR_Q_P'!$G$2:$G$49</f>
             </numRef>
           </val>
         </ser>
@@ -4809,12 +4809,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$43</f>
+              <f>'ACLR_Q_P'!$A$2:$B$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$H$2:$H$43</f>
+              <f>'ACLR_Q_P'!$H$2:$H$49</f>
             </numRef>
           </val>
         </ser>
@@ -5769,7 +5769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5993,6 +5993,34 @@
       </c>
       <c r="D15" t="n">
         <v>24.85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="C16" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="D16" t="n">
+        <v>24.15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="C17" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>24.33</v>
       </c>
     </row>
   </sheetData>
@@ -6007,7 +6035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7231,6 +7259,174 @@
       </c>
       <c r="H43" t="n">
         <v>-52.22</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>-44.3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-44.32</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-54</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-53.64</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-55.49</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-54.82</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>-40.21</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-41.08</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-47.23</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-47.67</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-48.65</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-50.12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>-39.21</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-39.27</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-46</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-45.59</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-47.43</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-47.53</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>48</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>-40.8</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-41.07</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-47.68</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-47.65</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-49.27</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-49.59</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>-38.02</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-38.38</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-45.33</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-44.96</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-46.88</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-46.71</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-43.23</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-43.53</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-50.58</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-49.32</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-52.03</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-51.58</v>
       </c>
     </row>
   </sheetData>
@@ -7245,7 +7441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8469,6 +8665,174 @@
       </c>
       <c r="H43" t="n">
         <v>-72.67</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>-45.49</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-53.05</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-47.09</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-61.34</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-50.63</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-61.02</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>-44.94</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-53.27</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-43.2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-61.28</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-50.74</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-61.49</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>-43.78</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-51.17</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-42.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-59.52</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-50.84</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-59.23</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>48</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>-44.91</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-54.7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-43.05</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-61.79</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-51.42</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-62.1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>-42.71</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-51.06</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-40.89</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-59.29</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-49.83</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-59.41</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-45.14</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-50.67</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-44.39</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-59.21</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-51.55</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-58.99</v>
       </c>
     </row>
   </sheetData>
@@ -8483,7 +8847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9707,6 +10071,174 @@
       </c>
       <c r="H43" t="n">
         <v>-56.21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>-43.53</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-43.21</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-50.22</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-51.9</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-52.14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>-37.92</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-41.32</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-47.24</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-48.15</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-47.41</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-50.09</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>-40.84</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-41.07</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-50.62</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-49.75</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-51.86</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-51.54</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>48</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>-39.97</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-41.42</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-49.63</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-49.88</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-50.44</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-51.7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>-36.68</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-36.56</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-45.07</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-44.61</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-45.81</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-45.58</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-44.99</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-42.72</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-52.92</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-52.19</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-54.34</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-53.22</v>
       </c>
     </row>
   </sheetData>
@@ -9721,7 +10253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10945,6 +11477,174 @@
       </c>
       <c r="H43" t="n">
         <v>-71.88</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>-47.45</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-51.91</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-45.07</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-60.34</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-53.52</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-59.68</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>-45.18</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-57.03</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-43.2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-63.54</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-50.15</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-63.75</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>-46.69</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-55.74</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-45.34</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-62.14</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-52.28</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-62.36</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>48</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>-46.06</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-54.63</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-45.21</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-61.31</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-51.65</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-61.74</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>-43.55</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-55.22</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-41.98</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-61.89</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-49.53</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-61.91</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-47.17</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-54.74</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-46.27</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-61.83</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-52.34</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-61.73</v>
       </c>
     </row>
   </sheetData>
@@ -10959,7 +11659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12183,6 +12883,174 @@
       </c>
       <c r="H43" t="n">
         <v>-53.39</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>-44.97</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-43.37</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-51.13</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-50.96</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-52.79</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-51.88</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>-35.98</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-38.47</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-44.82</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-45.79</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-45.55</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-47.12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>-36.96</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-37.58</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-45.89</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-45.61</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-46.83</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-46.95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>48</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>-36.5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-37.89</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-45.42</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-45.76</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-46.19</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-47.03</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>-34.44</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-34.61</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-42.5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-42.32</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-43.38</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-43.19</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-41.25</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-40.22</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-50.62</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-49.36</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-51.74</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-50.41</v>
       </c>
     </row>
   </sheetData>
@@ -12197,7 +13065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13421,6 +14289,174 @@
       </c>
       <c r="H43" t="n">
         <v>-56.43</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>-47.26</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-47.48</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-52.67</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-54.15</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-55.41</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-56.24</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>-49.16</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-48.15</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-54.38</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-53.53</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-57.38</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-56.27</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>-49.28</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-46.96</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-53.48</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-52.51</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-56.82</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-54.59</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>48</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>-49.65</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-47.62</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-53.79</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-53.04</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-57.76</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-55.66</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>-47.71</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-45.17</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-52.73</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-50.95</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-55.45</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-52.99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-47.37</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-45.28</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-52.43</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-51.15</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-54.9</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-53.06</v>
       </c>
     </row>
   </sheetData>
@@ -13435,7 +14471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13659,6 +14695,34 @@
       </c>
       <c r="D15" t="n">
         <v>2.06</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -13673,7 +14737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13897,6 +14961,34 @@
       </c>
       <c r="D15" t="n">
         <v>2.43</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>
@@ -13911,7 +15003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14135,6 +15227,34 @@
       </c>
       <c r="D15" t="n">
         <v>2.58</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
@@ -14149,7 +15269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14373,6 +15493,34 @@
       </c>
       <c r="D15" t="n">
         <v>2.12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>
@@ -14387,7 +15535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14611,6 +15759,34 @@
       </c>
       <c r="D15" t="n">
         <v>25.05</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="D16" t="n">
+        <v>24.26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="C17" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="D17" t="n">
+        <v>24.38</v>
       </c>
     </row>
   </sheetData>
@@ -14625,7 +15801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14849,6 +16025,34 @@
       </c>
       <c r="D15" t="n">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.11</v>
       </c>
     </row>
   </sheetData>
@@ -14863,7 +16067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15087,6 +16291,34 @@
       </c>
       <c r="D15" t="n">
         <v>2.62</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>
@@ -15101,7 +16333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15325,6 +16557,34 @@
       </c>
       <c r="D15" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>
@@ -15339,7 +16599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15563,6 +16823,34 @@
       </c>
       <c r="D15" t="n">
         <v>23.76</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="D16" t="n">
+        <v>23.46</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="C17" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="D17" t="n">
+        <v>23.53</v>
       </c>
     </row>
   </sheetData>
@@ -15577,7 +16865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15801,6 +17089,34 @@
       </c>
       <c r="D15" t="n">
         <v>23.99</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>23.42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="C17" t="n">
+        <v>23.58</v>
+      </c>
+      <c r="D17" t="n">
+        <v>23.49</v>
       </c>
     </row>
   </sheetData>
@@ -15815,7 +17131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16039,6 +17355,34 @@
       </c>
       <c r="D15" t="n">
         <v>22.84</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="C16" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="D16" t="n">
+        <v>22.44</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="C17" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="D17" t="n">
+        <v>22.55</v>
       </c>
     </row>
   </sheetData>
@@ -16053,7 +17397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16277,6 +17621,34 @@
       </c>
       <c r="D15" t="n">
         <v>23.07</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="C16" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D16" t="n">
+        <v>22.49</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="C17" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="D17" t="n">
+        <v>22.56</v>
       </c>
     </row>
   </sheetData>
@@ -16291,7 +17663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16515,6 +17887,34 @@
       </c>
       <c r="D15" t="n">
         <v>21.78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="D16" t="n">
+        <v>21.34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>21.38</v>
       </c>
     </row>
   </sheetData>
@@ -16529,7 +17929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16753,6 +18153,34 @@
       </c>
       <c r="D15" t="n">
         <v>19.77</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="D16" t="n">
+        <v>19.31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="C17" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19.52</v>
       </c>
     </row>
   </sheetData>
@@ -16767,7 +18195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17993,6 +19421,174 @@
         <v>-73.59999999999999</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>-48.5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-53.77</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-48.01</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-61.71</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-54.25</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-62.08</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>-47.55</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-52.99</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-45.88</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-60.82</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-54.4</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-61.74</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>-46.63</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-51.3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-46.44</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-59.71</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-54.29</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-59.4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>48</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>-48.54</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-54.4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-47.45</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-61.96</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-55.61</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-61.68</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>-45.53</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-54.93</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-43.39</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-62.32</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-52.46</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-62.53</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-47.89</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-51.25</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-48.79</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-59.57</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-55.16</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-59.69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
